--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/China Chinese Super League_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/China Chinese Super League_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="174">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -418,6 +418,12 @@
     <t>['8', '16', '54']</t>
   </si>
   <si>
+    <t>['21', '49']</t>
+  </si>
+  <si>
+    <t>['15', '45+4', '47', '52', '76', '90+1']</t>
+  </si>
+  <si>
     <t>['53', '79']</t>
   </si>
   <si>
@@ -527,6 +533,9 @@
   </si>
   <si>
     <t>['4', '26']</t>
+  </si>
+  <si>
+    <t>['4']</t>
   </si>
 </sst>
 </file>
@@ -888,7 +897,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP55"/>
+  <dimension ref="A1:BP57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1228,7 +1237,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ2">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1431,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ3">
         <v>0.6</v>
@@ -1559,7 +1568,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1765,7 +1774,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q5">
         <v>2.85</v>
@@ -1971,7 +1980,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q6">
         <v>2.2</v>
@@ -2383,7 +2392,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q8">
         <v>2.04</v>
@@ -2589,7 +2598,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q9">
         <v>1.5</v>
@@ -2795,7 +2804,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q10">
         <v>2.1</v>
@@ -3207,7 +3216,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3413,7 +3422,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -3619,7 +3628,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q14">
         <v>2.13</v>
@@ -3697,7 +3706,7 @@
         <v>3</v>
       </c>
       <c r="AP14">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ14">
         <v>1.5</v>
@@ -3825,7 +3834,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q15">
         <v>3.2</v>
@@ -4031,7 +4040,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4318,7 +4327,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ17">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4443,7 +4452,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4649,7 +4658,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q19">
         <v>3.75</v>
@@ -4855,7 +4864,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q20">
         <v>3.25</v>
@@ -5473,7 +5482,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5679,7 +5688,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -5760,7 +5769,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ24">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AR24">
         <v>1.93</v>
@@ -5885,7 +5894,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -5963,7 +5972,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ25">
         <v>2.33</v>
@@ -6091,7 +6100,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6503,7 +6512,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6584,7 +6593,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ28">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR28">
         <v>0</v>
@@ -6709,7 +6718,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -6787,7 +6796,7 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ29">
         <v>1</v>
@@ -7121,7 +7130,7 @@
         <v>112</v>
       </c>
       <c r="P31" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q31">
         <v>3.42</v>
@@ -7327,7 +7336,7 @@
         <v>88</v>
       </c>
       <c r="P32" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q32">
         <v>2.9</v>
@@ -7533,7 +7542,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q33">
         <v>1.56</v>
@@ -7739,7 +7748,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q34">
         <v>3.25</v>
@@ -7945,7 +7954,7 @@
         <v>115</v>
       </c>
       <c r="P35" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q35">
         <v>4.25</v>
@@ -8026,7 +8035,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ35">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AR35">
         <v>1.08</v>
@@ -8151,7 +8160,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q36">
         <v>3.15</v>
@@ -8357,7 +8366,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q37">
         <v>2.75</v>
@@ -8438,7 +8447,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ37">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR37">
         <v>1.61</v>
@@ -8769,7 +8778,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9053,7 +9062,7 @@
         <v>2</v>
       </c>
       <c r="AP40">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ40">
         <v>1</v>
@@ -9593,7 +9602,7 @@
         <v>123</v>
       </c>
       <c r="P43" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9799,7 +9808,7 @@
         <v>124</v>
       </c>
       <c r="P44" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q44">
         <v>3.2</v>
@@ -10005,7 +10014,7 @@
         <v>88</v>
       </c>
       <c r="P45" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q45">
         <v>7.5</v>
@@ -10211,7 +10220,7 @@
         <v>125</v>
       </c>
       <c r="P46" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q46">
         <v>3.1</v>
@@ -10417,7 +10426,7 @@
         <v>126</v>
       </c>
       <c r="P47" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q47">
         <v>1.95</v>
@@ -10495,7 +10504,7 @@
         <v>1.33</v>
       </c>
       <c r="AP47">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ47">
         <v>1</v>
@@ -10623,7 +10632,7 @@
         <v>127</v>
       </c>
       <c r="P48" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q48">
         <v>3.7</v>
@@ -10704,7 +10713,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ48">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AR48">
         <v>1.15</v>
@@ -10829,7 +10838,7 @@
         <v>128</v>
       </c>
       <c r="P49" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q49">
         <v>4.33</v>
@@ -11035,7 +11044,7 @@
         <v>129</v>
       </c>
       <c r="P50" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q50">
         <v>2.65</v>
@@ -11241,7 +11250,7 @@
         <v>130</v>
       </c>
       <c r="P51" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q51">
         <v>4.15</v>
@@ -11653,7 +11662,7 @@
         <v>132</v>
       </c>
       <c r="P53" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q53">
         <v>1.8</v>
@@ -11859,7 +11868,7 @@
         <v>104</v>
       </c>
       <c r="P54" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q54">
         <v>1.71</v>
@@ -12065,7 +12074,7 @@
         <v>133</v>
       </c>
       <c r="P55" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q55">
         <v>1.45</v>
@@ -12143,7 +12152,7 @@
         <v>0</v>
       </c>
       <c r="AP55">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ55">
         <v>0</v>
@@ -12222,6 +12231,418 @@
       </c>
       <c r="BP55">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:68">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>7825248</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="2">
+        <v>45766.33333333334</v>
+      </c>
+      <c r="F56">
+        <v>8</v>
+      </c>
+      <c r="G56" t="s">
+        <v>71</v>
+      </c>
+      <c r="H56" t="s">
+        <v>80</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>2</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>2</v>
+      </c>
+      <c r="O56" t="s">
+        <v>134</v>
+      </c>
+      <c r="P56" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q56">
+        <v>1.67</v>
+      </c>
+      <c r="R56">
+        <v>2.88</v>
+      </c>
+      <c r="S56">
+        <v>8</v>
+      </c>
+      <c r="T56">
+        <v>1.22</v>
+      </c>
+      <c r="U56">
+        <v>4</v>
+      </c>
+      <c r="V56">
+        <v>2.1</v>
+      </c>
+      <c r="W56">
+        <v>1.67</v>
+      </c>
+      <c r="X56">
+        <v>4.5</v>
+      </c>
+      <c r="Y56">
+        <v>1.18</v>
+      </c>
+      <c r="Z56">
+        <v>1.24</v>
+      </c>
+      <c r="AA56">
+        <v>6.3</v>
+      </c>
+      <c r="AB56">
+        <v>9.5</v>
+      </c>
+      <c r="AC56">
+        <v>0</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
+      </c>
+      <c r="AF56">
+        <v>0</v>
+      </c>
+      <c r="AG56">
+        <v>1.44</v>
+      </c>
+      <c r="AH56">
+        <v>2.59</v>
+      </c>
+      <c r="AI56">
+        <v>1.8</v>
+      </c>
+      <c r="AJ56">
+        <v>1.95</v>
+      </c>
+      <c r="AK56">
+        <v>0</v>
+      </c>
+      <c r="AL56">
+        <v>0</v>
+      </c>
+      <c r="AM56">
+        <v>0</v>
+      </c>
+      <c r="AN56">
+        <v>2.6</v>
+      </c>
+      <c r="AO56">
+        <v>0.25</v>
+      </c>
+      <c r="AP56">
+        <v>2.67</v>
+      </c>
+      <c r="AQ56">
+        <v>0.2</v>
+      </c>
+      <c r="AR56">
+        <v>2.49</v>
+      </c>
+      <c r="AS56">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT56">
+        <v>3.43</v>
+      </c>
+      <c r="AU56">
+        <v>7</v>
+      </c>
+      <c r="AV56">
+        <v>5</v>
+      </c>
+      <c r="AW56">
+        <v>9</v>
+      </c>
+      <c r="AX56">
+        <v>3</v>
+      </c>
+      <c r="AY56">
+        <v>19</v>
+      </c>
+      <c r="AZ56">
+        <v>11</v>
+      </c>
+      <c r="BA56">
+        <v>8</v>
+      </c>
+      <c r="BB56">
+        <v>3</v>
+      </c>
+      <c r="BC56">
+        <v>11</v>
+      </c>
+      <c r="BD56">
+        <v>0</v>
+      </c>
+      <c r="BE56">
+        <v>0</v>
+      </c>
+      <c r="BF56">
+        <v>0</v>
+      </c>
+      <c r="BG56">
+        <v>0</v>
+      </c>
+      <c r="BH56">
+        <v>0</v>
+      </c>
+      <c r="BI56">
+        <v>0</v>
+      </c>
+      <c r="BJ56">
+        <v>0</v>
+      </c>
+      <c r="BK56">
+        <v>0</v>
+      </c>
+      <c r="BL56">
+        <v>0</v>
+      </c>
+      <c r="BM56">
+        <v>0</v>
+      </c>
+      <c r="BN56">
+        <v>0</v>
+      </c>
+      <c r="BO56">
+        <v>0</v>
+      </c>
+      <c r="BP56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:68">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>7825249</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="2">
+        <v>45766.35763888889</v>
+      </c>
+      <c r="F57">
+        <v>8</v>
+      </c>
+      <c r="G57" t="s">
+        <v>84</v>
+      </c>
+      <c r="H57" t="s">
+        <v>75</v>
+      </c>
+      <c r="I57">
+        <v>2</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>3</v>
+      </c>
+      <c r="L57">
+        <v>6</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>7</v>
+      </c>
+      <c r="O57" t="s">
+        <v>135</v>
+      </c>
+      <c r="P57" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q57">
+        <v>2.88</v>
+      </c>
+      <c r="R57">
+        <v>2.3</v>
+      </c>
+      <c r="S57">
+        <v>3.4</v>
+      </c>
+      <c r="T57">
+        <v>1.33</v>
+      </c>
+      <c r="U57">
+        <v>3.25</v>
+      </c>
+      <c r="V57">
+        <v>2.5</v>
+      </c>
+      <c r="W57">
+        <v>1.5</v>
+      </c>
+      <c r="X57">
+        <v>6.5</v>
+      </c>
+      <c r="Y57">
+        <v>1.11</v>
+      </c>
+      <c r="Z57">
+        <v>2.6</v>
+      </c>
+      <c r="AA57">
+        <v>3.72</v>
+      </c>
+      <c r="AB57">
+        <v>2.4</v>
+      </c>
+      <c r="AC57">
+        <v>0</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
+      </c>
+      <c r="AF57">
+        <v>0</v>
+      </c>
+      <c r="AG57">
+        <v>1.61</v>
+      </c>
+      <c r="AH57">
+        <v>2.1</v>
+      </c>
+      <c r="AI57">
+        <v>1.53</v>
+      </c>
+      <c r="AJ57">
+        <v>2.38</v>
+      </c>
+      <c r="AK57">
+        <v>0</v>
+      </c>
+      <c r="AL57">
+        <v>0</v>
+      </c>
+      <c r="AM57">
+        <v>0</v>
+      </c>
+      <c r="AN57">
+        <v>2</v>
+      </c>
+      <c r="AO57">
+        <v>3</v>
+      </c>
+      <c r="AP57">
+        <v>2.33</v>
+      </c>
+      <c r="AQ57">
+        <v>2.25</v>
+      </c>
+      <c r="AR57">
+        <v>1.81</v>
+      </c>
+      <c r="AS57">
+        <v>2.19</v>
+      </c>
+      <c r="AT57">
+        <v>4</v>
+      </c>
+      <c r="AU57">
+        <v>9</v>
+      </c>
+      <c r="AV57">
+        <v>5</v>
+      </c>
+      <c r="AW57">
+        <v>14</v>
+      </c>
+      <c r="AX57">
+        <v>4</v>
+      </c>
+      <c r="AY57">
+        <v>23</v>
+      </c>
+      <c r="AZ57">
+        <v>9</v>
+      </c>
+      <c r="BA57">
+        <v>8</v>
+      </c>
+      <c r="BB57">
+        <v>1</v>
+      </c>
+      <c r="BC57">
+        <v>9</v>
+      </c>
+      <c r="BD57">
+        <v>0</v>
+      </c>
+      <c r="BE57">
+        <v>0</v>
+      </c>
+      <c r="BF57">
+        <v>0</v>
+      </c>
+      <c r="BG57">
+        <v>0</v>
+      </c>
+      <c r="BH57">
+        <v>0</v>
+      </c>
+      <c r="BI57">
+        <v>0</v>
+      </c>
+      <c r="BJ57">
+        <v>0</v>
+      </c>
+      <c r="BK57">
+        <v>0</v>
+      </c>
+      <c r="BL57">
+        <v>0</v>
+      </c>
+      <c r="BM57">
+        <v>0</v>
+      </c>
+      <c r="BN57">
+        <v>0</v>
+      </c>
+      <c r="BO57">
+        <v>0</v>
+      </c>
+      <c r="BP57">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/China Chinese Super League_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/China Chinese Super League_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="180">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -424,6 +424,21 @@
     <t>['15', '45+4', '47', '52', '76', '90+1']</t>
   </si>
   <si>
+    <t>['59', '75']</t>
+  </si>
+  <si>
+    <t>['65', '71', '79']</t>
+  </si>
+  <si>
+    <t>['53', '70', '77']</t>
+  </si>
+  <si>
+    <t>['81', '89']</t>
+  </si>
+  <si>
+    <t>['31']</t>
+  </si>
+  <si>
     <t>['53', '79']</t>
   </si>
   <si>
@@ -536,6 +551,9 @@
   </si>
   <si>
     <t>['4']</t>
+  </si>
+  <si>
+    <t>['9', '21', '74']</t>
   </si>
 </sst>
 </file>
@@ -897,7 +915,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP57"/>
+  <dimension ref="A1:BP63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1568,7 +1586,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1774,7 +1792,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="Q5">
         <v>2.85</v>
@@ -1980,7 +1998,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="Q6">
         <v>2.2</v>
@@ -2061,7 +2079,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ6">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2392,7 +2410,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="Q8">
         <v>2.04</v>
@@ -2470,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ8">
         <v>0.67</v>
@@ -2598,7 +2616,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="Q9">
         <v>1.5</v>
@@ -2676,10 +2694,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ9">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2804,7 +2822,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="Q10">
         <v>2.1</v>
@@ -2885,7 +2903,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ10">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR10">
         <v>2.21</v>
@@ -3088,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ11">
         <v>0.6</v>
@@ -3216,7 +3234,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3297,7 +3315,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ12">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR12">
         <v>1.44</v>
@@ -3422,7 +3440,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -3500,7 +3518,7 @@
         <v>1</v>
       </c>
       <c r="AP13">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ13">
         <v>1</v>
@@ -3628,7 +3646,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="Q14">
         <v>2.13</v>
@@ -3834,7 +3852,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="Q15">
         <v>3.2</v>
@@ -3915,7 +3933,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR15">
         <v>1.22</v>
@@ -4040,7 +4058,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4324,7 +4342,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ17">
         <v>0.2</v>
@@ -4452,7 +4470,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4530,7 +4548,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ18">
         <v>2</v>
@@ -4658,7 +4676,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="Q19">
         <v>3.75</v>
@@ -4739,7 +4757,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ19">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -4864,7 +4882,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="Q20">
         <v>3.25</v>
@@ -5354,7 +5372,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ22">
         <v>0</v>
@@ -5482,7 +5500,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5560,7 +5578,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ23">
         <v>2</v>
@@ -5688,7 +5706,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -5766,7 +5784,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ24">
         <v>2.25</v>
@@ -5894,7 +5912,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -5975,7 +5993,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ25">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR25">
         <v>0</v>
@@ -6100,7 +6118,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6178,7 +6196,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ26">
         <v>2</v>
@@ -6387,7 +6405,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ27">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR27">
         <v>1.37</v>
@@ -6512,7 +6530,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6590,7 +6608,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ28">
         <v>0.2</v>
@@ -6718,7 +6736,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -7005,7 +7023,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ30">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR30">
         <v>1.32</v>
@@ -7130,7 +7148,7 @@
         <v>112</v>
       </c>
       <c r="P31" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="Q31">
         <v>3.42</v>
@@ -7208,7 +7226,7 @@
         <v>2</v>
       </c>
       <c r="AP31">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ31">
         <v>1.5</v>
@@ -7336,7 +7354,7 @@
         <v>88</v>
       </c>
       <c r="P32" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="Q32">
         <v>2.9</v>
@@ -7417,7 +7435,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ32">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR32">
         <v>2.46</v>
@@ -7542,7 +7560,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q33">
         <v>1.56</v>
@@ -7620,7 +7638,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ33">
         <v>0.67</v>
@@ -7748,7 +7766,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="Q34">
         <v>3.25</v>
@@ -7954,7 +7972,7 @@
         <v>115</v>
       </c>
       <c r="P35" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q35">
         <v>4.25</v>
@@ -8032,7 +8050,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ35">
         <v>2.25</v>
@@ -8160,7 +8178,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Q36">
         <v>3.15</v>
@@ -8238,7 +8256,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ36">
         <v>1.67</v>
@@ -8366,7 +8384,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="Q37">
         <v>2.75</v>
@@ -8444,7 +8462,7 @@
         <v>0.33</v>
       </c>
       <c r="AP37">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ37">
         <v>0.2</v>
@@ -8653,7 +8671,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ38">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR38">
         <v>2.39</v>
@@ -8778,7 +8796,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -8856,7 +8874,7 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ39">
         <v>2</v>
@@ -9065,7 +9083,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ40">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR40">
         <v>0.75</v>
@@ -9477,7 +9495,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ42">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR42">
         <v>2.03</v>
@@ -9602,7 +9620,7 @@
         <v>123</v>
       </c>
       <c r="P43" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9680,7 +9698,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ43">
         <v>0.6</v>
@@ -9808,7 +9826,7 @@
         <v>124</v>
       </c>
       <c r="P44" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q44">
         <v>3.2</v>
@@ -10014,7 +10032,7 @@
         <v>88</v>
       </c>
       <c r="P45" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="Q45">
         <v>7.5</v>
@@ -10095,7 +10113,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ45">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR45">
         <v>1.43</v>
@@ -10220,7 +10238,7 @@
         <v>125</v>
       </c>
       <c r="P46" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Q46">
         <v>3.1</v>
@@ -10426,7 +10444,7 @@
         <v>126</v>
       </c>
       <c r="P47" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Q47">
         <v>1.95</v>
@@ -10507,7 +10525,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ47">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR47">
         <v>2.72</v>
@@ -10632,7 +10650,7 @@
         <v>127</v>
       </c>
       <c r="P48" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q48">
         <v>3.7</v>
@@ -10710,7 +10728,7 @@
         <v>3</v>
       </c>
       <c r="AP48">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ48">
         <v>2.25</v>
@@ -10838,7 +10856,7 @@
         <v>128</v>
       </c>
       <c r="P49" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Q49">
         <v>4.33</v>
@@ -11044,7 +11062,7 @@
         <v>129</v>
       </c>
       <c r="P50" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="Q50">
         <v>2.65</v>
@@ -11250,7 +11268,7 @@
         <v>130</v>
       </c>
       <c r="P51" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Q51">
         <v>4.15</v>
@@ -11328,7 +11346,7 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ51">
         <v>2</v>
@@ -11662,7 +11680,7 @@
         <v>132</v>
       </c>
       <c r="P53" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q53">
         <v>1.8</v>
@@ -11868,7 +11886,7 @@
         <v>104</v>
       </c>
       <c r="P54" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q54">
         <v>1.71</v>
@@ -12074,7 +12092,7 @@
         <v>133</v>
       </c>
       <c r="P55" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q55">
         <v>1.45</v>
@@ -12486,7 +12504,7 @@
         <v>135</v>
       </c>
       <c r="P57" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q57">
         <v>2.88</v>
@@ -12643,6 +12661,1242 @@
       </c>
       <c r="BP57">
         <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:68">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>7825250</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45767.1875</v>
+      </c>
+      <c r="F58">
+        <v>8</v>
+      </c>
+      <c r="G58" t="s">
+        <v>85</v>
+      </c>
+      <c r="H58" t="s">
+        <v>72</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58" t="s">
+        <v>88</v>
+      </c>
+      <c r="P58" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q58">
+        <v>3.1</v>
+      </c>
+      <c r="R58">
+        <v>2.3</v>
+      </c>
+      <c r="S58">
+        <v>3.2</v>
+      </c>
+      <c r="T58">
+        <v>1.33</v>
+      </c>
+      <c r="U58">
+        <v>3.25</v>
+      </c>
+      <c r="V58">
+        <v>2.5</v>
+      </c>
+      <c r="W58">
+        <v>1.5</v>
+      </c>
+      <c r="X58">
+        <v>6.5</v>
+      </c>
+      <c r="Y58">
+        <v>1.11</v>
+      </c>
+      <c r="Z58">
+        <v>2.48</v>
+      </c>
+      <c r="AA58">
+        <v>3.62</v>
+      </c>
+      <c r="AB58">
+        <v>2.56</v>
+      </c>
+      <c r="AC58">
+        <v>1</v>
+      </c>
+      <c r="AD58">
+        <v>11.3</v>
+      </c>
+      <c r="AE58">
+        <v>1.24</v>
+      </c>
+      <c r="AF58">
+        <v>4.19</v>
+      </c>
+      <c r="AG58">
+        <v>1.65</v>
+      </c>
+      <c r="AH58">
+        <v>2.05</v>
+      </c>
+      <c r="AI58">
+        <v>1.53</v>
+      </c>
+      <c r="AJ58">
+        <v>2.38</v>
+      </c>
+      <c r="AK58">
+        <v>1.48</v>
+      </c>
+      <c r="AL58">
+        <v>1.25</v>
+      </c>
+      <c r="AM58">
+        <v>1.48</v>
+      </c>
+      <c r="AN58">
+        <v>0.5</v>
+      </c>
+      <c r="AO58">
+        <v>1</v>
+      </c>
+      <c r="AP58">
+        <v>0.67</v>
+      </c>
+      <c r="AQ58">
+        <v>1</v>
+      </c>
+      <c r="AR58">
+        <v>1.38</v>
+      </c>
+      <c r="AS58">
+        <v>1.22</v>
+      </c>
+      <c r="AT58">
+        <v>2.6</v>
+      </c>
+      <c r="AU58">
+        <v>4</v>
+      </c>
+      <c r="AV58">
+        <v>2</v>
+      </c>
+      <c r="AW58">
+        <v>7</v>
+      </c>
+      <c r="AX58">
+        <v>6</v>
+      </c>
+      <c r="AY58">
+        <v>13</v>
+      </c>
+      <c r="AZ58">
+        <v>9</v>
+      </c>
+      <c r="BA58">
+        <v>2</v>
+      </c>
+      <c r="BB58">
+        <v>3</v>
+      </c>
+      <c r="BC58">
+        <v>5</v>
+      </c>
+      <c r="BD58">
+        <v>1.85</v>
+      </c>
+      <c r="BE58">
+        <v>8.5</v>
+      </c>
+      <c r="BF58">
+        <v>2.15</v>
+      </c>
+      <c r="BG58">
+        <v>1.23</v>
+      </c>
+      <c r="BH58">
+        <v>3.42</v>
+      </c>
+      <c r="BI58">
+        <v>1.46</v>
+      </c>
+      <c r="BJ58">
+        <v>2.45</v>
+      </c>
+      <c r="BK58">
+        <v>1.83</v>
+      </c>
+      <c r="BL58">
+        <v>1.85</v>
+      </c>
+      <c r="BM58">
+        <v>2.32</v>
+      </c>
+      <c r="BN58">
+        <v>1.51</v>
+      </c>
+      <c r="BO58">
+        <v>3.08</v>
+      </c>
+      <c r="BP58">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:68">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>7825252</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45767.3125</v>
+      </c>
+      <c r="F59">
+        <v>8</v>
+      </c>
+      <c r="G59" t="s">
+        <v>79</v>
+      </c>
+      <c r="H59" t="s">
+        <v>82</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>2</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>2</v>
+      </c>
+      <c r="O59" t="s">
+        <v>136</v>
+      </c>
+      <c r="P59" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q59">
+        <v>2.88</v>
+      </c>
+      <c r="R59">
+        <v>2.25</v>
+      </c>
+      <c r="S59">
+        <v>3.4</v>
+      </c>
+      <c r="T59">
+        <v>1.36</v>
+      </c>
+      <c r="U59">
+        <v>3</v>
+      </c>
+      <c r="V59">
+        <v>2.63</v>
+      </c>
+      <c r="W59">
+        <v>1.44</v>
+      </c>
+      <c r="X59">
+        <v>7</v>
+      </c>
+      <c r="Y59">
+        <v>1.1</v>
+      </c>
+      <c r="Z59">
+        <v>2.29</v>
+      </c>
+      <c r="AA59">
+        <v>3.5</v>
+      </c>
+      <c r="AB59">
+        <v>2.91</v>
+      </c>
+      <c r="AC59">
+        <v>1.02</v>
+      </c>
+      <c r="AD59">
+        <v>9.75</v>
+      </c>
+      <c r="AE59">
+        <v>1.3</v>
+      </c>
+      <c r="AF59">
+        <v>3.52</v>
+      </c>
+      <c r="AG59">
+        <v>1.75</v>
+      </c>
+      <c r="AH59">
+        <v>2.05</v>
+      </c>
+      <c r="AI59">
+        <v>1.62</v>
+      </c>
+      <c r="AJ59">
+        <v>2.2</v>
+      </c>
+      <c r="AK59">
+        <v>1.35</v>
+      </c>
+      <c r="AL59">
+        <v>1.28</v>
+      </c>
+      <c r="AM59">
+        <v>1.6</v>
+      </c>
+      <c r="AN59">
+        <v>1.25</v>
+      </c>
+      <c r="AO59">
+        <v>0.5</v>
+      </c>
+      <c r="AP59">
+        <v>1.6</v>
+      </c>
+      <c r="AQ59">
+        <v>0.4</v>
+      </c>
+      <c r="AR59">
+        <v>1.22</v>
+      </c>
+      <c r="AS59">
+        <v>1.21</v>
+      </c>
+      <c r="AT59">
+        <v>2.43</v>
+      </c>
+      <c r="AU59">
+        <v>3</v>
+      </c>
+      <c r="AV59">
+        <v>7</v>
+      </c>
+      <c r="AW59">
+        <v>2</v>
+      </c>
+      <c r="AX59">
+        <v>6</v>
+      </c>
+      <c r="AY59">
+        <v>6</v>
+      </c>
+      <c r="AZ59">
+        <v>16</v>
+      </c>
+      <c r="BA59">
+        <v>1</v>
+      </c>
+      <c r="BB59">
+        <v>7</v>
+      </c>
+      <c r="BC59">
+        <v>8</v>
+      </c>
+      <c r="BD59">
+        <v>1.85</v>
+      </c>
+      <c r="BE59">
+        <v>8</v>
+      </c>
+      <c r="BF59">
+        <v>2.15</v>
+      </c>
+      <c r="BG59">
+        <v>1.25</v>
+      </c>
+      <c r="BH59">
+        <v>3.28</v>
+      </c>
+      <c r="BI59">
+        <v>1.5</v>
+      </c>
+      <c r="BJ59">
+        <v>2.35</v>
+      </c>
+      <c r="BK59">
+        <v>1.8</v>
+      </c>
+      <c r="BL59">
+        <v>1.91</v>
+      </c>
+      <c r="BM59">
+        <v>2.42</v>
+      </c>
+      <c r="BN59">
+        <v>1.47</v>
+      </c>
+      <c r="BO59">
+        <v>3.2</v>
+      </c>
+      <c r="BP59">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:68">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>7825251</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45767.3125</v>
+      </c>
+      <c r="F60">
+        <v>8</v>
+      </c>
+      <c r="G60" t="s">
+        <v>83</v>
+      </c>
+      <c r="H60" t="s">
+        <v>73</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>3</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>4</v>
+      </c>
+      <c r="O60" t="s">
+        <v>137</v>
+      </c>
+      <c r="P60" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q60">
+        <v>2.3</v>
+      </c>
+      <c r="R60">
+        <v>2.2</v>
+      </c>
+      <c r="S60">
+        <v>5</v>
+      </c>
+      <c r="T60">
+        <v>1.4</v>
+      </c>
+      <c r="U60">
+        <v>2.75</v>
+      </c>
+      <c r="V60">
+        <v>2.75</v>
+      </c>
+      <c r="W60">
+        <v>1.4</v>
+      </c>
+      <c r="X60">
+        <v>8</v>
+      </c>
+      <c r="Y60">
+        <v>1.08</v>
+      </c>
+      <c r="Z60">
+        <v>1.66</v>
+      </c>
+      <c r="AA60">
+        <v>3.81</v>
+      </c>
+      <c r="AB60">
+        <v>5.08</v>
+      </c>
+      <c r="AC60">
+        <v>1.02</v>
+      </c>
+      <c r="AD60">
+        <v>11</v>
+      </c>
+      <c r="AE60">
+        <v>1.27</v>
+      </c>
+      <c r="AF60">
+        <v>3.8</v>
+      </c>
+      <c r="AG60">
+        <v>1.9</v>
+      </c>
+      <c r="AH60">
+        <v>1.92</v>
+      </c>
+      <c r="AI60">
+        <v>1.91</v>
+      </c>
+      <c r="AJ60">
+        <v>1.91</v>
+      </c>
+      <c r="AK60">
+        <v>1.13</v>
+      </c>
+      <c r="AL60">
+        <v>1.2</v>
+      </c>
+      <c r="AM60">
+        <v>2.15</v>
+      </c>
+      <c r="AN60">
+        <v>0</v>
+      </c>
+      <c r="AO60">
+        <v>0</v>
+      </c>
+      <c r="AP60">
+        <v>1</v>
+      </c>
+      <c r="AQ60">
+        <v>0</v>
+      </c>
+      <c r="AR60">
+        <v>1.14</v>
+      </c>
+      <c r="AS60">
+        <v>1.13</v>
+      </c>
+      <c r="AT60">
+        <v>2.27</v>
+      </c>
+      <c r="AU60">
+        <v>4</v>
+      </c>
+      <c r="AV60">
+        <v>4</v>
+      </c>
+      <c r="AW60">
+        <v>9</v>
+      </c>
+      <c r="AX60">
+        <v>2</v>
+      </c>
+      <c r="AY60">
+        <v>15</v>
+      </c>
+      <c r="AZ60">
+        <v>7</v>
+      </c>
+      <c r="BA60">
+        <v>5</v>
+      </c>
+      <c r="BB60">
+        <v>1</v>
+      </c>
+      <c r="BC60">
+        <v>6</v>
+      </c>
+      <c r="BD60">
+        <v>1.35</v>
+      </c>
+      <c r="BE60">
+        <v>10</v>
+      </c>
+      <c r="BF60">
+        <v>3.5</v>
+      </c>
+      <c r="BG60">
+        <v>1.17</v>
+      </c>
+      <c r="BH60">
+        <v>3.95</v>
+      </c>
+      <c r="BI60">
+        <v>1.35</v>
+      </c>
+      <c r="BJ60">
+        <v>2.74</v>
+      </c>
+      <c r="BK60">
+        <v>1.64</v>
+      </c>
+      <c r="BL60">
+        <v>2.07</v>
+      </c>
+      <c r="BM60">
+        <v>2.05</v>
+      </c>
+      <c r="BN60">
+        <v>1.7</v>
+      </c>
+      <c r="BO60">
+        <v>2.71</v>
+      </c>
+      <c r="BP60">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:68">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>7825253</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45767.33333333334</v>
+      </c>
+      <c r="F61">
+        <v>8</v>
+      </c>
+      <c r="G61" t="s">
+        <v>78</v>
+      </c>
+      <c r="H61" t="s">
+        <v>81</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>3</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>3</v>
+      </c>
+      <c r="O61" t="s">
+        <v>138</v>
+      </c>
+      <c r="P61" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q61">
+        <v>2.75</v>
+      </c>
+      <c r="R61">
+        <v>2.25</v>
+      </c>
+      <c r="S61">
+        <v>3.6</v>
+      </c>
+      <c r="T61">
+        <v>1.33</v>
+      </c>
+      <c r="U61">
+        <v>3.25</v>
+      </c>
+      <c r="V61">
+        <v>2.63</v>
+      </c>
+      <c r="W61">
+        <v>1.44</v>
+      </c>
+      <c r="X61">
+        <v>6.5</v>
+      </c>
+      <c r="Y61">
+        <v>1.11</v>
+      </c>
+      <c r="Z61">
+        <v>2.25</v>
+      </c>
+      <c r="AA61">
+        <v>3.44</v>
+      </c>
+      <c r="AB61">
+        <v>3.02</v>
+      </c>
+      <c r="AC61">
+        <v>1.02</v>
+      </c>
+      <c r="AD61">
+        <v>11.5</v>
+      </c>
+      <c r="AE61">
+        <v>1.22</v>
+      </c>
+      <c r="AF61">
+        <v>4.3</v>
+      </c>
+      <c r="AG61">
+        <v>1.73</v>
+      </c>
+      <c r="AH61">
+        <v>2.08</v>
+      </c>
+      <c r="AI61">
+        <v>1.62</v>
+      </c>
+      <c r="AJ61">
+        <v>2.2</v>
+      </c>
+      <c r="AK61">
+        <v>1.36</v>
+      </c>
+      <c r="AL61">
+        <v>1.25</v>
+      </c>
+      <c r="AM61">
+        <v>1.65</v>
+      </c>
+      <c r="AN61">
+        <v>1.5</v>
+      </c>
+      <c r="AO61">
+        <v>0.75</v>
+      </c>
+      <c r="AP61">
+        <v>1.8</v>
+      </c>
+      <c r="AQ61">
+        <v>0.6</v>
+      </c>
+      <c r="AR61">
+        <v>2.04</v>
+      </c>
+      <c r="AS61">
+        <v>1.23</v>
+      </c>
+      <c r="AT61">
+        <v>3.27</v>
+      </c>
+      <c r="AU61">
+        <v>6</v>
+      </c>
+      <c r="AV61">
+        <v>0</v>
+      </c>
+      <c r="AW61">
+        <v>9</v>
+      </c>
+      <c r="AX61">
+        <v>4</v>
+      </c>
+      <c r="AY61">
+        <v>16</v>
+      </c>
+      <c r="AZ61">
+        <v>4</v>
+      </c>
+      <c r="BA61">
+        <v>9</v>
+      </c>
+      <c r="BB61">
+        <v>2</v>
+      </c>
+      <c r="BC61">
+        <v>11</v>
+      </c>
+      <c r="BD61">
+        <v>1.62</v>
+      </c>
+      <c r="BE61">
+        <v>8.5</v>
+      </c>
+      <c r="BF61">
+        <v>2.6</v>
+      </c>
+      <c r="BG61">
+        <v>1.2</v>
+      </c>
+      <c r="BH61">
+        <v>3.7</v>
+      </c>
+      <c r="BI61">
+        <v>1.41</v>
+      </c>
+      <c r="BJ61">
+        <v>2.6</v>
+      </c>
+      <c r="BK61">
+        <v>1.73</v>
+      </c>
+      <c r="BL61">
+        <v>2</v>
+      </c>
+      <c r="BM61">
+        <v>2.17</v>
+      </c>
+      <c r="BN61">
+        <v>1.58</v>
+      </c>
+      <c r="BO61">
+        <v>2.88</v>
+      </c>
+      <c r="BP61">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:68">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>7825254</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45767.35763888889</v>
+      </c>
+      <c r="F62">
+        <v>8</v>
+      </c>
+      <c r="G62" t="s">
+        <v>76</v>
+      </c>
+      <c r="H62" t="s">
+        <v>74</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>2</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>2</v>
+      </c>
+      <c r="O62" t="s">
+        <v>139</v>
+      </c>
+      <c r="P62" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q62">
+        <v>2.75</v>
+      </c>
+      <c r="R62">
+        <v>2.3</v>
+      </c>
+      <c r="S62">
+        <v>3.6</v>
+      </c>
+      <c r="T62">
+        <v>1.33</v>
+      </c>
+      <c r="U62">
+        <v>3.25</v>
+      </c>
+      <c r="V62">
+        <v>2.5</v>
+      </c>
+      <c r="W62">
+        <v>1.5</v>
+      </c>
+      <c r="X62">
+        <v>6.5</v>
+      </c>
+      <c r="Y62">
+        <v>1.11</v>
+      </c>
+      <c r="Z62">
+        <v>1.91</v>
+      </c>
+      <c r="AA62">
+        <v>3.82</v>
+      </c>
+      <c r="AB62">
+        <v>3.53</v>
+      </c>
+      <c r="AC62">
+        <v>1.01</v>
+      </c>
+      <c r="AD62">
+        <v>13</v>
+      </c>
+      <c r="AE62">
+        <v>1.21</v>
+      </c>
+      <c r="AF62">
+        <v>4.37</v>
+      </c>
+      <c r="AG62">
+        <v>1.61</v>
+      </c>
+      <c r="AH62">
+        <v>2.1</v>
+      </c>
+      <c r="AI62">
+        <v>1.57</v>
+      </c>
+      <c r="AJ62">
+        <v>2.25</v>
+      </c>
+      <c r="AK62">
+        <v>1.28</v>
+      </c>
+      <c r="AL62">
+        <v>1.22</v>
+      </c>
+      <c r="AM62">
+        <v>1.8</v>
+      </c>
+      <c r="AN62">
+        <v>1.25</v>
+      </c>
+      <c r="AO62">
+        <v>1</v>
+      </c>
+      <c r="AP62">
+        <v>1.6</v>
+      </c>
+      <c r="AQ62">
+        <v>0.8</v>
+      </c>
+      <c r="AR62">
+        <v>2.42</v>
+      </c>
+      <c r="AS62">
+        <v>1.28</v>
+      </c>
+      <c r="AT62">
+        <v>3.7</v>
+      </c>
+      <c r="AU62">
+        <v>5</v>
+      </c>
+      <c r="AV62">
+        <v>6</v>
+      </c>
+      <c r="AW62">
+        <v>7</v>
+      </c>
+      <c r="AX62">
+        <v>4</v>
+      </c>
+      <c r="AY62">
+        <v>12</v>
+      </c>
+      <c r="AZ62">
+        <v>12</v>
+      </c>
+      <c r="BA62">
+        <v>3</v>
+      </c>
+      <c r="BB62">
+        <v>4</v>
+      </c>
+      <c r="BC62">
+        <v>7</v>
+      </c>
+      <c r="BD62">
+        <v>1.85</v>
+      </c>
+      <c r="BE62">
+        <v>8.5</v>
+      </c>
+      <c r="BF62">
+        <v>2.15</v>
+      </c>
+      <c r="BG62">
+        <v>1.12</v>
+      </c>
+      <c r="BH62">
+        <v>4.65</v>
+      </c>
+      <c r="BI62">
+        <v>1.27</v>
+      </c>
+      <c r="BJ62">
+        <v>3.14</v>
+      </c>
+      <c r="BK62">
+        <v>1.51</v>
+      </c>
+      <c r="BL62">
+        <v>2.32</v>
+      </c>
+      <c r="BM62">
+        <v>1.8</v>
+      </c>
+      <c r="BN62">
+        <v>1.9</v>
+      </c>
+      <c r="BO62">
+        <v>2.38</v>
+      </c>
+      <c r="BP62">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:68">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>7825255</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45767.35763888889</v>
+      </c>
+      <c r="F63">
+        <v>8</v>
+      </c>
+      <c r="G63" t="s">
+        <v>77</v>
+      </c>
+      <c r="H63" t="s">
+        <v>70</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>2</v>
+      </c>
+      <c r="K63">
+        <v>3</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>3</v>
+      </c>
+      <c r="N63">
+        <v>4</v>
+      </c>
+      <c r="O63" t="s">
+        <v>140</v>
+      </c>
+      <c r="P63" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q63">
+        <v>2.88</v>
+      </c>
+      <c r="R63">
+        <v>2.38</v>
+      </c>
+      <c r="S63">
+        <v>3.25</v>
+      </c>
+      <c r="T63">
+        <v>1.29</v>
+      </c>
+      <c r="U63">
+        <v>3.5</v>
+      </c>
+      <c r="V63">
+        <v>2.38</v>
+      </c>
+      <c r="W63">
+        <v>1.53</v>
+      </c>
+      <c r="X63">
+        <v>5.5</v>
+      </c>
+      <c r="Y63">
+        <v>1.14</v>
+      </c>
+      <c r="Z63">
+        <v>2.11</v>
+      </c>
+      <c r="AA63">
+        <v>3.56</v>
+      </c>
+      <c r="AB63">
+        <v>3.2</v>
+      </c>
+      <c r="AC63">
+        <v>1.02</v>
+      </c>
+      <c r="AD63">
+        <v>14</v>
+      </c>
+      <c r="AE63">
+        <v>1.19</v>
+      </c>
+      <c r="AF63">
+        <v>4.77</v>
+      </c>
+      <c r="AG63">
+        <v>1.57</v>
+      </c>
+      <c r="AH63">
+        <v>2.35</v>
+      </c>
+      <c r="AI63">
+        <v>1.5</v>
+      </c>
+      <c r="AJ63">
+        <v>2.5</v>
+      </c>
+      <c r="AK63">
+        <v>1.38</v>
+      </c>
+      <c r="AL63">
+        <v>1.22</v>
+      </c>
+      <c r="AM63">
+        <v>1.65</v>
+      </c>
+      <c r="AN63">
+        <v>2.5</v>
+      </c>
+      <c r="AO63">
+        <v>2.33</v>
+      </c>
+      <c r="AP63">
+        <v>2</v>
+      </c>
+      <c r="AQ63">
+        <v>2.5</v>
+      </c>
+      <c r="AR63">
+        <v>2.06</v>
+      </c>
+      <c r="AS63">
+        <v>1.98</v>
+      </c>
+      <c r="AT63">
+        <v>4.04</v>
+      </c>
+      <c r="AU63">
+        <v>7</v>
+      </c>
+      <c r="AV63">
+        <v>9</v>
+      </c>
+      <c r="AW63">
+        <v>4</v>
+      </c>
+      <c r="AX63">
+        <v>8</v>
+      </c>
+      <c r="AY63">
+        <v>12</v>
+      </c>
+      <c r="AZ63">
+        <v>18</v>
+      </c>
+      <c r="BA63">
+        <v>4</v>
+      </c>
+      <c r="BB63">
+        <v>2</v>
+      </c>
+      <c r="BC63">
+        <v>6</v>
+      </c>
+      <c r="BD63">
+        <v>1.95</v>
+      </c>
+      <c r="BE63">
+        <v>8.5</v>
+      </c>
+      <c r="BF63">
+        <v>2</v>
+      </c>
+      <c r="BG63">
+        <v>1.18</v>
+      </c>
+      <c r="BH63">
+        <v>3.84</v>
+      </c>
+      <c r="BI63">
+        <v>1.37</v>
+      </c>
+      <c r="BJ63">
+        <v>2.66</v>
+      </c>
+      <c r="BK63">
+        <v>1.68</v>
+      </c>
+      <c r="BL63">
+        <v>2.01</v>
+      </c>
+      <c r="BM63">
+        <v>2</v>
+      </c>
+      <c r="BN63">
+        <v>1.73</v>
+      </c>
+      <c r="BO63">
+        <v>2.79</v>
+      </c>
+      <c r="BP63">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/China Chinese Super League_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/China Chinese Super League_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="183">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -439,6 +439,12 @@
     <t>['31']</t>
   </si>
   <si>
+    <t>['28']</t>
+  </si>
+  <si>
+    <t>['69', '90+1']</t>
+  </si>
+  <si>
     <t>['53', '79']</t>
   </si>
   <si>
@@ -554,6 +560,9 @@
   </si>
   <si>
     <t>['9', '21', '74']</t>
+  </si>
+  <si>
+    <t>['20', '48', '73']</t>
   </si>
 </sst>
 </file>
@@ -915,7 +924,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP63"/>
+  <dimension ref="A1:BP65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1586,7 +1595,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1664,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ4">
         <v>1.5</v>
@@ -1792,7 +1801,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q5">
         <v>2.85</v>
@@ -1998,7 +2007,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q6">
         <v>2.2</v>
@@ -2285,7 +2294,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2410,7 +2419,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q8">
         <v>2.04</v>
@@ -2616,7 +2625,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q9">
         <v>1.5</v>
@@ -2822,7 +2831,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q10">
         <v>2.1</v>
@@ -3234,7 +3243,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3440,7 +3449,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -3521,7 +3530,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ13">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3646,7 +3655,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q14">
         <v>2.13</v>
@@ -3852,7 +3861,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q15">
         <v>3.2</v>
@@ -3930,7 +3939,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ15">
         <v>0.8</v>
@@ -4058,7 +4067,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4470,7 +4479,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4551,7 +4560,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ18">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR18">
         <v>0.8</v>
@@ -4676,7 +4685,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q19">
         <v>3.75</v>
@@ -4882,7 +4891,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q20">
         <v>3.25</v>
@@ -5500,7 +5509,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5706,7 +5715,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -5912,7 +5921,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -5990,7 +5999,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ25">
         <v>2.5</v>
@@ -6118,7 +6127,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6530,7 +6539,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6736,7 +6745,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -7148,7 +7157,7 @@
         <v>112</v>
       </c>
       <c r="P31" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q31">
         <v>3.42</v>
@@ -7354,7 +7363,7 @@
         <v>88</v>
       </c>
       <c r="P32" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q32">
         <v>2.9</v>
@@ -7560,7 +7569,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q33">
         <v>1.56</v>
@@ -7766,7 +7775,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q34">
         <v>3.25</v>
@@ -7847,7 +7856,7 @@
         <v>1</v>
       </c>
       <c r="AQ34">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR34">
         <v>2.26</v>
@@ -7972,7 +7981,7 @@
         <v>115</v>
       </c>
       <c r="P35" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q35">
         <v>4.25</v>
@@ -8178,7 +8187,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q36">
         <v>3.15</v>
@@ -8384,7 +8393,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q37">
         <v>2.75</v>
@@ -8796,7 +8805,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9080,7 +9089,7 @@
         <v>2</v>
       </c>
       <c r="AP40">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ40">
         <v>0.8</v>
@@ -9286,7 +9295,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ41">
         <v>0</v>
@@ -9620,7 +9629,7 @@
         <v>123</v>
       </c>
       <c r="P43" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9826,7 +9835,7 @@
         <v>124</v>
       </c>
       <c r="P44" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q44">
         <v>3.2</v>
@@ -10032,7 +10041,7 @@
         <v>88</v>
       </c>
       <c r="P45" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q45">
         <v>7.5</v>
@@ -10238,7 +10247,7 @@
         <v>125</v>
       </c>
       <c r="P46" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q46">
         <v>3.1</v>
@@ -10444,7 +10453,7 @@
         <v>126</v>
       </c>
       <c r="P47" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q47">
         <v>1.95</v>
@@ -10650,7 +10659,7 @@
         <v>127</v>
       </c>
       <c r="P48" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q48">
         <v>3.7</v>
@@ -10856,7 +10865,7 @@
         <v>128</v>
       </c>
       <c r="P49" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q49">
         <v>4.33</v>
@@ -11062,7 +11071,7 @@
         <v>129</v>
       </c>
       <c r="P50" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q50">
         <v>2.65</v>
@@ -11268,7 +11277,7 @@
         <v>130</v>
       </c>
       <c r="P51" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q51">
         <v>4.15</v>
@@ -11349,7 +11358,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ51">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR51">
         <v>2.87</v>
@@ -11555,7 +11564,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ52">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR52">
         <v>2.18</v>
@@ -11680,7 +11689,7 @@
         <v>132</v>
       </c>
       <c r="P53" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q53">
         <v>1.8</v>
@@ -11886,7 +11895,7 @@
         <v>104</v>
       </c>
       <c r="P54" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q54">
         <v>1.71</v>
@@ -12092,7 +12101,7 @@
         <v>133</v>
       </c>
       <c r="P55" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q55">
         <v>1.45</v>
@@ -12504,7 +12513,7 @@
         <v>135</v>
       </c>
       <c r="P57" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q57">
         <v>2.88</v>
@@ -12582,7 +12591,7 @@
         <v>3</v>
       </c>
       <c r="AP57">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ57">
         <v>2.25</v>
@@ -13740,7 +13749,7 @@
         <v>140</v>
       </c>
       <c r="P63" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q63">
         <v>2.88</v>
@@ -13897,6 +13906,418 @@
       </c>
       <c r="BP63">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="64" spans="1:68">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>7825256</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45772.35763888889</v>
+      </c>
+      <c r="F64">
+        <v>9</v>
+      </c>
+      <c r="G64" t="s">
+        <v>84</v>
+      </c>
+      <c r="H64" t="s">
+        <v>83</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64" t="s">
+        <v>141</v>
+      </c>
+      <c r="P64" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q64">
+        <v>2.05</v>
+      </c>
+      <c r="R64">
+        <v>2.3</v>
+      </c>
+      <c r="S64">
+        <v>5</v>
+      </c>
+      <c r="T64">
+        <v>1.3</v>
+      </c>
+      <c r="U64">
+        <v>3.2</v>
+      </c>
+      <c r="V64">
+        <v>2.35</v>
+      </c>
+      <c r="W64">
+        <v>1.53</v>
+      </c>
+      <c r="X64">
+        <v>6.1</v>
+      </c>
+      <c r="Y64">
+        <v>1.06</v>
+      </c>
+      <c r="Z64">
+        <v>1.53</v>
+      </c>
+      <c r="AA64">
+        <v>4.4</v>
+      </c>
+      <c r="AB64">
+        <v>5.4</v>
+      </c>
+      <c r="AC64">
+        <v>1.04</v>
+      </c>
+      <c r="AD64">
+        <v>9.5</v>
+      </c>
+      <c r="AE64">
+        <v>1.2</v>
+      </c>
+      <c r="AF64">
+        <v>4.2</v>
+      </c>
+      <c r="AG64">
+        <v>1.61</v>
+      </c>
+      <c r="AH64">
+        <v>2.05</v>
+      </c>
+      <c r="AI64">
+        <v>1.62</v>
+      </c>
+      <c r="AJ64">
+        <v>2.1</v>
+      </c>
+      <c r="AK64">
+        <v>1.12</v>
+      </c>
+      <c r="AL64">
+        <v>1.18</v>
+      </c>
+      <c r="AM64">
+        <v>2.25</v>
+      </c>
+      <c r="AN64">
+        <v>2.33</v>
+      </c>
+      <c r="AO64">
+        <v>1</v>
+      </c>
+      <c r="AP64">
+        <v>2.5</v>
+      </c>
+      <c r="AQ64">
+        <v>0.8</v>
+      </c>
+      <c r="AR64">
+        <v>2.07</v>
+      </c>
+      <c r="AS64">
+        <v>1.67</v>
+      </c>
+      <c r="AT64">
+        <v>3.74</v>
+      </c>
+      <c r="AU64">
+        <v>4</v>
+      </c>
+      <c r="AV64">
+        <v>0</v>
+      </c>
+      <c r="AW64">
+        <v>10</v>
+      </c>
+      <c r="AX64">
+        <v>6</v>
+      </c>
+      <c r="AY64">
+        <v>20</v>
+      </c>
+      <c r="AZ64">
+        <v>8</v>
+      </c>
+      <c r="BA64">
+        <v>3</v>
+      </c>
+      <c r="BB64">
+        <v>4</v>
+      </c>
+      <c r="BC64">
+        <v>7</v>
+      </c>
+      <c r="BD64">
+        <v>1.55</v>
+      </c>
+      <c r="BE64">
+        <v>7</v>
+      </c>
+      <c r="BF64">
+        <v>2.65</v>
+      </c>
+      <c r="BG64">
+        <v>1.2</v>
+      </c>
+      <c r="BH64">
+        <v>3.95</v>
+      </c>
+      <c r="BI64">
+        <v>1.34</v>
+      </c>
+      <c r="BJ64">
+        <v>2.9</v>
+      </c>
+      <c r="BK64">
+        <v>1.57</v>
+      </c>
+      <c r="BL64">
+        <v>2.2</v>
+      </c>
+      <c r="BM64">
+        <v>1.92</v>
+      </c>
+      <c r="BN64">
+        <v>1.77</v>
+      </c>
+      <c r="BO64">
+        <v>2.38</v>
+      </c>
+      <c r="BP64">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:68">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>7825257</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45772.375</v>
+      </c>
+      <c r="F65">
+        <v>9</v>
+      </c>
+      <c r="G65" t="s">
+        <v>72</v>
+      </c>
+      <c r="H65" t="s">
+        <v>77</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>2</v>
+      </c>
+      <c r="M65">
+        <v>3</v>
+      </c>
+      <c r="N65">
+        <v>5</v>
+      </c>
+      <c r="O65" t="s">
+        <v>142</v>
+      </c>
+      <c r="P65" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q65">
+        <v>4.5</v>
+      </c>
+      <c r="R65">
+        <v>2.5</v>
+      </c>
+      <c r="S65">
+        <v>2</v>
+      </c>
+      <c r="T65">
+        <v>1.22</v>
+      </c>
+      <c r="U65">
+        <v>3.85</v>
+      </c>
+      <c r="V65">
+        <v>2</v>
+      </c>
+      <c r="W65">
+        <v>1.73</v>
+      </c>
+      <c r="X65">
+        <v>4.15</v>
+      </c>
+      <c r="Y65">
+        <v>1.17</v>
+      </c>
+      <c r="Z65">
+        <v>4.1</v>
+      </c>
+      <c r="AA65">
+        <v>4.2</v>
+      </c>
+      <c r="AB65">
+        <v>1.71</v>
+      </c>
+      <c r="AC65">
+        <v>1.01</v>
+      </c>
+      <c r="AD65">
+        <v>17</v>
+      </c>
+      <c r="AE65">
+        <v>1.11</v>
+      </c>
+      <c r="AF65">
+        <v>6</v>
+      </c>
+      <c r="AG65">
+        <v>1.42</v>
+      </c>
+      <c r="AH65">
+        <v>2.65</v>
+      </c>
+      <c r="AI65">
+        <v>1.42</v>
+      </c>
+      <c r="AJ65">
+        <v>2.55</v>
+      </c>
+      <c r="AK65">
+        <v>2.25</v>
+      </c>
+      <c r="AL65">
+        <v>1.17</v>
+      </c>
+      <c r="AM65">
+        <v>1.14</v>
+      </c>
+      <c r="AN65">
+        <v>1.33</v>
+      </c>
+      <c r="AO65">
+        <v>2</v>
+      </c>
+      <c r="AP65">
+        <v>1</v>
+      </c>
+      <c r="AQ65">
+        <v>2.33</v>
+      </c>
+      <c r="AR65">
+        <v>1.5</v>
+      </c>
+      <c r="AS65">
+        <v>1.89</v>
+      </c>
+      <c r="AT65">
+        <v>3.39</v>
+      </c>
+      <c r="AU65">
+        <v>6</v>
+      </c>
+      <c r="AV65">
+        <v>4</v>
+      </c>
+      <c r="AW65">
+        <v>9</v>
+      </c>
+      <c r="AX65">
+        <v>2</v>
+      </c>
+      <c r="AY65">
+        <v>18</v>
+      </c>
+      <c r="AZ65">
+        <v>6</v>
+      </c>
+      <c r="BA65">
+        <v>9</v>
+      </c>
+      <c r="BB65">
+        <v>1</v>
+      </c>
+      <c r="BC65">
+        <v>10</v>
+      </c>
+      <c r="BD65">
+        <v>2.6</v>
+      </c>
+      <c r="BE65">
+        <v>6.75</v>
+      </c>
+      <c r="BF65">
+        <v>1.58</v>
+      </c>
+      <c r="BG65">
+        <v>1.25</v>
+      </c>
+      <c r="BH65">
+        <v>3.45</v>
+      </c>
+      <c r="BI65">
+        <v>1.44</v>
+      </c>
+      <c r="BJ65">
+        <v>2.55</v>
+      </c>
+      <c r="BK65">
+        <v>1.73</v>
+      </c>
+      <c r="BL65">
+        <v>1.96</v>
+      </c>
+      <c r="BM65">
+        <v>2.12</v>
+      </c>
+      <c r="BN65">
+        <v>1.63</v>
+      </c>
+      <c r="BO65">
+        <v>2.7</v>
+      </c>
+      <c r="BP65">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/China Chinese Super League_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/China Chinese Super League_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="187">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -445,6 +445,12 @@
     <t>['69', '90+1']</t>
   </si>
   <si>
+    <t>['52']</t>
+  </si>
+  <si>
+    <t>['84']</t>
+  </si>
+  <si>
     <t>['53', '79']</t>
   </si>
   <si>
@@ -563,6 +569,12 @@
   </si>
   <si>
     <t>['20', '48', '73']</t>
+  </si>
+  <si>
+    <t>['5', '49']</t>
+  </si>
+  <si>
+    <t>['34']</t>
   </si>
 </sst>
 </file>
@@ -924,7 +936,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP65"/>
+  <dimension ref="A1:BP68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1595,7 +1607,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1801,7 +1813,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q5">
         <v>2.85</v>
@@ -2007,7 +2019,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q6">
         <v>2.2</v>
@@ -2088,7 +2100,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ6">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2291,7 +2303,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ7">
         <v>0.8</v>
@@ -2419,7 +2431,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q8">
         <v>2.04</v>
@@ -2625,7 +2637,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q9">
         <v>1.5</v>
@@ -2831,7 +2843,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q10">
         <v>2.1</v>
@@ -2909,10 +2921,10 @@
         <v>1</v>
       </c>
       <c r="AP10">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ10">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR10">
         <v>2.21</v>
@@ -3243,7 +3255,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3449,7 +3461,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -3655,7 +3667,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q14">
         <v>2.13</v>
@@ -3861,7 +3873,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q15">
         <v>3.2</v>
@@ -4067,7 +4079,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4479,7 +4491,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4685,7 +4697,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q19">
         <v>3.75</v>
@@ -4891,7 +4903,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q20">
         <v>3.25</v>
@@ -5509,7 +5521,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5590,7 +5602,7 @@
         <v>1</v>
       </c>
       <c r="AQ23">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -5715,7 +5727,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -5921,7 +5933,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6002,7 +6014,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ25">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR25">
         <v>0</v>
@@ -6127,7 +6139,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6539,7 +6551,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6617,7 +6629,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ28">
         <v>0.2</v>
@@ -6745,7 +6757,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -7032,7 +7044,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ30">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR30">
         <v>1.32</v>
@@ -7157,7 +7169,7 @@
         <v>112</v>
       </c>
       <c r="P31" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q31">
         <v>3.42</v>
@@ -7363,7 +7375,7 @@
         <v>88</v>
       </c>
       <c r="P32" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q32">
         <v>2.9</v>
@@ -7441,10 +7453,10 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ32">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR32">
         <v>2.46</v>
@@ -7569,7 +7581,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q33">
         <v>1.56</v>
@@ -7775,7 +7787,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q34">
         <v>3.25</v>
@@ -7981,7 +7993,7 @@
         <v>115</v>
       </c>
       <c r="P35" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q35">
         <v>4.25</v>
@@ -8059,7 +8071,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ35">
         <v>2.25</v>
@@ -8187,7 +8199,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q36">
         <v>3.15</v>
@@ -8393,7 +8405,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q37">
         <v>2.75</v>
@@ -8680,7 +8692,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ38">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR38">
         <v>2.39</v>
@@ -8805,7 +8817,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -8886,7 +8898,7 @@
         <v>2</v>
       </c>
       <c r="AQ39">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR39">
         <v>2.38</v>
@@ -9501,7 +9513,7 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ42">
         <v>0.6</v>
@@ -9629,7 +9641,7 @@
         <v>123</v>
       </c>
       <c r="P43" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9835,7 +9847,7 @@
         <v>124</v>
       </c>
       <c r="P44" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q44">
         <v>3.2</v>
@@ -10041,7 +10053,7 @@
         <v>88</v>
       </c>
       <c r="P45" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q45">
         <v>7.5</v>
@@ -10122,7 +10134,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ45">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR45">
         <v>1.43</v>
@@ -10247,7 +10259,7 @@
         <v>125</v>
       </c>
       <c r="P46" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q46">
         <v>3.1</v>
@@ -10453,7 +10465,7 @@
         <v>126</v>
       </c>
       <c r="P47" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q47">
         <v>1.95</v>
@@ -10659,7 +10671,7 @@
         <v>127</v>
       </c>
       <c r="P48" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q48">
         <v>3.7</v>
@@ -10865,7 +10877,7 @@
         <v>128</v>
       </c>
       <c r="P49" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q49">
         <v>4.33</v>
@@ -11071,7 +11083,7 @@
         <v>129</v>
       </c>
       <c r="P50" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q50">
         <v>2.65</v>
@@ -11277,7 +11289,7 @@
         <v>130</v>
       </c>
       <c r="P51" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q51">
         <v>4.15</v>
@@ -11689,7 +11701,7 @@
         <v>132</v>
       </c>
       <c r="P53" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q53">
         <v>1.8</v>
@@ -11895,7 +11907,7 @@
         <v>104</v>
       </c>
       <c r="P54" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q54">
         <v>1.71</v>
@@ -12101,7 +12113,7 @@
         <v>133</v>
       </c>
       <c r="P55" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q55">
         <v>1.45</v>
@@ -12513,7 +12525,7 @@
         <v>135</v>
       </c>
       <c r="P57" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q57">
         <v>2.88</v>
@@ -12797,7 +12809,7 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ58">
         <v>1</v>
@@ -13006,7 +13018,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ59">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR59">
         <v>1.22</v>
@@ -13749,7 +13761,7 @@
         <v>140</v>
       </c>
       <c r="P63" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q63">
         <v>2.88</v>
@@ -13830,7 +13842,7 @@
         <v>2</v>
       </c>
       <c r="AQ63">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR63">
         <v>2.06</v>
@@ -14161,7 +14173,7 @@
         <v>142</v>
       </c>
       <c r="P65" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q65">
         <v>4.5</v>
@@ -14318,6 +14330,624 @@
       </c>
       <c r="BP65">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:68">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>7825258</v>
+      </c>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45773.1875</v>
+      </c>
+      <c r="F66">
+        <v>9</v>
+      </c>
+      <c r="G66" t="s">
+        <v>85</v>
+      </c>
+      <c r="H66" t="s">
+        <v>70</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>2</v>
+      </c>
+      <c r="N66">
+        <v>3</v>
+      </c>
+      <c r="O66" t="s">
+        <v>143</v>
+      </c>
+      <c r="P66" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q66">
+        <v>5.2</v>
+      </c>
+      <c r="R66">
+        <v>2.45</v>
+      </c>
+      <c r="S66">
+        <v>1.98</v>
+      </c>
+      <c r="T66">
+        <v>1.24</v>
+      </c>
+      <c r="U66">
+        <v>3.5</v>
+      </c>
+      <c r="V66">
+        <v>2.29</v>
+      </c>
+      <c r="W66">
+        <v>1.58</v>
+      </c>
+      <c r="X66">
+        <v>5.05</v>
+      </c>
+      <c r="Y66">
+        <v>1.12</v>
+      </c>
+      <c r="Z66">
+        <v>6</v>
+      </c>
+      <c r="AA66">
+        <v>4.5</v>
+      </c>
+      <c r="AB66">
+        <v>1.47</v>
+      </c>
+      <c r="AC66">
+        <v>1.01</v>
+      </c>
+      <c r="AD66">
+        <v>13</v>
+      </c>
+      <c r="AE66">
+        <v>1.12</v>
+      </c>
+      <c r="AF66">
+        <v>4.65</v>
+      </c>
+      <c r="AG66">
+        <v>1.55</v>
+      </c>
+      <c r="AH66">
+        <v>2.2</v>
+      </c>
+      <c r="AI66">
+        <v>1.63</v>
+      </c>
+      <c r="AJ66">
+        <v>2.14</v>
+      </c>
+      <c r="AK66">
+        <v>2.47</v>
+      </c>
+      <c r="AL66">
+        <v>1.19</v>
+      </c>
+      <c r="AM66">
+        <v>1.13</v>
+      </c>
+      <c r="AN66">
+        <v>0.67</v>
+      </c>
+      <c r="AO66">
+        <v>2.5</v>
+      </c>
+      <c r="AP66">
+        <v>0.5</v>
+      </c>
+      <c r="AQ66">
+        <v>2.6</v>
+      </c>
+      <c r="AR66">
+        <v>1.35</v>
+      </c>
+      <c r="AS66">
+        <v>2</v>
+      </c>
+      <c r="AT66">
+        <v>3.35</v>
+      </c>
+      <c r="AU66">
+        <v>4</v>
+      </c>
+      <c r="AV66">
+        <v>7</v>
+      </c>
+      <c r="AW66">
+        <v>3</v>
+      </c>
+      <c r="AX66">
+        <v>7</v>
+      </c>
+      <c r="AY66">
+        <v>7</v>
+      </c>
+      <c r="AZ66">
+        <v>17</v>
+      </c>
+      <c r="BA66">
+        <v>2</v>
+      </c>
+      <c r="BB66">
+        <v>5</v>
+      </c>
+      <c r="BC66">
+        <v>7</v>
+      </c>
+      <c r="BD66">
+        <v>3.15</v>
+      </c>
+      <c r="BE66">
+        <v>7</v>
+      </c>
+      <c r="BF66">
+        <v>1.43</v>
+      </c>
+      <c r="BG66">
+        <v>1.23</v>
+      </c>
+      <c r="BH66">
+        <v>3.65</v>
+      </c>
+      <c r="BI66">
+        <v>1.41</v>
+      </c>
+      <c r="BJ66">
+        <v>2.65</v>
+      </c>
+      <c r="BK66">
+        <v>1.67</v>
+      </c>
+      <c r="BL66">
+        <v>2.04</v>
+      </c>
+      <c r="BM66">
+        <v>2.07</v>
+      </c>
+      <c r="BN66">
+        <v>1.66</v>
+      </c>
+      <c r="BO66">
+        <v>2.63</v>
+      </c>
+      <c r="BP66">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="67" spans="1:68">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>7825259</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45773.33333333334</v>
+      </c>
+      <c r="F67">
+        <v>9</v>
+      </c>
+      <c r="G67" t="s">
+        <v>81</v>
+      </c>
+      <c r="H67" t="s">
+        <v>82</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <v>2</v>
+      </c>
+      <c r="O67" t="s">
+        <v>144</v>
+      </c>
+      <c r="P67" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q67">
+        <v>3.22</v>
+      </c>
+      <c r="R67">
+        <v>2.13</v>
+      </c>
+      <c r="S67">
+        <v>3.08</v>
+      </c>
+      <c r="T67">
+        <v>1.34</v>
+      </c>
+      <c r="U67">
+        <v>2.99</v>
+      </c>
+      <c r="V67">
+        <v>2.73</v>
+      </c>
+      <c r="W67">
+        <v>1.4</v>
+      </c>
+      <c r="X67">
+        <v>7.2</v>
+      </c>
+      <c r="Y67">
+        <v>1.04</v>
+      </c>
+      <c r="Z67">
+        <v>2.63</v>
+      </c>
+      <c r="AA67">
+        <v>3.48</v>
+      </c>
+      <c r="AB67">
+        <v>2.52</v>
+      </c>
+      <c r="AC67">
+        <v>1</v>
+      </c>
+      <c r="AD67">
+        <v>9.1</v>
+      </c>
+      <c r="AE67">
+        <v>1.22</v>
+      </c>
+      <c r="AF67">
+        <v>3.52</v>
+      </c>
+      <c r="AG67">
+        <v>1.86</v>
+      </c>
+      <c r="AH67">
+        <v>1.91</v>
+      </c>
+      <c r="AI67">
+        <v>1.66</v>
+      </c>
+      <c r="AJ67">
+        <v>2.09</v>
+      </c>
+      <c r="AK67">
+        <v>1.5</v>
+      </c>
+      <c r="AL67">
+        <v>1.29</v>
+      </c>
+      <c r="AM67">
+        <v>1.47</v>
+      </c>
+      <c r="AN67">
+        <v>1</v>
+      </c>
+      <c r="AO67">
+        <v>0.4</v>
+      </c>
+      <c r="AP67">
+        <v>1</v>
+      </c>
+      <c r="AQ67">
+        <v>0.5</v>
+      </c>
+      <c r="AR67">
+        <v>1.64</v>
+      </c>
+      <c r="AS67">
+        <v>1.31</v>
+      </c>
+      <c r="AT67">
+        <v>2.95</v>
+      </c>
+      <c r="AU67">
+        <v>5</v>
+      </c>
+      <c r="AV67">
+        <v>4</v>
+      </c>
+      <c r="AW67">
+        <v>4</v>
+      </c>
+      <c r="AX67">
+        <v>8</v>
+      </c>
+      <c r="AY67">
+        <v>10</v>
+      </c>
+      <c r="AZ67">
+        <v>16</v>
+      </c>
+      <c r="BA67">
+        <v>7</v>
+      </c>
+      <c r="BB67">
+        <v>3</v>
+      </c>
+      <c r="BC67">
+        <v>10</v>
+      </c>
+      <c r="BD67">
+        <v>2</v>
+      </c>
+      <c r="BE67">
+        <v>6.4</v>
+      </c>
+      <c r="BF67">
+        <v>1.98</v>
+      </c>
+      <c r="BG67">
+        <v>1.41</v>
+      </c>
+      <c r="BH67">
+        <v>2.65</v>
+      </c>
+      <c r="BI67">
+        <v>1.71</v>
+      </c>
+      <c r="BJ67">
+        <v>2</v>
+      </c>
+      <c r="BK67">
+        <v>2.12</v>
+      </c>
+      <c r="BL67">
+        <v>1.63</v>
+      </c>
+      <c r="BM67">
+        <v>2.75</v>
+      </c>
+      <c r="BN67">
+        <v>1.38</v>
+      </c>
+      <c r="BO67">
+        <v>3.65</v>
+      </c>
+      <c r="BP67">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:68">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>7825260</v>
+      </c>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45773.35763888889</v>
+      </c>
+      <c r="F68">
+        <v>9</v>
+      </c>
+      <c r="G68" t="s">
+        <v>75</v>
+      </c>
+      <c r="H68" t="s">
+        <v>71</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68" t="s">
+        <v>88</v>
+      </c>
+      <c r="P68" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q68">
+        <v>3.24</v>
+      </c>
+      <c r="R68">
+        <v>2.3</v>
+      </c>
+      <c r="S68">
+        <v>2.77</v>
+      </c>
+      <c r="T68">
+        <v>1.27</v>
+      </c>
+      <c r="U68">
+        <v>3.4</v>
+      </c>
+      <c r="V68">
+        <v>2.32</v>
+      </c>
+      <c r="W68">
+        <v>1.54</v>
+      </c>
+      <c r="X68">
+        <v>5.2</v>
+      </c>
+      <c r="Y68">
+        <v>1.1</v>
+      </c>
+      <c r="Z68">
+        <v>2.77</v>
+      </c>
+      <c r="AA68">
+        <v>3.81</v>
+      </c>
+      <c r="AB68">
+        <v>2.24</v>
+      </c>
+      <c r="AC68">
+        <v>1.01</v>
+      </c>
+      <c r="AD68">
+        <v>11</v>
+      </c>
+      <c r="AE68">
+        <v>1.14</v>
+      </c>
+      <c r="AF68">
+        <v>4.4</v>
+      </c>
+      <c r="AG68">
+        <v>1.55</v>
+      </c>
+      <c r="AH68">
+        <v>2.2</v>
+      </c>
+      <c r="AI68">
+        <v>1.5</v>
+      </c>
+      <c r="AJ68">
+        <v>2.41</v>
+      </c>
+      <c r="AK68">
+        <v>1.59</v>
+      </c>
+      <c r="AL68">
+        <v>1.26</v>
+      </c>
+      <c r="AM68">
+        <v>1.43</v>
+      </c>
+      <c r="AN68">
+        <v>1.75</v>
+      </c>
+      <c r="AO68">
+        <v>2</v>
+      </c>
+      <c r="AP68">
+        <v>1.4</v>
+      </c>
+      <c r="AQ68">
+        <v>2.33</v>
+      </c>
+      <c r="AR68">
+        <v>2.12</v>
+      </c>
+      <c r="AS68">
+        <v>2.01</v>
+      </c>
+      <c r="AT68">
+        <v>4.13</v>
+      </c>
+      <c r="AU68">
+        <v>2</v>
+      </c>
+      <c r="AV68">
+        <v>3</v>
+      </c>
+      <c r="AW68">
+        <v>3</v>
+      </c>
+      <c r="AX68">
+        <v>4</v>
+      </c>
+      <c r="AY68">
+        <v>5</v>
+      </c>
+      <c r="AZ68">
+        <v>8</v>
+      </c>
+      <c r="BA68">
+        <v>8</v>
+      </c>
+      <c r="BB68">
+        <v>7</v>
+      </c>
+      <c r="BC68">
+        <v>15</v>
+      </c>
+      <c r="BD68">
+        <v>1.96</v>
+      </c>
+      <c r="BE68">
+        <v>6.75</v>
+      </c>
+      <c r="BF68">
+        <v>2</v>
+      </c>
+      <c r="BG68">
+        <v>1.23</v>
+      </c>
+      <c r="BH68">
+        <v>3.65</v>
+      </c>
+      <c r="BI68">
+        <v>1.4</v>
+      </c>
+      <c r="BJ68">
+        <v>2.65</v>
+      </c>
+      <c r="BK68">
+        <v>1.65</v>
+      </c>
+      <c r="BL68">
+        <v>2.08</v>
+      </c>
+      <c r="BM68">
+        <v>2.02</v>
+      </c>
+      <c r="BN68">
+        <v>1.68</v>
+      </c>
+      <c r="BO68">
+        <v>2.55</v>
+      </c>
+      <c r="BP68">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/China Chinese Super League_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/China Chinese Super League_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="189">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -451,6 +451,9 @@
     <t>['84']</t>
   </si>
   <si>
+    <t>['61', '77']</t>
+  </si>
+  <si>
     <t>['53', '79']</t>
   </si>
   <si>
@@ -575,6 +578,9 @@
   </si>
   <si>
     <t>['34']</t>
+  </si>
+  <si>
+    <t>['1']</t>
   </si>
 </sst>
 </file>
@@ -936,7 +942,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP68"/>
+  <dimension ref="A1:BP69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1607,7 +1613,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1813,7 +1819,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q5">
         <v>2.85</v>
@@ -2019,7 +2025,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q6">
         <v>2.2</v>
@@ -2431,7 +2437,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q8">
         <v>2.04</v>
@@ -2637,7 +2643,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q9">
         <v>1.5</v>
@@ -2843,7 +2849,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q10">
         <v>2.1</v>
@@ -3255,7 +3261,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3461,7 +3467,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -3667,7 +3673,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q14">
         <v>2.13</v>
@@ -3873,7 +3879,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q15">
         <v>3.2</v>
@@ -4079,7 +4085,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4160,7 +4166,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ16">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR16">
         <v>2.91</v>
@@ -4491,7 +4497,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4697,7 +4703,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q19">
         <v>3.75</v>
@@ -4775,7 +4781,7 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ19">
         <v>0.8</v>
@@ -4903,7 +4909,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q20">
         <v>3.25</v>
@@ -5521,7 +5527,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5727,7 +5733,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -5933,7 +5939,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6139,7 +6145,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6551,7 +6557,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6757,7 +6763,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -7169,7 +7175,7 @@
         <v>112</v>
       </c>
       <c r="P31" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q31">
         <v>3.42</v>
@@ -7375,7 +7381,7 @@
         <v>88</v>
       </c>
       <c r="P32" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q32">
         <v>2.9</v>
@@ -7581,7 +7587,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q33">
         <v>1.56</v>
@@ -7787,7 +7793,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q34">
         <v>3.25</v>
@@ -7993,7 +7999,7 @@
         <v>115</v>
       </c>
       <c r="P35" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q35">
         <v>4.25</v>
@@ -8199,7 +8205,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q36">
         <v>3.15</v>
@@ -8280,7 +8286,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ36">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR36">
         <v>1.07</v>
@@ -8405,7 +8411,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q37">
         <v>2.75</v>
@@ -8817,7 +8823,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9641,7 +9647,7 @@
         <v>123</v>
       </c>
       <c r="P43" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9847,7 +9853,7 @@
         <v>124</v>
       </c>
       <c r="P44" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q44">
         <v>3.2</v>
@@ -9928,7 +9934,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ44">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR44">
         <v>2.26</v>
@@ -10053,7 +10059,7 @@
         <v>88</v>
       </c>
       <c r="P45" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q45">
         <v>7.5</v>
@@ -10259,7 +10265,7 @@
         <v>125</v>
       </c>
       <c r="P46" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q46">
         <v>3.1</v>
@@ -10337,7 +10343,7 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ46">
         <v>1</v>
@@ -10465,7 +10471,7 @@
         <v>126</v>
       </c>
       <c r="P47" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q47">
         <v>1.95</v>
@@ -10671,7 +10677,7 @@
         <v>127</v>
       </c>
       <c r="P48" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q48">
         <v>3.7</v>
@@ -10877,7 +10883,7 @@
         <v>128</v>
       </c>
       <c r="P49" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q49">
         <v>4.33</v>
@@ -10955,7 +10961,7 @@
         <v>1.67</v>
       </c>
       <c r="AP49">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ49">
         <v>1.5</v>
@@ -11083,7 +11089,7 @@
         <v>129</v>
       </c>
       <c r="P50" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q50">
         <v>2.65</v>
@@ -11289,7 +11295,7 @@
         <v>130</v>
       </c>
       <c r="P51" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q51">
         <v>4.15</v>
@@ -11701,7 +11707,7 @@
         <v>132</v>
       </c>
       <c r="P53" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q53">
         <v>1.8</v>
@@ -11907,7 +11913,7 @@
         <v>104</v>
       </c>
       <c r="P54" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q54">
         <v>1.71</v>
@@ -12113,7 +12119,7 @@
         <v>133</v>
       </c>
       <c r="P55" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q55">
         <v>1.45</v>
@@ -12525,7 +12531,7 @@
         <v>135</v>
       </c>
       <c r="P57" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q57">
         <v>2.88</v>
@@ -13761,7 +13767,7 @@
         <v>140</v>
       </c>
       <c r="P63" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q63">
         <v>2.88</v>
@@ -14173,7 +14179,7 @@
         <v>142</v>
       </c>
       <c r="P65" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q65">
         <v>4.5</v>
@@ -14379,7 +14385,7 @@
         <v>143</v>
       </c>
       <c r="P66" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q66">
         <v>5.2</v>
@@ -14585,7 +14591,7 @@
         <v>144</v>
       </c>
       <c r="P67" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q67">
         <v>3.22</v>
@@ -14791,7 +14797,7 @@
         <v>88</v>
       </c>
       <c r="P68" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q68">
         <v>3.24</v>
@@ -14948,6 +14954,212 @@
       </c>
       <c r="BP68">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="69" spans="1:68">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>7825262</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45774.33333333334</v>
+      </c>
+      <c r="F69">
+        <v>9</v>
+      </c>
+      <c r="G69" t="s">
+        <v>80</v>
+      </c>
+      <c r="H69" t="s">
+        <v>76</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>2</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <v>3</v>
+      </c>
+      <c r="O69" t="s">
+        <v>145</v>
+      </c>
+      <c r="P69" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q69">
+        <v>3.18</v>
+      </c>
+      <c r="R69">
+        <v>2.16</v>
+      </c>
+      <c r="S69">
+        <v>3.05</v>
+      </c>
+      <c r="T69">
+        <v>1.33</v>
+      </c>
+      <c r="U69">
+        <v>3.04</v>
+      </c>
+      <c r="V69">
+        <v>2.44</v>
+      </c>
+      <c r="W69">
+        <v>1.49</v>
+      </c>
+      <c r="X69">
+        <v>5.5</v>
+      </c>
+      <c r="Y69">
+        <v>1.08</v>
+      </c>
+      <c r="Z69">
+        <v>2.55</v>
+      </c>
+      <c r="AA69">
+        <v>3.59</v>
+      </c>
+      <c r="AB69">
+        <v>2.51</v>
+      </c>
+      <c r="AC69">
+        <v>1.01</v>
+      </c>
+      <c r="AD69">
+        <v>11</v>
+      </c>
+      <c r="AE69">
+        <v>1.18</v>
+      </c>
+      <c r="AF69">
+        <v>3.88</v>
+      </c>
+      <c r="AG69">
+        <v>1.83</v>
+      </c>
+      <c r="AH69">
+        <v>1.91</v>
+      </c>
+      <c r="AI69">
+        <v>1.56</v>
+      </c>
+      <c r="AJ69">
+        <v>2.27</v>
+      </c>
+      <c r="AK69">
+        <v>1.49</v>
+      </c>
+      <c r="AL69">
+        <v>1.3</v>
+      </c>
+      <c r="AM69">
+        <v>1.47</v>
+      </c>
+      <c r="AN69">
+        <v>1.33</v>
+      </c>
+      <c r="AO69">
+        <v>1.67</v>
+      </c>
+      <c r="AP69">
+        <v>1.75</v>
+      </c>
+      <c r="AQ69">
+        <v>1.25</v>
+      </c>
+      <c r="AR69">
+        <v>2.08</v>
+      </c>
+      <c r="AS69">
+        <v>1.07</v>
+      </c>
+      <c r="AT69">
+        <v>3.15</v>
+      </c>
+      <c r="AU69">
+        <v>11</v>
+      </c>
+      <c r="AV69">
+        <v>4</v>
+      </c>
+      <c r="AW69">
+        <v>5</v>
+      </c>
+      <c r="AX69">
+        <v>7</v>
+      </c>
+      <c r="AY69">
+        <v>16</v>
+      </c>
+      <c r="AZ69">
+        <v>11</v>
+      </c>
+      <c r="BA69">
+        <v>5</v>
+      </c>
+      <c r="BB69">
+        <v>3</v>
+      </c>
+      <c r="BC69">
+        <v>8</v>
+      </c>
+      <c r="BD69">
+        <v>1.88</v>
+      </c>
+      <c r="BE69">
+        <v>6.5</v>
+      </c>
+      <c r="BF69">
+        <v>2.1</v>
+      </c>
+      <c r="BG69">
+        <v>1.24</v>
+      </c>
+      <c r="BH69">
+        <v>3.55</v>
+      </c>
+      <c r="BI69">
+        <v>1.41</v>
+      </c>
+      <c r="BJ69">
+        <v>2.65</v>
+      </c>
+      <c r="BK69">
+        <v>1.68</v>
+      </c>
+      <c r="BL69">
+        <v>2.02</v>
+      </c>
+      <c r="BM69">
+        <v>2.07</v>
+      </c>
+      <c r="BN69">
+        <v>1.65</v>
+      </c>
+      <c r="BO69">
+        <v>2.65</v>
+      </c>
+      <c r="BP69">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/China Chinese Super League_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/China Chinese Super League_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="192">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -454,6 +454,9 @@
     <t>['61', '77']</t>
   </si>
   <si>
+    <t>['62', '69']</t>
+  </si>
+  <si>
     <t>['53', '79']</t>
   </si>
   <si>
@@ -581,6 +584,12 @@
   </si>
   <si>
     <t>['1']</t>
+  </si>
+  <si>
+    <t>['12']</t>
+  </si>
+  <si>
+    <t>['75']</t>
   </si>
 </sst>
 </file>
@@ -942,7 +951,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP69"/>
+  <dimension ref="A1:BP71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1613,7 +1622,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1819,7 +1828,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q5">
         <v>2.85</v>
@@ -1897,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ5">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2025,7 +2034,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q6">
         <v>2.2</v>
@@ -2103,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ6">
         <v>0.5</v>
@@ -2437,7 +2446,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q8">
         <v>2.04</v>
@@ -2518,7 +2527,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ8">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2643,7 +2652,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q9">
         <v>1.5</v>
@@ -2849,7 +2858,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q10">
         <v>2.1</v>
@@ -3261,7 +3270,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3339,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ12">
         <v>0.6</v>
@@ -3467,7 +3476,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -3673,7 +3682,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q14">
         <v>2.13</v>
@@ -3879,7 +3888,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q15">
         <v>3.2</v>
@@ -4085,7 +4094,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4497,7 +4506,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4703,7 +4712,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q19">
         <v>3.75</v>
@@ -4909,7 +4918,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q20">
         <v>3.25</v>
@@ -5527,7 +5536,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5733,7 +5742,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -5939,7 +5948,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6145,7 +6154,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6226,7 +6235,7 @@
         <v>1</v>
       </c>
       <c r="AQ26">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR26">
         <v>1.09</v>
@@ -6429,7 +6438,7 @@
         <v>1.5</v>
       </c>
       <c r="AP27">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ27">
         <v>0.6</v>
@@ -6557,7 +6566,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6763,7 +6772,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -7047,7 +7056,7 @@
         <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ30">
         <v>0.5</v>
@@ -7175,7 +7184,7 @@
         <v>112</v>
       </c>
       <c r="P31" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q31">
         <v>3.42</v>
@@ -7381,7 +7390,7 @@
         <v>88</v>
       </c>
       <c r="P32" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q32">
         <v>2.9</v>
@@ -7587,7 +7596,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q33">
         <v>1.56</v>
@@ -7668,7 +7677,7 @@
         <v>2</v>
       </c>
       <c r="AQ33">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AR33">
         <v>2.3</v>
@@ -7793,7 +7802,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q34">
         <v>3.25</v>
@@ -7999,7 +8008,7 @@
         <v>115</v>
       </c>
       <c r="P35" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q35">
         <v>4.25</v>
@@ -8205,7 +8214,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q36">
         <v>3.15</v>
@@ -8411,7 +8420,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q37">
         <v>2.75</v>
@@ -8823,7 +8832,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9647,7 +9656,7 @@
         <v>123</v>
       </c>
       <c r="P43" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9853,7 +9862,7 @@
         <v>124</v>
       </c>
       <c r="P44" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q44">
         <v>3.2</v>
@@ -10059,7 +10068,7 @@
         <v>88</v>
       </c>
       <c r="P45" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q45">
         <v>7.5</v>
@@ -10137,7 +10146,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ45">
         <v>2.6</v>
@@ -10265,7 +10274,7 @@
         <v>125</v>
       </c>
       <c r="P46" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q46">
         <v>3.1</v>
@@ -10471,7 +10480,7 @@
         <v>126</v>
       </c>
       <c r="P47" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q47">
         <v>1.95</v>
@@ -10677,7 +10686,7 @@
         <v>127</v>
       </c>
       <c r="P48" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q48">
         <v>3.7</v>
@@ -10883,7 +10892,7 @@
         <v>128</v>
       </c>
       <c r="P49" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q49">
         <v>4.33</v>
@@ -11089,7 +11098,7 @@
         <v>129</v>
       </c>
       <c r="P50" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q50">
         <v>2.65</v>
@@ -11295,7 +11304,7 @@
         <v>130</v>
       </c>
       <c r="P51" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q51">
         <v>4.15</v>
@@ -11707,7 +11716,7 @@
         <v>132</v>
       </c>
       <c r="P53" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q53">
         <v>1.8</v>
@@ -11785,10 +11794,10 @@
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ53">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AR53">
         <v>1.5</v>
@@ -11913,7 +11922,7 @@
         <v>104</v>
       </c>
       <c r="P54" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q54">
         <v>1.71</v>
@@ -12119,7 +12128,7 @@
         <v>133</v>
       </c>
       <c r="P55" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q55">
         <v>1.45</v>
@@ -12531,7 +12540,7 @@
         <v>135</v>
       </c>
       <c r="P57" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q57">
         <v>2.88</v>
@@ -13767,7 +13776,7 @@
         <v>140</v>
       </c>
       <c r="P63" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q63">
         <v>2.88</v>
@@ -14179,7 +14188,7 @@
         <v>142</v>
       </c>
       <c r="P65" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q65">
         <v>4.5</v>
@@ -14385,7 +14394,7 @@
         <v>143</v>
       </c>
       <c r="P66" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q66">
         <v>5.2</v>
@@ -14591,7 +14600,7 @@
         <v>144</v>
       </c>
       <c r="P67" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q67">
         <v>3.22</v>
@@ -14797,7 +14806,7 @@
         <v>88</v>
       </c>
       <c r="P68" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q68">
         <v>3.24</v>
@@ -15003,7 +15012,7 @@
         <v>145</v>
       </c>
       <c r="P69" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q69">
         <v>3.18</v>
@@ -15114,13 +15123,13 @@
         <v>11</v>
       </c>
       <c r="BA69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB69">
         <v>3</v>
       </c>
       <c r="BC69">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD69">
         <v>1.88</v>
@@ -15160,6 +15169,418 @@
       </c>
       <c r="BP69">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="70" spans="1:68">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>7825263</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45774.35763888889</v>
+      </c>
+      <c r="F70">
+        <v>9</v>
+      </c>
+      <c r="G70" t="s">
+        <v>73</v>
+      </c>
+      <c r="H70" t="s">
+        <v>78</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="N70">
+        <v>2</v>
+      </c>
+      <c r="O70" t="s">
+        <v>124</v>
+      </c>
+      <c r="P70" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q70">
+        <v>3.22</v>
+      </c>
+      <c r="R70">
+        <v>2.12</v>
+      </c>
+      <c r="S70">
+        <v>3.1</v>
+      </c>
+      <c r="T70">
+        <v>1.34</v>
+      </c>
+      <c r="U70">
+        <v>2.99</v>
+      </c>
+      <c r="V70">
+        <v>2.62</v>
+      </c>
+      <c r="W70">
+        <v>1.43</v>
+      </c>
+      <c r="X70">
+        <v>6.5</v>
+      </c>
+      <c r="Y70">
+        <v>1.05</v>
+      </c>
+      <c r="Z70">
+        <v>3.25</v>
+      </c>
+      <c r="AA70">
+        <v>3.6</v>
+      </c>
+      <c r="AB70">
+        <v>2.07</v>
+      </c>
+      <c r="AC70">
+        <v>1.02</v>
+      </c>
+      <c r="AD70">
+        <v>10</v>
+      </c>
+      <c r="AE70">
+        <v>1.2</v>
+      </c>
+      <c r="AF70">
+        <v>3.7</v>
+      </c>
+      <c r="AG70">
+        <v>1.77</v>
+      </c>
+      <c r="AH70">
+        <v>1.98</v>
+      </c>
+      <c r="AI70">
+        <v>1.62</v>
+      </c>
+      <c r="AJ70">
+        <v>2.16</v>
+      </c>
+      <c r="AK70">
+        <v>1.5</v>
+      </c>
+      <c r="AL70">
+        <v>1.3</v>
+      </c>
+      <c r="AM70">
+        <v>1.46</v>
+      </c>
+      <c r="AN70">
+        <v>0.5</v>
+      </c>
+      <c r="AO70">
+        <v>0.67</v>
+      </c>
+      <c r="AP70">
+        <v>0.6</v>
+      </c>
+      <c r="AQ70">
+        <v>0.75</v>
+      </c>
+      <c r="AR70">
+        <v>1.3</v>
+      </c>
+      <c r="AS70">
+        <v>1.29</v>
+      </c>
+      <c r="AT70">
+        <v>2.59</v>
+      </c>
+      <c r="AU70">
+        <v>3</v>
+      </c>
+      <c r="AV70">
+        <v>3</v>
+      </c>
+      <c r="AW70">
+        <v>17</v>
+      </c>
+      <c r="AX70">
+        <v>8</v>
+      </c>
+      <c r="AY70">
+        <v>25</v>
+      </c>
+      <c r="AZ70">
+        <v>12</v>
+      </c>
+      <c r="BA70">
+        <v>5</v>
+      </c>
+      <c r="BB70">
+        <v>2</v>
+      </c>
+      <c r="BC70">
+        <v>7</v>
+      </c>
+      <c r="BD70">
+        <v>1.95</v>
+      </c>
+      <c r="BE70">
+        <v>6.25</v>
+      </c>
+      <c r="BF70">
+        <v>2.05</v>
+      </c>
+      <c r="BG70">
+        <v>1.35</v>
+      </c>
+      <c r="BH70">
+        <v>2.9</v>
+      </c>
+      <c r="BI70">
+        <v>1.58</v>
+      </c>
+      <c r="BJ70">
+        <v>2.18</v>
+      </c>
+      <c r="BK70">
+        <v>1.96</v>
+      </c>
+      <c r="BL70">
+        <v>1.73</v>
+      </c>
+      <c r="BM70">
+        <v>2.48</v>
+      </c>
+      <c r="BN70">
+        <v>1.46</v>
+      </c>
+      <c r="BO70">
+        <v>3.3</v>
+      </c>
+      <c r="BP70">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="71" spans="1:68">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>7825261</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45774.375</v>
+      </c>
+      <c r="F71">
+        <v>9</v>
+      </c>
+      <c r="G71" t="s">
+        <v>74</v>
+      </c>
+      <c r="H71" t="s">
+        <v>79</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>2</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <v>3</v>
+      </c>
+      <c r="O71" t="s">
+        <v>146</v>
+      </c>
+      <c r="P71" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q71">
+        <v>2.1</v>
+      </c>
+      <c r="R71">
+        <v>2.49</v>
+      </c>
+      <c r="S71">
+        <v>4.4</v>
+      </c>
+      <c r="T71">
+        <v>1.2</v>
+      </c>
+      <c r="U71">
+        <v>3.85</v>
+      </c>
+      <c r="V71">
+        <v>2.13</v>
+      </c>
+      <c r="W71">
+        <v>1.67</v>
+      </c>
+      <c r="X71">
+        <v>4.65</v>
+      </c>
+      <c r="Y71">
+        <v>1.14</v>
+      </c>
+      <c r="Z71">
+        <v>1.75</v>
+      </c>
+      <c r="AA71">
+        <v>4.1</v>
+      </c>
+      <c r="AB71">
+        <v>3.93</v>
+      </c>
+      <c r="AC71">
+        <v>1.01</v>
+      </c>
+      <c r="AD71">
+        <v>16</v>
+      </c>
+      <c r="AE71">
+        <v>1.14</v>
+      </c>
+      <c r="AF71">
+        <v>5.3</v>
+      </c>
+      <c r="AG71">
+        <v>1.57</v>
+      </c>
+      <c r="AH71">
+        <v>2.25</v>
+      </c>
+      <c r="AI71">
+        <v>1.48</v>
+      </c>
+      <c r="AJ71">
+        <v>2.46</v>
+      </c>
+      <c r="AK71">
+        <v>1.19</v>
+      </c>
+      <c r="AL71">
+        <v>1.21</v>
+      </c>
+      <c r="AM71">
+        <v>2.19</v>
+      </c>
+      <c r="AN71">
+        <v>1.67</v>
+      </c>
+      <c r="AO71">
+        <v>2</v>
+      </c>
+      <c r="AP71">
+        <v>2</v>
+      </c>
+      <c r="AQ71">
+        <v>1.33</v>
+      </c>
+      <c r="AR71">
+        <v>1.62</v>
+      </c>
+      <c r="AS71">
+        <v>1.63</v>
+      </c>
+      <c r="AT71">
+        <v>3.25</v>
+      </c>
+      <c r="AU71">
+        <v>3</v>
+      </c>
+      <c r="AV71">
+        <v>3</v>
+      </c>
+      <c r="AW71">
+        <v>5</v>
+      </c>
+      <c r="AX71">
+        <v>5</v>
+      </c>
+      <c r="AY71">
+        <v>8</v>
+      </c>
+      <c r="AZ71">
+        <v>8</v>
+      </c>
+      <c r="BA71">
+        <v>1</v>
+      </c>
+      <c r="BB71">
+        <v>3</v>
+      </c>
+      <c r="BC71">
+        <v>4</v>
+      </c>
+      <c r="BD71">
+        <v>1.47</v>
+      </c>
+      <c r="BE71">
+        <v>7</v>
+      </c>
+      <c r="BF71">
+        <v>2.95</v>
+      </c>
+      <c r="BG71">
+        <v>1.2</v>
+      </c>
+      <c r="BH71">
+        <v>3.95</v>
+      </c>
+      <c r="BI71">
+        <v>1.35</v>
+      </c>
+      <c r="BJ71">
+        <v>2.9</v>
+      </c>
+      <c r="BK71">
+        <v>1.57</v>
+      </c>
+      <c r="BL71">
+        <v>2.23</v>
+      </c>
+      <c r="BM71">
+        <v>1.91</v>
+      </c>
+      <c r="BN71">
+        <v>1.78</v>
+      </c>
+      <c r="BO71">
+        <v>2.35</v>
+      </c>
+      <c r="BP71">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/China Chinese Super League_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/China Chinese Super League_2025.xlsx
@@ -15123,13 +15123,13 @@
         <v>11</v>
       </c>
       <c r="BA69">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB69">
         <v>3</v>
       </c>
       <c r="BC69">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD69">
         <v>1.88</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/China Chinese Super League_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/China Chinese Super League_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="194">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -457,6 +457,9 @@
     <t>['62', '69']</t>
   </si>
   <si>
+    <t>['5', '23', '48']</t>
+  </si>
+  <si>
     <t>['53', '79']</t>
   </si>
   <si>
@@ -590,6 +593,9 @@
   </si>
   <si>
     <t>['75']</t>
+  </si>
+  <si>
+    <t>['90', '90+7']</t>
   </si>
 </sst>
 </file>
@@ -951,7 +957,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP71"/>
+  <dimension ref="A1:BP72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1622,7 +1628,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1828,7 +1834,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q5">
         <v>2.85</v>
@@ -2034,7 +2040,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q6">
         <v>2.2</v>
@@ -2446,7 +2452,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q8">
         <v>2.04</v>
@@ -2652,7 +2658,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q9">
         <v>1.5</v>
@@ -2858,7 +2864,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q10">
         <v>2.1</v>
@@ -3270,7 +3276,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3476,7 +3482,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -3682,7 +3688,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q14">
         <v>2.13</v>
@@ -3888,7 +3894,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q15">
         <v>3.2</v>
@@ -4094,7 +4100,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4506,7 +4512,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4712,7 +4718,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q19">
         <v>3.75</v>
@@ -4918,7 +4924,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q20">
         <v>3.25</v>
@@ -4999,7 +5005,7 @@
         <v>1</v>
       </c>
       <c r="AQ20">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5202,7 +5208,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ21">
         <v>0.6</v>
@@ -5536,7 +5542,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5742,7 +5748,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -5948,7 +5954,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6154,7 +6160,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6566,7 +6572,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6772,7 +6778,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -6853,7 +6859,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ29">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR29">
         <v>1.91</v>
@@ -7184,7 +7190,7 @@
         <v>112</v>
       </c>
       <c r="P31" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q31">
         <v>3.42</v>
@@ -7390,7 +7396,7 @@
         <v>88</v>
       </c>
       <c r="P32" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q32">
         <v>2.9</v>
@@ -7596,7 +7602,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q33">
         <v>1.56</v>
@@ -7802,7 +7808,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q34">
         <v>3.25</v>
@@ -8008,7 +8014,7 @@
         <v>115</v>
       </c>
       <c r="P35" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q35">
         <v>4.25</v>
@@ -8214,7 +8220,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q36">
         <v>3.15</v>
@@ -8420,7 +8426,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q37">
         <v>2.75</v>
@@ -8832,7 +8838,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9656,7 +9662,7 @@
         <v>123</v>
       </c>
       <c r="P43" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9862,7 +9868,7 @@
         <v>124</v>
       </c>
       <c r="P44" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q44">
         <v>3.2</v>
@@ -9940,7 +9946,7 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ44">
         <v>1.25</v>
@@ -10068,7 +10074,7 @@
         <v>88</v>
       </c>
       <c r="P45" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q45">
         <v>7.5</v>
@@ -10274,7 +10280,7 @@
         <v>125</v>
       </c>
       <c r="P46" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q46">
         <v>3.1</v>
@@ -10355,7 +10361,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ46">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR46">
         <v>1.82</v>
@@ -10480,7 +10486,7 @@
         <v>126</v>
       </c>
       <c r="P47" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q47">
         <v>1.95</v>
@@ -10686,7 +10692,7 @@
         <v>127</v>
       </c>
       <c r="P48" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q48">
         <v>3.7</v>
@@ -10892,7 +10898,7 @@
         <v>128</v>
       </c>
       <c r="P49" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q49">
         <v>4.33</v>
@@ -11098,7 +11104,7 @@
         <v>129</v>
       </c>
       <c r="P50" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q50">
         <v>2.65</v>
@@ -11304,7 +11310,7 @@
         <v>130</v>
       </c>
       <c r="P51" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q51">
         <v>4.15</v>
@@ -11588,7 +11594,7 @@
         <v>1.33</v>
       </c>
       <c r="AP52">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ52">
         <v>0.8</v>
@@ -11716,7 +11722,7 @@
         <v>132</v>
       </c>
       <c r="P53" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q53">
         <v>1.8</v>
@@ -11922,7 +11928,7 @@
         <v>104</v>
       </c>
       <c r="P54" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q54">
         <v>1.71</v>
@@ -12003,7 +12009,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ54">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR54">
         <v>2.36</v>
@@ -12128,7 +12134,7 @@
         <v>133</v>
       </c>
       <c r="P55" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q55">
         <v>1.45</v>
@@ -12540,7 +12546,7 @@
         <v>135</v>
       </c>
       <c r="P57" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q57">
         <v>2.88</v>
@@ -12827,7 +12833,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ58">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR58">
         <v>1.38</v>
@@ -13776,7 +13782,7 @@
         <v>140</v>
       </c>
       <c r="P63" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q63">
         <v>2.88</v>
@@ -14188,7 +14194,7 @@
         <v>142</v>
       </c>
       <c r="P65" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q65">
         <v>4.5</v>
@@ -14394,7 +14400,7 @@
         <v>143</v>
       </c>
       <c r="P66" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q66">
         <v>5.2</v>
@@ -14600,7 +14606,7 @@
         <v>144</v>
       </c>
       <c r="P67" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q67">
         <v>3.22</v>
@@ -14806,7 +14812,7 @@
         <v>88</v>
       </c>
       <c r="P68" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q68">
         <v>3.24</v>
@@ -15012,7 +15018,7 @@
         <v>145</v>
       </c>
       <c r="P69" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q69">
         <v>3.18</v>
@@ -15218,7 +15224,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q70">
         <v>3.22</v>
@@ -15424,7 +15430,7 @@
         <v>146</v>
       </c>
       <c r="P71" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q71">
         <v>2.1</v>
@@ -15581,6 +15587,212 @@
       </c>
       <c r="BP71">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:68">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>7825264</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45778.1875</v>
+      </c>
+      <c r="F72">
+        <v>10</v>
+      </c>
+      <c r="G72" t="s">
+        <v>82</v>
+      </c>
+      <c r="H72" t="s">
+        <v>72</v>
+      </c>
+      <c r="I72">
+        <v>2</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>2</v>
+      </c>
+      <c r="L72">
+        <v>3</v>
+      </c>
+      <c r="M72">
+        <v>2</v>
+      </c>
+      <c r="N72">
+        <v>5</v>
+      </c>
+      <c r="O72" t="s">
+        <v>147</v>
+      </c>
+      <c r="P72" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q72">
+        <v>2.75</v>
+      </c>
+      <c r="R72">
+        <v>2.2</v>
+      </c>
+      <c r="S72">
+        <v>4</v>
+      </c>
+      <c r="T72">
+        <v>1.4</v>
+      </c>
+      <c r="U72">
+        <v>2.75</v>
+      </c>
+      <c r="V72">
+        <v>2.75</v>
+      </c>
+      <c r="W72">
+        <v>1.4</v>
+      </c>
+      <c r="X72">
+        <v>8</v>
+      </c>
+      <c r="Y72">
+        <v>1.08</v>
+      </c>
+      <c r="Z72">
+        <v>2.04</v>
+      </c>
+      <c r="AA72">
+        <v>3.41</v>
+      </c>
+      <c r="AB72">
+        <v>3.15</v>
+      </c>
+      <c r="AC72">
+        <v>1.05</v>
+      </c>
+      <c r="AD72">
+        <v>8.5</v>
+      </c>
+      <c r="AE72">
+        <v>1.3</v>
+      </c>
+      <c r="AF72">
+        <v>3.3</v>
+      </c>
+      <c r="AG72">
+        <v>1.88</v>
+      </c>
+      <c r="AH72">
+        <v>1.82</v>
+      </c>
+      <c r="AI72">
+        <v>1.75</v>
+      </c>
+      <c r="AJ72">
+        <v>2</v>
+      </c>
+      <c r="AK72">
+        <v>1.32</v>
+      </c>
+      <c r="AL72">
+        <v>1.29</v>
+      </c>
+      <c r="AM72">
+        <v>1.68</v>
+      </c>
+      <c r="AN72">
+        <v>2.33</v>
+      </c>
+      <c r="AO72">
+        <v>1</v>
+      </c>
+      <c r="AP72">
+        <v>2.5</v>
+      </c>
+      <c r="AQ72">
+        <v>0.83</v>
+      </c>
+      <c r="AR72">
+        <v>1.95</v>
+      </c>
+      <c r="AS72">
+        <v>1.21</v>
+      </c>
+      <c r="AT72">
+        <v>3.16</v>
+      </c>
+      <c r="AU72">
+        <v>8</v>
+      </c>
+      <c r="AV72">
+        <v>8</v>
+      </c>
+      <c r="AW72">
+        <v>12</v>
+      </c>
+      <c r="AX72">
+        <v>8</v>
+      </c>
+      <c r="AY72">
+        <v>22</v>
+      </c>
+      <c r="AZ72">
+        <v>19</v>
+      </c>
+      <c r="BA72">
+        <v>4</v>
+      </c>
+      <c r="BB72">
+        <v>8</v>
+      </c>
+      <c r="BC72">
+        <v>12</v>
+      </c>
+      <c r="BD72">
+        <v>1.45</v>
+      </c>
+      <c r="BE72">
+        <v>9</v>
+      </c>
+      <c r="BF72">
+        <v>3.28</v>
+      </c>
+      <c r="BG72">
+        <v>1.24</v>
+      </c>
+      <c r="BH72">
+        <v>3.34</v>
+      </c>
+      <c r="BI72">
+        <v>1.47</v>
+      </c>
+      <c r="BJ72">
+        <v>2.42</v>
+      </c>
+      <c r="BK72">
+        <v>1.85</v>
+      </c>
+      <c r="BL72">
+        <v>1.85</v>
+      </c>
+      <c r="BM72">
+        <v>2.32</v>
+      </c>
+      <c r="BN72">
+        <v>1.51</v>
+      </c>
+      <c r="BO72">
+        <v>3.08</v>
+      </c>
+      <c r="BP72">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/China Chinese Super League_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/China Chinese Super League_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="201">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -460,6 +460,18 @@
     <t>['5', '23', '48']</t>
   </si>
   <si>
+    <t>['54']</t>
+  </si>
+  <si>
+    <t>['9', '24', '45+2', '64']</t>
+  </si>
+  <si>
+    <t>['74']</t>
+  </si>
+  <si>
+    <t>['40']</t>
+  </si>
+  <si>
     <t>['53', '79']</t>
   </si>
   <si>
@@ -511,9 +523,6 @@
     <t>['47', '90+2', '90+3']</t>
   </si>
   <si>
-    <t>['40']</t>
-  </si>
-  <si>
     <t>['23']</t>
   </si>
   <si>
@@ -596,6 +605,18 @@
   </si>
   <si>
     <t>['90', '90+7']</t>
+  </si>
+  <si>
+    <t>['63', '89']</t>
+  </si>
+  <si>
+    <t>['13', '47']</t>
+  </si>
+  <si>
+    <t>['61']</t>
+  </si>
+  <si>
+    <t>['42', '55']</t>
   </si>
 </sst>
 </file>
@@ -957,7 +978,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP72"/>
+  <dimension ref="A1:BP77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1297,7 +1318,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ2">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1503,7 +1524,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ3">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1628,7 +1649,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1709,7 +1730,7 @@
         <v>1</v>
       </c>
       <c r="AQ4">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1834,7 +1855,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q5">
         <v>2.85</v>
@@ -2040,7 +2061,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q6">
         <v>2.2</v>
@@ -2118,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ6">
         <v>0.5</v>
@@ -2324,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ7">
         <v>0.8</v>
@@ -2452,7 +2473,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q8">
         <v>2.04</v>
@@ -2658,7 +2679,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q9">
         <v>1.5</v>
@@ -2736,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ9">
         <v>0.6</v>
@@ -2864,7 +2885,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q10">
         <v>2.1</v>
@@ -2942,7 +2963,7 @@
         <v>1</v>
       </c>
       <c r="AP10">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ10">
         <v>0.5</v>
@@ -3148,10 +3169,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ11">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR11">
         <v>1.91</v>
@@ -3276,7 +3297,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3482,7 +3503,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -3688,7 +3709,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q14">
         <v>2.13</v>
@@ -3769,7 +3790,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ14">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR14">
         <v>2.29</v>
@@ -3894,7 +3915,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q15">
         <v>3.2</v>
@@ -4100,7 +4121,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4181,7 +4202,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ16">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR16">
         <v>2.91</v>
@@ -4387,7 +4408,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ17">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4512,7 +4533,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4718,7 +4739,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q19">
         <v>3.75</v>
@@ -4924,7 +4945,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q20">
         <v>3.25</v>
@@ -5002,7 +5023,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ20">
         <v>0.83</v>
@@ -5211,7 +5232,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ21">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5417,7 +5438,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ22">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AR22">
         <v>3.42</v>
@@ -5542,7 +5563,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5620,7 +5641,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ23">
         <v>2.33</v>
@@ -5748,7 +5769,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -5954,7 +5975,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6160,7 +6181,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6238,7 +6259,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ26">
         <v>1.33</v>
@@ -6444,7 +6465,7 @@
         <v>1.5</v>
       </c>
       <c r="AP27">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ27">
         <v>0.6</v>
@@ -6572,7 +6593,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6653,7 +6674,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ28">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR28">
         <v>0</v>
@@ -6778,7 +6799,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -7190,7 +7211,7 @@
         <v>112</v>
       </c>
       <c r="P31" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q31">
         <v>3.42</v>
@@ -7271,7 +7292,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ31">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR31">
         <v>3.11</v>
@@ -7396,7 +7417,7 @@
         <v>88</v>
       </c>
       <c r="P32" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q32">
         <v>2.9</v>
@@ -7474,7 +7495,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ32">
         <v>2.6</v>
@@ -7602,7 +7623,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q33">
         <v>1.56</v>
@@ -7680,7 +7701,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ33">
         <v>0.75</v>
@@ -7808,7 +7829,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q34">
         <v>3.25</v>
@@ -7886,7 +7907,7 @@
         <v>0.5</v>
       </c>
       <c r="AP34">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ34">
         <v>0.8</v>
@@ -8014,7 +8035,7 @@
         <v>115</v>
       </c>
       <c r="P35" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q35">
         <v>4.25</v>
@@ -8220,7 +8241,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q36">
         <v>3.15</v>
@@ -8301,7 +8322,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ36">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR36">
         <v>1.07</v>
@@ -8426,7 +8447,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q37">
         <v>2.75</v>
@@ -8507,7 +8528,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ37">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR37">
         <v>1.61</v>
@@ -8838,7 +8859,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -8916,7 +8937,7 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ39">
         <v>2.33</v>
@@ -9331,7 +9352,7 @@
         <v>1</v>
       </c>
       <c r="AQ41">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AR41">
         <v>1.18</v>
@@ -9534,7 +9555,7 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ42">
         <v>0.6</v>
@@ -9662,7 +9683,7 @@
         <v>123</v>
       </c>
       <c r="P43" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9743,7 +9764,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ43">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR43">
         <v>1.8</v>
@@ -9868,7 +9889,7 @@
         <v>124</v>
       </c>
       <c r="P44" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q44">
         <v>3.2</v>
@@ -9949,7 +9970,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ44">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR44">
         <v>2.26</v>
@@ -10074,7 +10095,7 @@
         <v>88</v>
       </c>
       <c r="P45" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q45">
         <v>7.5</v>
@@ -10280,7 +10301,7 @@
         <v>125</v>
       </c>
       <c r="P46" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q46">
         <v>3.1</v>
@@ -10486,7 +10507,7 @@
         <v>126</v>
       </c>
       <c r="P47" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q47">
         <v>1.95</v>
@@ -10692,7 +10713,7 @@
         <v>127</v>
       </c>
       <c r="P48" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q48">
         <v>3.7</v>
@@ -10898,7 +10919,7 @@
         <v>128</v>
       </c>
       <c r="P49" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q49">
         <v>4.33</v>
@@ -10979,7 +11000,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ49">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AR49">
         <v>1.83</v>
@@ -11104,7 +11125,7 @@
         <v>129</v>
       </c>
       <c r="P50" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q50">
         <v>2.65</v>
@@ -11182,10 +11203,10 @@
         <v>0.75</v>
       </c>
       <c r="AP50">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ50">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR50">
         <v>1.81</v>
@@ -11310,7 +11331,7 @@
         <v>130</v>
       </c>
       <c r="P51" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q51">
         <v>4.15</v>
@@ -11722,7 +11743,7 @@
         <v>132</v>
       </c>
       <c r="P53" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q53">
         <v>1.8</v>
@@ -11800,7 +11821,7 @@
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ53">
         <v>0.75</v>
@@ -11928,7 +11949,7 @@
         <v>104</v>
       </c>
       <c r="P54" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q54">
         <v>1.71</v>
@@ -12134,7 +12155,7 @@
         <v>133</v>
       </c>
       <c r="P55" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q55">
         <v>1.45</v>
@@ -12215,7 +12236,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ55">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AR55">
         <v>2.44</v>
@@ -12421,7 +12442,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ56">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR56">
         <v>2.49</v>
@@ -12546,7 +12567,7 @@
         <v>135</v>
       </c>
       <c r="P57" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q57">
         <v>2.88</v>
@@ -13242,10 +13263,10 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ60">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AR60">
         <v>1.14</v>
@@ -13782,7 +13803,7 @@
         <v>140</v>
       </c>
       <c r="P63" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q63">
         <v>2.88</v>
@@ -13860,7 +13881,7 @@
         <v>2.33</v>
       </c>
       <c r="AP63">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ63">
         <v>2.6</v>
@@ -14194,7 +14215,7 @@
         <v>142</v>
       </c>
       <c r="P65" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q65">
         <v>4.5</v>
@@ -14400,7 +14421,7 @@
         <v>143</v>
       </c>
       <c r="P66" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q66">
         <v>5.2</v>
@@ -14606,7 +14627,7 @@
         <v>144</v>
       </c>
       <c r="P67" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q67">
         <v>3.22</v>
@@ -14684,7 +14705,7 @@
         <v>0.4</v>
       </c>
       <c r="AP67">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ67">
         <v>0.5</v>
@@ -14812,7 +14833,7 @@
         <v>88</v>
       </c>
       <c r="P68" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q68">
         <v>3.24</v>
@@ -14890,7 +14911,7 @@
         <v>2</v>
       </c>
       <c r="AP68">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ68">
         <v>2.33</v>
@@ -15018,7 +15039,7 @@
         <v>145</v>
       </c>
       <c r="P69" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q69">
         <v>3.18</v>
@@ -15099,7 +15120,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ69">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR69">
         <v>2.08</v>
@@ -15224,7 +15245,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q70">
         <v>3.22</v>
@@ -15430,7 +15451,7 @@
         <v>146</v>
       </c>
       <c r="P71" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q71">
         <v>2.1</v>
@@ -15508,7 +15529,7 @@
         <v>2</v>
       </c>
       <c r="AP71">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ71">
         <v>1.33</v>
@@ -15636,7 +15657,7 @@
         <v>147</v>
       </c>
       <c r="P72" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q72">
         <v>2.75</v>
@@ -15793,6 +15814,1036 @@
       </c>
       <c r="BP72">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="73" spans="1:68">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>7825265</v>
+      </c>
+      <c r="C73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45778.3125</v>
+      </c>
+      <c r="F73">
+        <v>10</v>
+      </c>
+      <c r="G73" t="s">
+        <v>81</v>
+      </c>
+      <c r="H73" t="s">
+        <v>76</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="O73" t="s">
+        <v>140</v>
+      </c>
+      <c r="P73" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q73">
+        <v>3.6</v>
+      </c>
+      <c r="R73">
+        <v>2.25</v>
+      </c>
+      <c r="S73">
+        <v>2.88</v>
+      </c>
+      <c r="T73">
+        <v>1.36</v>
+      </c>
+      <c r="U73">
+        <v>3</v>
+      </c>
+      <c r="V73">
+        <v>2.63</v>
+      </c>
+      <c r="W73">
+        <v>1.44</v>
+      </c>
+      <c r="X73">
+        <v>7</v>
+      </c>
+      <c r="Y73">
+        <v>1.1</v>
+      </c>
+      <c r="Z73">
+        <v>3.03</v>
+      </c>
+      <c r="AA73">
+        <v>3.49</v>
+      </c>
+      <c r="AB73">
+        <v>2.23</v>
+      </c>
+      <c r="AC73">
+        <v>1.04</v>
+      </c>
+      <c r="AD73">
+        <v>9</v>
+      </c>
+      <c r="AE73">
+        <v>1.25</v>
+      </c>
+      <c r="AF73">
+        <v>3.7</v>
+      </c>
+      <c r="AG73">
+        <v>1.85</v>
+      </c>
+      <c r="AH73">
+        <v>1.94</v>
+      </c>
+      <c r="AI73">
+        <v>1.7</v>
+      </c>
+      <c r="AJ73">
+        <v>2.05</v>
+      </c>
+      <c r="AK73">
+        <v>1.62</v>
+      </c>
+      <c r="AL73">
+        <v>1.25</v>
+      </c>
+      <c r="AM73">
+        <v>1.36</v>
+      </c>
+      <c r="AN73">
+        <v>1</v>
+      </c>
+      <c r="AO73">
+        <v>1.25</v>
+      </c>
+      <c r="AP73">
+        <v>1.4</v>
+      </c>
+      <c r="AQ73">
+        <v>1</v>
+      </c>
+      <c r="AR73">
+        <v>1.59</v>
+      </c>
+      <c r="AS73">
+        <v>1.12</v>
+      </c>
+      <c r="AT73">
+        <v>2.71</v>
+      </c>
+      <c r="AU73">
+        <v>4</v>
+      </c>
+      <c r="AV73">
+        <v>2</v>
+      </c>
+      <c r="AW73">
+        <v>7</v>
+      </c>
+      <c r="AX73">
+        <v>11</v>
+      </c>
+      <c r="AY73">
+        <v>15</v>
+      </c>
+      <c r="AZ73">
+        <v>17</v>
+      </c>
+      <c r="BA73">
+        <v>4</v>
+      </c>
+      <c r="BB73">
+        <v>6</v>
+      </c>
+      <c r="BC73">
+        <v>10</v>
+      </c>
+      <c r="BD73">
+        <v>2.1</v>
+      </c>
+      <c r="BE73">
+        <v>6.6</v>
+      </c>
+      <c r="BF73">
+        <v>2.09</v>
+      </c>
+      <c r="BG73">
+        <v>1.1</v>
+      </c>
+      <c r="BH73">
+        <v>5.05</v>
+      </c>
+      <c r="BI73">
+        <v>1.24</v>
+      </c>
+      <c r="BJ73">
+        <v>3.34</v>
+      </c>
+      <c r="BK73">
+        <v>1.45</v>
+      </c>
+      <c r="BL73">
+        <v>2.48</v>
+      </c>
+      <c r="BM73">
+        <v>1.9</v>
+      </c>
+      <c r="BN73">
+        <v>1.8</v>
+      </c>
+      <c r="BO73">
+        <v>2.23</v>
+      </c>
+      <c r="BP73">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="74" spans="1:68">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>7825267</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45778.33333333334</v>
+      </c>
+      <c r="F74">
+        <v>10</v>
+      </c>
+      <c r="G74" t="s">
+        <v>83</v>
+      </c>
+      <c r="H74" t="s">
+        <v>80</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>2</v>
+      </c>
+      <c r="N74">
+        <v>3</v>
+      </c>
+      <c r="O74" t="s">
+        <v>148</v>
+      </c>
+      <c r="P74" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q74">
+        <v>2.5</v>
+      </c>
+      <c r="R74">
+        <v>2.25</v>
+      </c>
+      <c r="S74">
+        <v>4</v>
+      </c>
+      <c r="T74">
+        <v>1.36</v>
+      </c>
+      <c r="U74">
+        <v>3</v>
+      </c>
+      <c r="V74">
+        <v>2.63</v>
+      </c>
+      <c r="W74">
+        <v>1.44</v>
+      </c>
+      <c r="X74">
+        <v>7</v>
+      </c>
+      <c r="Y74">
+        <v>1.1</v>
+      </c>
+      <c r="Z74">
+        <v>1.96</v>
+      </c>
+      <c r="AA74">
+        <v>3.39</v>
+      </c>
+      <c r="AB74">
+        <v>3.39</v>
+      </c>
+      <c r="AC74">
+        <v>1.05</v>
+      </c>
+      <c r="AD74">
+        <v>8.5</v>
+      </c>
+      <c r="AE74">
+        <v>1.25</v>
+      </c>
+      <c r="AF74">
+        <v>3.65</v>
+      </c>
+      <c r="AG74">
+        <v>1.75</v>
+      </c>
+      <c r="AH74">
+        <v>1.91</v>
+      </c>
+      <c r="AI74">
+        <v>1.7</v>
+      </c>
+      <c r="AJ74">
+        <v>2.05</v>
+      </c>
+      <c r="AK74">
+        <v>1.28</v>
+      </c>
+      <c r="AL74">
+        <v>1.25</v>
+      </c>
+      <c r="AM74">
+        <v>1.77</v>
+      </c>
+      <c r="AN74">
+        <v>1</v>
+      </c>
+      <c r="AO74">
+        <v>0.2</v>
+      </c>
+      <c r="AP74">
+        <v>0.75</v>
+      </c>
+      <c r="AQ74">
+        <v>0.67</v>
+      </c>
+      <c r="AR74">
+        <v>1.26</v>
+      </c>
+      <c r="AS74">
+        <v>0.99</v>
+      </c>
+      <c r="AT74">
+        <v>2.25</v>
+      </c>
+      <c r="AU74">
+        <v>6</v>
+      </c>
+      <c r="AV74">
+        <v>5</v>
+      </c>
+      <c r="AW74">
+        <v>9</v>
+      </c>
+      <c r="AX74">
+        <v>3</v>
+      </c>
+      <c r="AY74">
+        <v>16</v>
+      </c>
+      <c r="AZ74">
+        <v>8</v>
+      </c>
+      <c r="BA74">
+        <v>9</v>
+      </c>
+      <c r="BB74">
+        <v>2</v>
+      </c>
+      <c r="BC74">
+        <v>11</v>
+      </c>
+      <c r="BD74">
+        <v>1.53</v>
+      </c>
+      <c r="BE74">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="BF74">
+        <v>2.93</v>
+      </c>
+      <c r="BG74">
+        <v>1.21</v>
+      </c>
+      <c r="BH74">
+        <v>3.75</v>
+      </c>
+      <c r="BI74">
+        <v>1.41</v>
+      </c>
+      <c r="BJ74">
+        <v>2.7</v>
+      </c>
+      <c r="BK74">
+        <v>1.7</v>
+      </c>
+      <c r="BL74">
+        <v>2.05</v>
+      </c>
+      <c r="BM74">
+        <v>2.05</v>
+      </c>
+      <c r="BN74">
+        <v>1.7</v>
+      </c>
+      <c r="BO74">
+        <v>2.6</v>
+      </c>
+      <c r="BP74">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="75" spans="1:68">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>7825266</v>
+      </c>
+      <c r="C75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45778.33333333334</v>
+      </c>
+      <c r="F75">
+        <v>10</v>
+      </c>
+      <c r="G75" t="s">
+        <v>74</v>
+      </c>
+      <c r="H75" t="s">
+        <v>85</v>
+      </c>
+      <c r="I75">
+        <v>3</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <v>4</v>
+      </c>
+      <c r="L75">
+        <v>4</v>
+      </c>
+      <c r="M75">
+        <v>2</v>
+      </c>
+      <c r="N75">
+        <v>6</v>
+      </c>
+      <c r="O75" t="s">
+        <v>149</v>
+      </c>
+      <c r="P75" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q75">
+        <v>2.2</v>
+      </c>
+      <c r="R75">
+        <v>2.5</v>
+      </c>
+      <c r="S75">
+        <v>4.5</v>
+      </c>
+      <c r="T75">
+        <v>1.29</v>
+      </c>
+      <c r="U75">
+        <v>3.5</v>
+      </c>
+      <c r="V75">
+        <v>2.25</v>
+      </c>
+      <c r="W75">
+        <v>1.57</v>
+      </c>
+      <c r="X75">
+        <v>5.5</v>
+      </c>
+      <c r="Y75">
+        <v>1.14</v>
+      </c>
+      <c r="Z75">
+        <v>1.65</v>
+      </c>
+      <c r="AA75">
+        <v>3.9</v>
+      </c>
+      <c r="AB75">
+        <v>4.2</v>
+      </c>
+      <c r="AC75">
+        <v>1.03</v>
+      </c>
+      <c r="AD75">
+        <v>10</v>
+      </c>
+      <c r="AE75">
+        <v>1.17</v>
+      </c>
+      <c r="AF75">
+        <v>4.75</v>
+      </c>
+      <c r="AG75">
+        <v>1.53</v>
+      </c>
+      <c r="AH75">
+        <v>2.25</v>
+      </c>
+      <c r="AI75">
+        <v>1.57</v>
+      </c>
+      <c r="AJ75">
+        <v>2.25</v>
+      </c>
+      <c r="AK75">
+        <v>1.15</v>
+      </c>
+      <c r="AL75">
+        <v>1.18</v>
+      </c>
+      <c r="AM75">
+        <v>2.15</v>
+      </c>
+      <c r="AN75">
+        <v>2</v>
+      </c>
+      <c r="AO75">
+        <v>0.6</v>
+      </c>
+      <c r="AP75">
+        <v>2.2</v>
+      </c>
+      <c r="AQ75">
+        <v>0.5</v>
+      </c>
+      <c r="AR75">
+        <v>1.47</v>
+      </c>
+      <c r="AS75">
+        <v>1.2</v>
+      </c>
+      <c r="AT75">
+        <v>2.67</v>
+      </c>
+      <c r="AU75">
+        <v>8</v>
+      </c>
+      <c r="AV75">
+        <v>6</v>
+      </c>
+      <c r="AW75">
+        <v>11</v>
+      </c>
+      <c r="AX75">
+        <v>8</v>
+      </c>
+      <c r="AY75">
+        <v>19</v>
+      </c>
+      <c r="AZ75">
+        <v>16</v>
+      </c>
+      <c r="BA75">
+        <v>3</v>
+      </c>
+      <c r="BB75">
+        <v>7</v>
+      </c>
+      <c r="BC75">
+        <v>10</v>
+      </c>
+      <c r="BD75">
+        <v>1.41</v>
+      </c>
+      <c r="BE75">
+        <v>9</v>
+      </c>
+      <c r="BF75">
+        <v>3.45</v>
+      </c>
+      <c r="BG75">
+        <v>1.22</v>
+      </c>
+      <c r="BH75">
+        <v>3.65</v>
+      </c>
+      <c r="BI75">
+        <v>1.42</v>
+      </c>
+      <c r="BJ75">
+        <v>2.65</v>
+      </c>
+      <c r="BK75">
+        <v>1.7</v>
+      </c>
+      <c r="BL75">
+        <v>2.05</v>
+      </c>
+      <c r="BM75">
+        <v>2.05</v>
+      </c>
+      <c r="BN75">
+        <v>1.7</v>
+      </c>
+      <c r="BO75">
+        <v>2.65</v>
+      </c>
+      <c r="BP75">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="76" spans="1:68">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>7825268</v>
+      </c>
+      <c r="C76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45778.35763888889</v>
+      </c>
+      <c r="F76">
+        <v>10</v>
+      </c>
+      <c r="G76" t="s">
+        <v>75</v>
+      </c>
+      <c r="H76" t="s">
+        <v>73</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76">
+        <v>2</v>
+      </c>
+      <c r="O76" t="s">
+        <v>150</v>
+      </c>
+      <c r="P76" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q76">
+        <v>1.57</v>
+      </c>
+      <c r="R76">
+        <v>3</v>
+      </c>
+      <c r="S76">
+        <v>9</v>
+      </c>
+      <c r="T76">
+        <v>1.22</v>
+      </c>
+      <c r="U76">
+        <v>4</v>
+      </c>
+      <c r="V76">
+        <v>2</v>
+      </c>
+      <c r="W76">
+        <v>1.73</v>
+      </c>
+      <c r="X76">
+        <v>4.33</v>
+      </c>
+      <c r="Y76">
+        <v>1.2</v>
+      </c>
+      <c r="Z76">
+        <v>1.16</v>
+      </c>
+      <c r="AA76">
+        <v>6.6</v>
+      </c>
+      <c r="AB76">
+        <v>11</v>
+      </c>
+      <c r="AC76">
+        <v>1.02</v>
+      </c>
+      <c r="AD76">
+        <v>21</v>
+      </c>
+      <c r="AE76">
+        <v>1.12</v>
+      </c>
+      <c r="AF76">
+        <v>5.5</v>
+      </c>
+      <c r="AG76">
+        <v>1.37</v>
+      </c>
+      <c r="AH76">
+        <v>2.85</v>
+      </c>
+      <c r="AI76">
+        <v>1.91</v>
+      </c>
+      <c r="AJ76">
+        <v>1.91</v>
+      </c>
+      <c r="AK76">
+        <v>1.05</v>
+      </c>
+      <c r="AL76">
+        <v>1.14</v>
+      </c>
+      <c r="AM76">
+        <v>3.9</v>
+      </c>
+      <c r="AN76">
+        <v>1.4</v>
+      </c>
+      <c r="AO76">
+        <v>0</v>
+      </c>
+      <c r="AP76">
+        <v>1.33</v>
+      </c>
+      <c r="AQ76">
+        <v>0.2</v>
+      </c>
+      <c r="AR76">
+        <v>1.89</v>
+      </c>
+      <c r="AS76">
+        <v>1.07</v>
+      </c>
+      <c r="AT76">
+        <v>2.96</v>
+      </c>
+      <c r="AU76">
+        <v>5</v>
+      </c>
+      <c r="AV76">
+        <v>4</v>
+      </c>
+      <c r="AW76">
+        <v>15</v>
+      </c>
+      <c r="AX76">
+        <v>7</v>
+      </c>
+      <c r="AY76">
+        <v>26</v>
+      </c>
+      <c r="AZ76">
+        <v>12</v>
+      </c>
+      <c r="BA76">
+        <v>7</v>
+      </c>
+      <c r="BB76">
+        <v>2</v>
+      </c>
+      <c r="BC76">
+        <v>9</v>
+      </c>
+      <c r="BD76">
+        <v>1.09</v>
+      </c>
+      <c r="BE76">
+        <v>14</v>
+      </c>
+      <c r="BF76">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="BG76">
+        <v>1.16</v>
+      </c>
+      <c r="BH76">
+        <v>4.35</v>
+      </c>
+      <c r="BI76">
+        <v>1.3</v>
+      </c>
+      <c r="BJ76">
+        <v>3.07</v>
+      </c>
+      <c r="BK76">
+        <v>1.54</v>
+      </c>
+      <c r="BL76">
+        <v>2.33</v>
+      </c>
+      <c r="BM76">
+        <v>1.85</v>
+      </c>
+      <c r="BN76">
+        <v>1.85</v>
+      </c>
+      <c r="BO76">
+        <v>2.34</v>
+      </c>
+      <c r="BP76">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="77" spans="1:68">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>7825269</v>
+      </c>
+      <c r="C77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45778.35763888889</v>
+      </c>
+      <c r="F77">
+        <v>10</v>
+      </c>
+      <c r="G77" t="s">
+        <v>77</v>
+      </c>
+      <c r="H77" t="s">
+        <v>84</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>2</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>2</v>
+      </c>
+      <c r="N77">
+        <v>3</v>
+      </c>
+      <c r="O77" t="s">
+        <v>151</v>
+      </c>
+      <c r="P77" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q77">
+        <v>2.63</v>
+      </c>
+      <c r="R77">
+        <v>2.5</v>
+      </c>
+      <c r="S77">
+        <v>3.25</v>
+      </c>
+      <c r="T77">
+        <v>1.22</v>
+      </c>
+      <c r="U77">
+        <v>4</v>
+      </c>
+      <c r="V77">
+        <v>2.1</v>
+      </c>
+      <c r="W77">
+        <v>1.67</v>
+      </c>
+      <c r="X77">
+        <v>4.5</v>
+      </c>
+      <c r="Y77">
+        <v>1.18</v>
+      </c>
+      <c r="Z77">
+        <v>2.13</v>
+      </c>
+      <c r="AA77">
+        <v>3.76</v>
+      </c>
+      <c r="AB77">
+        <v>2.75</v>
+      </c>
+      <c r="AC77">
+        <v>1.01</v>
+      </c>
+      <c r="AD77">
+        <v>17</v>
+      </c>
+      <c r="AE77">
+        <v>1.13</v>
+      </c>
+      <c r="AF77">
+        <v>5.25</v>
+      </c>
+      <c r="AG77">
+        <v>1.4</v>
+      </c>
+      <c r="AH77">
+        <v>2.73</v>
+      </c>
+      <c r="AI77">
+        <v>1.4</v>
+      </c>
+      <c r="AJ77">
+        <v>2.75</v>
+      </c>
+      <c r="AK77">
+        <v>1.36</v>
+      </c>
+      <c r="AL77">
+        <v>1.22</v>
+      </c>
+      <c r="AM77">
+        <v>1.67</v>
+      </c>
+      <c r="AN77">
+        <v>2</v>
+      </c>
+      <c r="AO77">
+        <v>1.5</v>
+      </c>
+      <c r="AP77">
+        <v>1.67</v>
+      </c>
+      <c r="AQ77">
+        <v>1.8</v>
+      </c>
+      <c r="AR77">
+        <v>2</v>
+      </c>
+      <c r="AS77">
+        <v>1.48</v>
+      </c>
+      <c r="AT77">
+        <v>3.48</v>
+      </c>
+      <c r="AU77">
+        <v>8</v>
+      </c>
+      <c r="AV77">
+        <v>6</v>
+      </c>
+      <c r="AW77">
+        <v>14</v>
+      </c>
+      <c r="AX77">
+        <v>8</v>
+      </c>
+      <c r="AY77">
+        <v>27</v>
+      </c>
+      <c r="AZ77">
+        <v>17</v>
+      </c>
+      <c r="BA77">
+        <v>5</v>
+      </c>
+      <c r="BB77">
+        <v>6</v>
+      </c>
+      <c r="BC77">
+        <v>11</v>
+      </c>
+      <c r="BD77">
+        <v>1.73</v>
+      </c>
+      <c r="BE77">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF77">
+        <v>2.43</v>
+      </c>
+      <c r="BG77">
+        <v>1.2</v>
+      </c>
+      <c r="BH77">
+        <v>3.9</v>
+      </c>
+      <c r="BI77">
+        <v>1.39</v>
+      </c>
+      <c r="BJ77">
+        <v>2.78</v>
+      </c>
+      <c r="BK77">
+        <v>1.64</v>
+      </c>
+      <c r="BL77">
+        <v>2.17</v>
+      </c>
+      <c r="BM77">
+        <v>2</v>
+      </c>
+      <c r="BN77">
+        <v>1.73</v>
+      </c>
+      <c r="BO77">
+        <v>2.52</v>
+      </c>
+      <c r="BP77">
+        <v>1.46</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/China Chinese Super League_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/China Chinese Super League_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="203">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -470,6 +470,12 @@
   </si>
   <si>
     <t>['40']</t>
+  </si>
+  <si>
+    <t>['18', '56', '67']</t>
+  </si>
+  <si>
+    <t>['27']</t>
   </si>
   <si>
     <t>['53', '79']</t>
@@ -978,7 +984,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP77"/>
+  <dimension ref="A1:BP79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1315,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ2">
         <v>0.67</v>
@@ -1649,7 +1655,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1855,7 +1861,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q5">
         <v>2.85</v>
@@ -2061,7 +2067,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q6">
         <v>2.2</v>
@@ -2473,7 +2479,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q8">
         <v>2.04</v>
@@ -2554,7 +2560,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ8">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2679,7 +2685,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q9">
         <v>1.5</v>
@@ -2885,7 +2891,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q10">
         <v>2.1</v>
@@ -3297,7 +3303,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3503,7 +3509,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -3709,7 +3715,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q14">
         <v>2.13</v>
@@ -3915,7 +3921,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q15">
         <v>3.2</v>
@@ -4121,7 +4127,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4199,7 +4205,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ16">
         <v>1</v>
@@ -4405,7 +4411,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ17">
         <v>0.67</v>
@@ -4533,7 +4539,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4611,7 +4617,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ18">
         <v>2.33</v>
@@ -4739,7 +4745,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q19">
         <v>3.75</v>
@@ -4945,7 +4951,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q20">
         <v>3.25</v>
@@ -5563,7 +5569,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5644,7 +5650,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ23">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -5769,7 +5775,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -5975,7 +5981,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6181,7 +6187,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6799,7 +6805,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -7211,7 +7217,7 @@
         <v>112</v>
       </c>
       <c r="P31" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q31">
         <v>3.42</v>
@@ -7417,7 +7423,7 @@
         <v>88</v>
       </c>
       <c r="P32" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q32">
         <v>2.9</v>
@@ -7623,7 +7629,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q33">
         <v>1.56</v>
@@ -7704,7 +7710,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ33">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR33">
         <v>2.3</v>
@@ -7829,7 +7835,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q34">
         <v>3.25</v>
@@ -8035,7 +8041,7 @@
         <v>115</v>
       </c>
       <c r="P35" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q35">
         <v>4.25</v>
@@ -8241,7 +8247,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q36">
         <v>3.15</v>
@@ -8319,7 +8325,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ36">
         <v>1</v>
@@ -8447,7 +8453,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q37">
         <v>2.75</v>
@@ -8731,7 +8737,7 @@
         <v>0.67</v>
       </c>
       <c r="AP38">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ38">
         <v>0.5</v>
@@ -8859,7 +8865,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -8940,7 +8946,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ39">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR39">
         <v>2.38</v>
@@ -9683,7 +9689,7 @@
         <v>123</v>
       </c>
       <c r="P43" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9889,7 +9895,7 @@
         <v>124</v>
       </c>
       <c r="P44" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q44">
         <v>3.2</v>
@@ -10095,7 +10101,7 @@
         <v>88</v>
       </c>
       <c r="P45" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q45">
         <v>7.5</v>
@@ -10301,7 +10307,7 @@
         <v>125</v>
       </c>
       <c r="P46" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q46">
         <v>3.1</v>
@@ -10507,7 +10513,7 @@
         <v>126</v>
       </c>
       <c r="P47" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q47">
         <v>1.95</v>
@@ -10713,7 +10719,7 @@
         <v>127</v>
       </c>
       <c r="P48" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q48">
         <v>3.7</v>
@@ -10791,7 +10797,7 @@
         <v>3</v>
       </c>
       <c r="AP48">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ48">
         <v>2.25</v>
@@ -10919,7 +10925,7 @@
         <v>128</v>
       </c>
       <c r="P49" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q49">
         <v>4.33</v>
@@ -11125,7 +11131,7 @@
         <v>129</v>
       </c>
       <c r="P50" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q50">
         <v>2.65</v>
@@ -11331,7 +11337,7 @@
         <v>130</v>
       </c>
       <c r="P51" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q51">
         <v>4.15</v>
@@ -11743,7 +11749,7 @@
         <v>132</v>
       </c>
       <c r="P53" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q53">
         <v>1.8</v>
@@ -11824,7 +11830,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ53">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR53">
         <v>1.5</v>
@@ -11949,7 +11955,7 @@
         <v>104</v>
       </c>
       <c r="P54" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q54">
         <v>1.71</v>
@@ -12027,7 +12033,7 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ54">
         <v>0.83</v>
@@ -12155,7 +12161,7 @@
         <v>133</v>
       </c>
       <c r="P55" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q55">
         <v>1.45</v>
@@ -12567,7 +12573,7 @@
         <v>135</v>
       </c>
       <c r="P57" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q57">
         <v>2.88</v>
@@ -13057,7 +13063,7 @@
         <v>0.5</v>
       </c>
       <c r="AP59">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ59">
         <v>0.5</v>
@@ -13803,7 +13809,7 @@
         <v>140</v>
       </c>
       <c r="P63" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q63">
         <v>2.88</v>
@@ -14215,7 +14221,7 @@
         <v>142</v>
       </c>
       <c r="P65" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q65">
         <v>4.5</v>
@@ -14421,7 +14427,7 @@
         <v>143</v>
       </c>
       <c r="P66" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q66">
         <v>5.2</v>
@@ -14627,7 +14633,7 @@
         <v>144</v>
       </c>
       <c r="P67" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q67">
         <v>3.22</v>
@@ -14833,7 +14839,7 @@
         <v>88</v>
       </c>
       <c r="P68" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q68">
         <v>3.24</v>
@@ -14914,7 +14920,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ68">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR68">
         <v>2.12</v>
@@ -15039,7 +15045,7 @@
         <v>145</v>
       </c>
       <c r="P69" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q69">
         <v>3.18</v>
@@ -15245,7 +15251,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q70">
         <v>3.22</v>
@@ -15326,7 +15332,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ70">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR70">
         <v>1.3</v>
@@ -15451,7 +15457,7 @@
         <v>146</v>
       </c>
       <c r="P71" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q71">
         <v>2.1</v>
@@ -15657,7 +15663,7 @@
         <v>147</v>
       </c>
       <c r="P72" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q72">
         <v>2.75</v>
@@ -16069,7 +16075,7 @@
         <v>148</v>
       </c>
       <c r="P74" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q74">
         <v>2.5</v>
@@ -16275,7 +16281,7 @@
         <v>149</v>
       </c>
       <c r="P75" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q75">
         <v>2.2</v>
@@ -16481,7 +16487,7 @@
         <v>150</v>
       </c>
       <c r="P76" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q76">
         <v>1.57</v>
@@ -16687,7 +16693,7 @@
         <v>151</v>
       </c>
       <c r="P77" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q77">
         <v>2.63</v>
@@ -16843,6 +16849,418 @@
         <v>2.52</v>
       </c>
       <c r="BP77">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="78" spans="1:68">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>7825270</v>
+      </c>
+      <c r="C78" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45779.33333333334</v>
+      </c>
+      <c r="F78">
+        <v>10</v>
+      </c>
+      <c r="G78" t="s">
+        <v>79</v>
+      </c>
+      <c r="H78" t="s">
+        <v>78</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>3</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="N78">
+        <v>4</v>
+      </c>
+      <c r="O78" t="s">
+        <v>152</v>
+      </c>
+      <c r="P78" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q78">
+        <v>2.5</v>
+      </c>
+      <c r="R78">
+        <v>2.4</v>
+      </c>
+      <c r="S78">
+        <v>3.75</v>
+      </c>
+      <c r="T78">
+        <v>1.29</v>
+      </c>
+      <c r="U78">
+        <v>3.5</v>
+      </c>
+      <c r="V78">
+        <v>2.25</v>
+      </c>
+      <c r="W78">
+        <v>1.57</v>
+      </c>
+      <c r="X78">
+        <v>5.5</v>
+      </c>
+      <c r="Y78">
+        <v>1.14</v>
+      </c>
+      <c r="Z78">
+        <v>1.64</v>
+      </c>
+      <c r="AA78">
+        <v>4.1</v>
+      </c>
+      <c r="AB78">
+        <v>4.1</v>
+      </c>
+      <c r="AC78">
+        <v>1.04</v>
+      </c>
+      <c r="AD78">
+        <v>9.5</v>
+      </c>
+      <c r="AE78">
+        <v>1.2</v>
+      </c>
+      <c r="AF78">
+        <v>4.33</v>
+      </c>
+      <c r="AG78">
+        <v>1.57</v>
+      </c>
+      <c r="AH78">
+        <v>2.15</v>
+      </c>
+      <c r="AI78">
+        <v>1.53</v>
+      </c>
+      <c r="AJ78">
+        <v>2.38</v>
+      </c>
+      <c r="AK78">
+        <v>1.28</v>
+      </c>
+      <c r="AL78">
+        <v>1.22</v>
+      </c>
+      <c r="AM78">
+        <v>1.8</v>
+      </c>
+      <c r="AN78">
+        <v>1.6</v>
+      </c>
+      <c r="AO78">
+        <v>0.75</v>
+      </c>
+      <c r="AP78">
+        <v>1.83</v>
+      </c>
+      <c r="AQ78">
+        <v>0.6</v>
+      </c>
+      <c r="AR78">
+        <v>1.12</v>
+      </c>
+      <c r="AS78">
+        <v>1.26</v>
+      </c>
+      <c r="AT78">
+        <v>2.38</v>
+      </c>
+      <c r="AU78">
+        <v>6</v>
+      </c>
+      <c r="AV78">
+        <v>5</v>
+      </c>
+      <c r="AW78">
+        <v>6</v>
+      </c>
+      <c r="AX78">
+        <v>6</v>
+      </c>
+      <c r="AY78">
+        <v>12</v>
+      </c>
+      <c r="AZ78">
+        <v>11</v>
+      </c>
+      <c r="BA78">
+        <v>4</v>
+      </c>
+      <c r="BB78">
+        <v>11</v>
+      </c>
+      <c r="BC78">
+        <v>15</v>
+      </c>
+      <c r="BD78">
+        <v>1.95</v>
+      </c>
+      <c r="BE78">
+        <v>8.1</v>
+      </c>
+      <c r="BF78">
+        <v>2.11</v>
+      </c>
+      <c r="BG78">
+        <v>1.2</v>
+      </c>
+      <c r="BH78">
+        <v>3.9</v>
+      </c>
+      <c r="BI78">
+        <v>1.39</v>
+      </c>
+      <c r="BJ78">
+        <v>2.78</v>
+      </c>
+      <c r="BK78">
+        <v>1.64</v>
+      </c>
+      <c r="BL78">
+        <v>2.17</v>
+      </c>
+      <c r="BM78">
+        <v>2.05</v>
+      </c>
+      <c r="BN78">
+        <v>1.7</v>
+      </c>
+      <c r="BO78">
+        <v>2.52</v>
+      </c>
+      <c r="BP78">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="79" spans="1:68">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>7825271</v>
+      </c>
+      <c r="C79" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45779.35763888889</v>
+      </c>
+      <c r="F79">
+        <v>10</v>
+      </c>
+      <c r="G79" t="s">
+        <v>70</v>
+      </c>
+      <c r="H79" t="s">
+        <v>71</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="O79" t="s">
+        <v>153</v>
+      </c>
+      <c r="P79" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q79">
+        <v>2.88</v>
+      </c>
+      <c r="R79">
+        <v>2.3</v>
+      </c>
+      <c r="S79">
+        <v>3.5</v>
+      </c>
+      <c r="T79">
+        <v>1.33</v>
+      </c>
+      <c r="U79">
+        <v>3.25</v>
+      </c>
+      <c r="V79">
+        <v>2.5</v>
+      </c>
+      <c r="W79">
+        <v>1.5</v>
+      </c>
+      <c r="X79">
+        <v>6.5</v>
+      </c>
+      <c r="Y79">
+        <v>1.11</v>
+      </c>
+      <c r="Z79">
+        <v>2.16</v>
+      </c>
+      <c r="AA79">
+        <v>3.58</v>
+      </c>
+      <c r="AB79">
+        <v>2.79</v>
+      </c>
+      <c r="AC79">
+        <v>1.04</v>
+      </c>
+      <c r="AD79">
+        <v>9</v>
+      </c>
+      <c r="AE79">
+        <v>1.22</v>
+      </c>
+      <c r="AF79">
+        <v>3.85</v>
+      </c>
+      <c r="AG79">
+        <v>1.7</v>
+      </c>
+      <c r="AH79">
+        <v>2</v>
+      </c>
+      <c r="AI79">
+        <v>1.62</v>
+      </c>
+      <c r="AJ79">
+        <v>2.2</v>
+      </c>
+      <c r="AK79">
+        <v>1.36</v>
+      </c>
+      <c r="AL79">
+        <v>1.25</v>
+      </c>
+      <c r="AM79">
+        <v>1.65</v>
+      </c>
+      <c r="AN79">
+        <v>1.75</v>
+      </c>
+      <c r="AO79">
+        <v>2.33</v>
+      </c>
+      <c r="AP79">
+        <v>2</v>
+      </c>
+      <c r="AQ79">
+        <v>1.75</v>
+      </c>
+      <c r="AR79">
+        <v>2.28</v>
+      </c>
+      <c r="AS79">
+        <v>1.71</v>
+      </c>
+      <c r="AT79">
+        <v>3.99</v>
+      </c>
+      <c r="AU79">
+        <v>3</v>
+      </c>
+      <c r="AV79">
+        <v>4</v>
+      </c>
+      <c r="AW79">
+        <v>10</v>
+      </c>
+      <c r="AX79">
+        <v>6</v>
+      </c>
+      <c r="AY79">
+        <v>17</v>
+      </c>
+      <c r="AZ79">
+        <v>10</v>
+      </c>
+      <c r="BA79">
+        <v>6</v>
+      </c>
+      <c r="BB79">
+        <v>7</v>
+      </c>
+      <c r="BC79">
+        <v>13</v>
+      </c>
+      <c r="BD79">
+        <v>1.75</v>
+      </c>
+      <c r="BE79">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF79">
+        <v>2.39</v>
+      </c>
+      <c r="BG79">
+        <v>1.2</v>
+      </c>
+      <c r="BH79">
+        <v>3.9</v>
+      </c>
+      <c r="BI79">
+        <v>1.39</v>
+      </c>
+      <c r="BJ79">
+        <v>2.78</v>
+      </c>
+      <c r="BK79">
+        <v>1.64</v>
+      </c>
+      <c r="BL79">
+        <v>2.17</v>
+      </c>
+      <c r="BM79">
+        <v>2</v>
+      </c>
+      <c r="BN79">
+        <v>1.73</v>
+      </c>
+      <c r="BO79">
+        <v>2.52</v>
+      </c>
+      <c r="BP79">
         <v>1.46</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/China Chinese Super League_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/China Chinese Super League_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="212">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -478,6 +478,18 @@
     <t>['27']</t>
   </si>
   <si>
+    <t>['8', '45+8', '75']</t>
+  </si>
+  <si>
+    <t>['53', '60', '78']</t>
+  </si>
+  <si>
+    <t>['32', '55']</t>
+  </si>
+  <si>
+    <t>['57', '68', '74']</t>
+  </si>
+  <si>
     <t>['53', '79']</t>
   </si>
   <si>
@@ -623,6 +635,21 @@
   </si>
   <si>
     <t>['42', '55']</t>
+  </si>
+  <si>
+    <t>['19', '22']</t>
+  </si>
+  <si>
+    <t>['28', '38', '87', '90']</t>
+  </si>
+  <si>
+    <t>['12', '45']</t>
+  </si>
+  <si>
+    <t>['11', '45+1']</t>
+  </si>
+  <si>
+    <t>['60', '65', '90+5']</t>
   </si>
 </sst>
 </file>
@@ -984,7 +1011,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP79"/>
+  <dimension ref="A1:BP87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1321,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ2">
         <v>0.67</v>
@@ -1530,7 +1557,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ3">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1655,7 +1682,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1733,10 +1760,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ4">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1861,7 +1888,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q5">
         <v>2.85</v>
@@ -1939,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
         <v>1.33</v>
@@ -2067,7 +2094,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q6">
         <v>2.2</v>
@@ -2479,7 +2506,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q8">
         <v>2.04</v>
@@ -2685,7 +2712,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q9">
         <v>1.5</v>
@@ -2766,7 +2793,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ9">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2891,7 +2918,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q10">
         <v>2.1</v>
@@ -3178,7 +3205,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ11">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR11">
         <v>1.91</v>
@@ -3303,7 +3330,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3381,10 +3408,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ12">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR12">
         <v>1.44</v>
@@ -3509,7 +3536,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -3587,7 +3614,7 @@
         <v>1</v>
       </c>
       <c r="AP13">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ13">
         <v>0.8</v>
@@ -3715,7 +3742,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q14">
         <v>2.13</v>
@@ -3796,7 +3823,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ14">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR14">
         <v>2.29</v>
@@ -3921,7 +3948,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q15">
         <v>3.2</v>
@@ -3999,10 +4026,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ15">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR15">
         <v>1.22</v>
@@ -4127,7 +4154,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4205,10 +4232,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR16">
         <v>2.91</v>
@@ -4411,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ17">
         <v>0.67</v>
@@ -4539,7 +4566,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4617,10 +4644,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ18">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR18">
         <v>0.8</v>
@@ -4745,7 +4772,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q19">
         <v>3.75</v>
@@ -4823,10 +4850,10 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ19">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -4951,7 +4978,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q20">
         <v>3.25</v>
@@ -5235,10 +5262,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ21">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5569,7 +5596,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5647,10 +5674,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ23">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -5775,7 +5802,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -5853,10 +5880,10 @@
         <v>0</v>
       </c>
       <c r="AP24">
+        <v>1.5</v>
+      </c>
+      <c r="AQ24">
         <v>1.8</v>
-      </c>
-      <c r="AQ24">
-        <v>2.25</v>
       </c>
       <c r="AR24">
         <v>1.93</v>
@@ -5981,7 +6008,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6187,7 +6214,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6265,7 +6292,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ26">
         <v>1.33</v>
@@ -6474,7 +6501,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ27">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR27">
         <v>1.37</v>
@@ -6805,7 +6832,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -7089,7 +7116,7 @@
         <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ30">
         <v>0.5</v>
@@ -7217,7 +7244,7 @@
         <v>112</v>
       </c>
       <c r="P31" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q31">
         <v>3.42</v>
@@ -7298,7 +7325,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ31">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR31">
         <v>3.11</v>
@@ -7423,7 +7450,7 @@
         <v>88</v>
       </c>
       <c r="P32" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q32">
         <v>2.9</v>
@@ -7629,7 +7656,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q33">
         <v>1.56</v>
@@ -7835,7 +7862,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q34">
         <v>3.25</v>
@@ -8041,7 +8068,7 @@
         <v>115</v>
       </c>
       <c r="P35" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q35">
         <v>4.25</v>
@@ -8122,7 +8149,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ35">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR35">
         <v>1.08</v>
@@ -8247,7 +8274,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q36">
         <v>3.15</v>
@@ -8325,10 +8352,10 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ36">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR36">
         <v>1.07</v>
@@ -8453,7 +8480,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q37">
         <v>2.75</v>
@@ -8531,7 +8558,7 @@
         <v>0.33</v>
       </c>
       <c r="AP37">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ37">
         <v>0.67</v>
@@ -8737,7 +8764,7 @@
         <v>0.67</v>
       </c>
       <c r="AP38">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ38">
         <v>0.5</v>
@@ -8865,7 +8892,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -8946,7 +8973,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ39">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR39">
         <v>2.38</v>
@@ -9152,7 +9179,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ40">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR40">
         <v>0.75</v>
@@ -9355,7 +9382,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ41">
         <v>0.2</v>
@@ -9564,7 +9591,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ42">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR42">
         <v>2.03</v>
@@ -9689,7 +9716,7 @@
         <v>123</v>
       </c>
       <c r="P43" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9767,10 +9794,10 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ43">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR43">
         <v>1.8</v>
@@ -9895,7 +9922,7 @@
         <v>124</v>
       </c>
       <c r="P44" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q44">
         <v>3.2</v>
@@ -9973,10 +10000,10 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ44">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR44">
         <v>2.26</v>
@@ -10101,7 +10128,7 @@
         <v>88</v>
       </c>
       <c r="P45" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q45">
         <v>7.5</v>
@@ -10179,7 +10206,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ45">
         <v>2.6</v>
@@ -10307,7 +10334,7 @@
         <v>125</v>
       </c>
       <c r="P46" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q46">
         <v>3.1</v>
@@ -10385,7 +10412,7 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ46">
         <v>0.83</v>
@@ -10513,7 +10540,7 @@
         <v>126</v>
       </c>
       <c r="P47" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q47">
         <v>1.95</v>
@@ -10594,7 +10621,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ47">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR47">
         <v>2.72</v>
@@ -10719,7 +10746,7 @@
         <v>127</v>
       </c>
       <c r="P48" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q48">
         <v>3.7</v>
@@ -10797,10 +10824,10 @@
         <v>3</v>
       </c>
       <c r="AP48">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ48">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR48">
         <v>1.15</v>
@@ -10925,7 +10952,7 @@
         <v>128</v>
       </c>
       <c r="P49" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q49">
         <v>4.33</v>
@@ -11003,10 +11030,10 @@
         <v>1.67</v>
       </c>
       <c r="AP49">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ49">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR49">
         <v>1.83</v>
@@ -11131,7 +11158,7 @@
         <v>129</v>
       </c>
       <c r="P50" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q50">
         <v>2.65</v>
@@ -11212,7 +11239,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ50">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR50">
         <v>1.81</v>
@@ -11337,7 +11364,7 @@
         <v>130</v>
       </c>
       <c r="P51" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q51">
         <v>4.15</v>
@@ -11418,7 +11445,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ51">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR51">
         <v>2.87</v>
@@ -11621,7 +11648,7 @@
         <v>1.33</v>
       </c>
       <c r="AP52">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ52">
         <v>0.8</v>
@@ -11749,7 +11776,7 @@
         <v>132</v>
       </c>
       <c r="P53" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q53">
         <v>1.8</v>
@@ -11955,7 +11982,7 @@
         <v>104</v>
       </c>
       <c r="P54" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q54">
         <v>1.71</v>
@@ -12033,7 +12060,7 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ54">
         <v>0.83</v>
@@ -12161,7 +12188,7 @@
         <v>133</v>
       </c>
       <c r="P55" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q55">
         <v>1.45</v>
@@ -12573,7 +12600,7 @@
         <v>135</v>
       </c>
       <c r="P57" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q57">
         <v>2.88</v>
@@ -12654,7 +12681,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ57">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR57">
         <v>1.81</v>
@@ -13063,7 +13090,7 @@
         <v>0.5</v>
       </c>
       <c r="AP59">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ59">
         <v>0.5</v>
@@ -13269,7 +13296,7 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ60">
         <v>0.2</v>
@@ -13475,10 +13502,10 @@
         <v>0.75</v>
       </c>
       <c r="AP61">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ61">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR61">
         <v>2.04</v>
@@ -13684,7 +13711,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ62">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR62">
         <v>2.42</v>
@@ -13809,7 +13836,7 @@
         <v>140</v>
       </c>
       <c r="P63" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q63">
         <v>2.88</v>
@@ -14221,7 +14248,7 @@
         <v>142</v>
       </c>
       <c r="P65" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q65">
         <v>4.5</v>
@@ -14299,10 +14326,10 @@
         <v>2</v>
       </c>
       <c r="AP65">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ65">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR65">
         <v>1.5</v>
@@ -14427,7 +14454,7 @@
         <v>143</v>
       </c>
       <c r="P66" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q66">
         <v>5.2</v>
@@ -14633,7 +14660,7 @@
         <v>144</v>
       </c>
       <c r="P67" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q67">
         <v>3.22</v>
@@ -14839,7 +14866,7 @@
         <v>88</v>
       </c>
       <c r="P68" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q68">
         <v>3.24</v>
@@ -14920,7 +14947,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ68">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR68">
         <v>2.12</v>
@@ -15045,7 +15072,7 @@
         <v>145</v>
       </c>
       <c r="P69" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q69">
         <v>3.18</v>
@@ -15123,10 +15150,10 @@
         <v>1.67</v>
       </c>
       <c r="AP69">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ69">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR69">
         <v>2.08</v>
@@ -15251,7 +15278,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q70">
         <v>3.22</v>
@@ -15329,7 +15356,7 @@
         <v>0.67</v>
       </c>
       <c r="AP70">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AQ70">
         <v>0.6</v>
@@ -15457,7 +15484,7 @@
         <v>146</v>
       </c>
       <c r="P71" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q71">
         <v>2.1</v>
@@ -15663,7 +15690,7 @@
         <v>147</v>
       </c>
       <c r="P72" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q72">
         <v>2.75</v>
@@ -15741,7 +15768,7 @@
         <v>1</v>
       </c>
       <c r="AP72">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ72">
         <v>0.83</v>
@@ -15950,7 +15977,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ73">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR73">
         <v>1.59</v>
@@ -16075,7 +16102,7 @@
         <v>148</v>
       </c>
       <c r="P74" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q74">
         <v>2.5</v>
@@ -16153,7 +16180,7 @@
         <v>0.2</v>
       </c>
       <c r="AP74">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ74">
         <v>0.67</v>
@@ -16281,7 +16308,7 @@
         <v>149</v>
       </c>
       <c r="P75" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q75">
         <v>2.2</v>
@@ -16362,7 +16389,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ75">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR75">
         <v>1.47</v>
@@ -16487,7 +16514,7 @@
         <v>150</v>
       </c>
       <c r="P76" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q76">
         <v>1.57</v>
@@ -16693,7 +16720,7 @@
         <v>151</v>
       </c>
       <c r="P77" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q77">
         <v>2.63</v>
@@ -16774,7 +16801,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ77">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR77">
         <v>2</v>
@@ -16977,7 +17004,7 @@
         <v>0.75</v>
       </c>
       <c r="AP78">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ78">
         <v>0.6</v>
@@ -17183,10 +17210,10 @@
         <v>2.33</v>
       </c>
       <c r="AP79">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ79">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR79">
         <v>2.28</v>
@@ -17262,6 +17289,1654 @@
       </c>
       <c r="BP79">
         <v>1.46</v>
+      </c>
+    </row>
+    <row r="80" spans="1:68">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>7825272</v>
+      </c>
+      <c r="C80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45782.1875</v>
+      </c>
+      <c r="F80">
+        <v>11</v>
+      </c>
+      <c r="G80" t="s">
+        <v>82</v>
+      </c>
+      <c r="H80" t="s">
+        <v>84</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>2</v>
+      </c>
+      <c r="K80">
+        <v>2</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>2</v>
+      </c>
+      <c r="N80">
+        <v>2</v>
+      </c>
+      <c r="O80" t="s">
+        <v>88</v>
+      </c>
+      <c r="P80" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q80">
+        <v>3.6</v>
+      </c>
+      <c r="R80">
+        <v>2.38</v>
+      </c>
+      <c r="S80">
+        <v>2.63</v>
+      </c>
+      <c r="T80">
+        <v>1.29</v>
+      </c>
+      <c r="U80">
+        <v>3.5</v>
+      </c>
+      <c r="V80">
+        <v>2.38</v>
+      </c>
+      <c r="W80">
+        <v>1.53</v>
+      </c>
+      <c r="X80">
+        <v>5.5</v>
+      </c>
+      <c r="Y80">
+        <v>1.14</v>
+      </c>
+      <c r="Z80">
+        <v>3.39</v>
+      </c>
+      <c r="AA80">
+        <v>3.71</v>
+      </c>
+      <c r="AB80">
+        <v>1.87</v>
+      </c>
+      <c r="AC80">
+        <v>0</v>
+      </c>
+      <c r="AD80">
+        <v>0</v>
+      </c>
+      <c r="AE80">
+        <v>0</v>
+      </c>
+      <c r="AF80">
+        <v>0</v>
+      </c>
+      <c r="AG80">
+        <v>1.67</v>
+      </c>
+      <c r="AH80">
+        <v>2</v>
+      </c>
+      <c r="AI80">
+        <v>1.57</v>
+      </c>
+      <c r="AJ80">
+        <v>2.25</v>
+      </c>
+      <c r="AK80">
+        <v>0</v>
+      </c>
+      <c r="AL80">
+        <v>0</v>
+      </c>
+      <c r="AM80">
+        <v>0</v>
+      </c>
+      <c r="AN80">
+        <v>2.5</v>
+      </c>
+      <c r="AO80">
+        <v>1.8</v>
+      </c>
+      <c r="AP80">
+        <v>2</v>
+      </c>
+      <c r="AQ80">
+        <v>2</v>
+      </c>
+      <c r="AR80">
+        <v>2.04</v>
+      </c>
+      <c r="AS80">
+        <v>1.5</v>
+      </c>
+      <c r="AT80">
+        <v>3.54</v>
+      </c>
+      <c r="AU80">
+        <v>2</v>
+      </c>
+      <c r="AV80">
+        <v>6</v>
+      </c>
+      <c r="AW80">
+        <v>9</v>
+      </c>
+      <c r="AX80">
+        <v>6</v>
+      </c>
+      <c r="AY80">
+        <v>13</v>
+      </c>
+      <c r="AZ80">
+        <v>13</v>
+      </c>
+      <c r="BA80">
+        <v>7</v>
+      </c>
+      <c r="BB80">
+        <v>1</v>
+      </c>
+      <c r="BC80">
+        <v>8</v>
+      </c>
+      <c r="BD80">
+        <v>0</v>
+      </c>
+      <c r="BE80">
+        <v>0</v>
+      </c>
+      <c r="BF80">
+        <v>0</v>
+      </c>
+      <c r="BG80">
+        <v>0</v>
+      </c>
+      <c r="BH80">
+        <v>0</v>
+      </c>
+      <c r="BI80">
+        <v>0</v>
+      </c>
+      <c r="BJ80">
+        <v>0</v>
+      </c>
+      <c r="BK80">
+        <v>0</v>
+      </c>
+      <c r="BL80">
+        <v>0</v>
+      </c>
+      <c r="BM80">
+        <v>0</v>
+      </c>
+      <c r="BN80">
+        <v>0</v>
+      </c>
+      <c r="BO80">
+        <v>0</v>
+      </c>
+      <c r="BP80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:68">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>7825273</v>
+      </c>
+      <c r="C81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45782.33333333334</v>
+      </c>
+      <c r="F81">
+        <v>11</v>
+      </c>
+      <c r="G81" t="s">
+        <v>83</v>
+      </c>
+      <c r="H81" t="s">
+        <v>76</v>
+      </c>
+      <c r="I81">
+        <v>2</v>
+      </c>
+      <c r="J81">
+        <v>2</v>
+      </c>
+      <c r="K81">
+        <v>4</v>
+      </c>
+      <c r="L81">
+        <v>3</v>
+      </c>
+      <c r="M81">
+        <v>4</v>
+      </c>
+      <c r="N81">
+        <v>7</v>
+      </c>
+      <c r="O81" t="s">
+        <v>154</v>
+      </c>
+      <c r="P81" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q81">
+        <v>2.6</v>
+      </c>
+      <c r="R81">
+        <v>2.3</v>
+      </c>
+      <c r="S81">
+        <v>3.75</v>
+      </c>
+      <c r="T81">
+        <v>1.33</v>
+      </c>
+      <c r="U81">
+        <v>3.25</v>
+      </c>
+      <c r="V81">
+        <v>2.5</v>
+      </c>
+      <c r="W81">
+        <v>1.5</v>
+      </c>
+      <c r="X81">
+        <v>6.5</v>
+      </c>
+      <c r="Y81">
+        <v>1.11</v>
+      </c>
+      <c r="Z81">
+        <v>2.05</v>
+      </c>
+      <c r="AA81">
+        <v>3.45</v>
+      </c>
+      <c r="AB81">
+        <v>3.46</v>
+      </c>
+      <c r="AC81">
+        <v>0</v>
+      </c>
+      <c r="AD81">
+        <v>0</v>
+      </c>
+      <c r="AE81">
+        <v>0</v>
+      </c>
+      <c r="AF81">
+        <v>0</v>
+      </c>
+      <c r="AG81">
+        <v>1.77</v>
+      </c>
+      <c r="AH81">
+        <v>1.98</v>
+      </c>
+      <c r="AI81">
+        <v>1.62</v>
+      </c>
+      <c r="AJ81">
+        <v>2.2</v>
+      </c>
+      <c r="AK81">
+        <v>0</v>
+      </c>
+      <c r="AL81">
+        <v>0</v>
+      </c>
+      <c r="AM81">
+        <v>0</v>
+      </c>
+      <c r="AN81">
+        <v>0.75</v>
+      </c>
+      <c r="AO81">
+        <v>1</v>
+      </c>
+      <c r="AP81">
+        <v>0.6</v>
+      </c>
+      <c r="AQ81">
+        <v>1.33</v>
+      </c>
+      <c r="AR81">
+        <v>1.41</v>
+      </c>
+      <c r="AS81">
+        <v>1.14</v>
+      </c>
+      <c r="AT81">
+        <v>2.55</v>
+      </c>
+      <c r="AU81">
+        <v>5</v>
+      </c>
+      <c r="AV81">
+        <v>7</v>
+      </c>
+      <c r="AW81">
+        <v>12</v>
+      </c>
+      <c r="AX81">
+        <v>5</v>
+      </c>
+      <c r="AY81">
+        <v>22</v>
+      </c>
+      <c r="AZ81">
+        <v>12</v>
+      </c>
+      <c r="BA81">
+        <v>6</v>
+      </c>
+      <c r="BB81">
+        <v>3</v>
+      </c>
+      <c r="BC81">
+        <v>9</v>
+      </c>
+      <c r="BD81">
+        <v>0</v>
+      </c>
+      <c r="BE81">
+        <v>0</v>
+      </c>
+      <c r="BF81">
+        <v>0</v>
+      </c>
+      <c r="BG81">
+        <v>0</v>
+      </c>
+      <c r="BH81">
+        <v>0</v>
+      </c>
+      <c r="BI81">
+        <v>0</v>
+      </c>
+      <c r="BJ81">
+        <v>0</v>
+      </c>
+      <c r="BK81">
+        <v>0</v>
+      </c>
+      <c r="BL81">
+        <v>0</v>
+      </c>
+      <c r="BM81">
+        <v>0</v>
+      </c>
+      <c r="BN81">
+        <v>0</v>
+      </c>
+      <c r="BO81">
+        <v>0</v>
+      </c>
+      <c r="BP81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:68">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>7825274</v>
+      </c>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45782.33333333334</v>
+      </c>
+      <c r="F82">
+        <v>11</v>
+      </c>
+      <c r="G82" t="s">
+        <v>80</v>
+      </c>
+      <c r="H82" t="s">
+        <v>77</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>2</v>
+      </c>
+      <c r="K82">
+        <v>2</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>2</v>
+      </c>
+      <c r="N82">
+        <v>2</v>
+      </c>
+      <c r="O82" t="s">
+        <v>88</v>
+      </c>
+      <c r="P82" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q82">
+        <v>4.5</v>
+      </c>
+      <c r="R82">
+        <v>2.6</v>
+      </c>
+      <c r="S82">
+        <v>2.1</v>
+      </c>
+      <c r="T82">
+        <v>1.22</v>
+      </c>
+      <c r="U82">
+        <v>4</v>
+      </c>
+      <c r="V82">
+        <v>2.1</v>
+      </c>
+      <c r="W82">
+        <v>1.67</v>
+      </c>
+      <c r="X82">
+        <v>4.5</v>
+      </c>
+      <c r="Y82">
+        <v>1.18</v>
+      </c>
+      <c r="Z82">
+        <v>3.97</v>
+      </c>
+      <c r="AA82">
+        <v>4.1</v>
+      </c>
+      <c r="AB82">
+        <v>1.66</v>
+      </c>
+      <c r="AC82">
+        <v>0</v>
+      </c>
+      <c r="AD82">
+        <v>0</v>
+      </c>
+      <c r="AE82">
+        <v>0</v>
+      </c>
+      <c r="AF82">
+        <v>0</v>
+      </c>
+      <c r="AG82">
+        <v>1.38</v>
+      </c>
+      <c r="AH82">
+        <v>2.81</v>
+      </c>
+      <c r="AI82">
+        <v>1.5</v>
+      </c>
+      <c r="AJ82">
+        <v>2.5</v>
+      </c>
+      <c r="AK82">
+        <v>0</v>
+      </c>
+      <c r="AL82">
+        <v>0</v>
+      </c>
+      <c r="AM82">
+        <v>0</v>
+      </c>
+      <c r="AN82">
+        <v>1.75</v>
+      </c>
+      <c r="AO82">
+        <v>2.33</v>
+      </c>
+      <c r="AP82">
+        <v>1.4</v>
+      </c>
+      <c r="AQ82">
+        <v>2.5</v>
+      </c>
+      <c r="AR82">
+        <v>2.09</v>
+      </c>
+      <c r="AS82">
+        <v>1.57</v>
+      </c>
+      <c r="AT82">
+        <v>3.66</v>
+      </c>
+      <c r="AU82">
+        <v>7</v>
+      </c>
+      <c r="AV82">
+        <v>7</v>
+      </c>
+      <c r="AW82">
+        <v>11</v>
+      </c>
+      <c r="AX82">
+        <v>9</v>
+      </c>
+      <c r="AY82">
+        <v>21</v>
+      </c>
+      <c r="AZ82">
+        <v>20</v>
+      </c>
+      <c r="BA82">
+        <v>7</v>
+      </c>
+      <c r="BB82">
+        <v>3</v>
+      </c>
+      <c r="BC82">
+        <v>10</v>
+      </c>
+      <c r="BD82">
+        <v>0</v>
+      </c>
+      <c r="BE82">
+        <v>0</v>
+      </c>
+      <c r="BF82">
+        <v>0</v>
+      </c>
+      <c r="BG82">
+        <v>0</v>
+      </c>
+      <c r="BH82">
+        <v>0</v>
+      </c>
+      <c r="BI82">
+        <v>0</v>
+      </c>
+      <c r="BJ82">
+        <v>0</v>
+      </c>
+      <c r="BK82">
+        <v>0</v>
+      </c>
+      <c r="BL82">
+        <v>0</v>
+      </c>
+      <c r="BM82">
+        <v>0</v>
+      </c>
+      <c r="BN82">
+        <v>0</v>
+      </c>
+      <c r="BO82">
+        <v>0</v>
+      </c>
+      <c r="BP82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:68">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>7825275</v>
+      </c>
+      <c r="C83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45782.35763888889</v>
+      </c>
+      <c r="F83">
+        <v>11</v>
+      </c>
+      <c r="G83" t="s">
+        <v>73</v>
+      </c>
+      <c r="H83" t="s">
+        <v>85</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>3</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>3</v>
+      </c>
+      <c r="O83" t="s">
+        <v>155</v>
+      </c>
+      <c r="P83" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q83">
+        <v>3.1</v>
+      </c>
+      <c r="R83">
+        <v>2.38</v>
+      </c>
+      <c r="S83">
+        <v>3</v>
+      </c>
+      <c r="T83">
+        <v>1.3</v>
+      </c>
+      <c r="U83">
+        <v>3.4</v>
+      </c>
+      <c r="V83">
+        <v>2.38</v>
+      </c>
+      <c r="W83">
+        <v>1.53</v>
+      </c>
+      <c r="X83">
+        <v>6</v>
+      </c>
+      <c r="Y83">
+        <v>1.13</v>
+      </c>
+      <c r="Z83">
+        <v>2.4</v>
+      </c>
+      <c r="AA83">
+        <v>3.58</v>
+      </c>
+      <c r="AB83">
+        <v>2.48</v>
+      </c>
+      <c r="AC83">
+        <v>0</v>
+      </c>
+      <c r="AD83">
+        <v>0</v>
+      </c>
+      <c r="AE83">
+        <v>0</v>
+      </c>
+      <c r="AF83">
+        <v>0</v>
+      </c>
+      <c r="AG83">
+        <v>1.67</v>
+      </c>
+      <c r="AH83">
+        <v>2</v>
+      </c>
+      <c r="AI83">
+        <v>1.53</v>
+      </c>
+      <c r="AJ83">
+        <v>2.38</v>
+      </c>
+      <c r="AK83">
+        <v>0</v>
+      </c>
+      <c r="AL83">
+        <v>0</v>
+      </c>
+      <c r="AM83">
+        <v>0</v>
+      </c>
+      <c r="AN83">
+        <v>0.6</v>
+      </c>
+      <c r="AO83">
+        <v>0.5</v>
+      </c>
+      <c r="AP83">
+        <v>1</v>
+      </c>
+      <c r="AQ83">
+        <v>0.43</v>
+      </c>
+      <c r="AR83">
+        <v>1.41</v>
+      </c>
+      <c r="AS83">
+        <v>1.25</v>
+      </c>
+      <c r="AT83">
+        <v>2.66</v>
+      </c>
+      <c r="AU83">
+        <v>7</v>
+      </c>
+      <c r="AV83">
+        <v>4</v>
+      </c>
+      <c r="AW83">
+        <v>10</v>
+      </c>
+      <c r="AX83">
+        <v>10</v>
+      </c>
+      <c r="AY83">
+        <v>22</v>
+      </c>
+      <c r="AZ83">
+        <v>16</v>
+      </c>
+      <c r="BA83">
+        <v>6</v>
+      </c>
+      <c r="BB83">
+        <v>8</v>
+      </c>
+      <c r="BC83">
+        <v>14</v>
+      </c>
+      <c r="BD83">
+        <v>0</v>
+      </c>
+      <c r="BE83">
+        <v>0</v>
+      </c>
+      <c r="BF83">
+        <v>0</v>
+      </c>
+      <c r="BG83">
+        <v>0</v>
+      </c>
+      <c r="BH83">
+        <v>0</v>
+      </c>
+      <c r="BI83">
+        <v>0</v>
+      </c>
+      <c r="BJ83">
+        <v>0</v>
+      </c>
+      <c r="BK83">
+        <v>0</v>
+      </c>
+      <c r="BL83">
+        <v>0</v>
+      </c>
+      <c r="BM83">
+        <v>0</v>
+      </c>
+      <c r="BN83">
+        <v>0</v>
+      </c>
+      <c r="BO83">
+        <v>0</v>
+      </c>
+      <c r="BP83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:68">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>7825276</v>
+      </c>
+      <c r="C84" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84" t="s">
+        <v>69</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45782.35763888889</v>
+      </c>
+      <c r="F84">
+        <v>11</v>
+      </c>
+      <c r="G84" t="s">
+        <v>70</v>
+      </c>
+      <c r="H84" t="s">
+        <v>74</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>2</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+      <c r="N84">
+        <v>3</v>
+      </c>
+      <c r="O84" t="s">
+        <v>156</v>
+      </c>
+      <c r="P84" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q84">
+        <v>1.95</v>
+      </c>
+      <c r="R84">
+        <v>2.63</v>
+      </c>
+      <c r="S84">
+        <v>5</v>
+      </c>
+      <c r="T84">
+        <v>1.22</v>
+      </c>
+      <c r="U84">
+        <v>4</v>
+      </c>
+      <c r="V84">
+        <v>2</v>
+      </c>
+      <c r="W84">
+        <v>1.73</v>
+      </c>
+      <c r="X84">
+        <v>4.33</v>
+      </c>
+      <c r="Y84">
+        <v>1.2</v>
+      </c>
+      <c r="Z84">
+        <v>1.38</v>
+      </c>
+      <c r="AA84">
+        <v>5.02</v>
+      </c>
+      <c r="AB84">
+        <v>6.49</v>
+      </c>
+      <c r="AC84">
+        <v>0</v>
+      </c>
+      <c r="AD84">
+        <v>0</v>
+      </c>
+      <c r="AE84">
+        <v>0</v>
+      </c>
+      <c r="AF84">
+        <v>0</v>
+      </c>
+      <c r="AG84">
+        <v>1.4</v>
+      </c>
+      <c r="AH84">
+        <v>2.88</v>
+      </c>
+      <c r="AI84">
+        <v>1.53</v>
+      </c>
+      <c r="AJ84">
+        <v>2.38</v>
+      </c>
+      <c r="AK84">
+        <v>0</v>
+      </c>
+      <c r="AL84">
+        <v>0</v>
+      </c>
+      <c r="AM84">
+        <v>0</v>
+      </c>
+      <c r="AN84">
+        <v>2</v>
+      </c>
+      <c r="AO84">
+        <v>0.8</v>
+      </c>
+      <c r="AP84">
+        <v>2.17</v>
+      </c>
+      <c r="AQ84">
+        <v>0.67</v>
+      </c>
+      <c r="AR84">
+        <v>2.13</v>
+      </c>
+      <c r="AS84">
+        <v>1.32</v>
+      </c>
+      <c r="AT84">
+        <v>3.45</v>
+      </c>
+      <c r="AU84">
+        <v>6</v>
+      </c>
+      <c r="AV84">
+        <v>2</v>
+      </c>
+      <c r="AW84">
+        <v>11</v>
+      </c>
+      <c r="AX84">
+        <v>2</v>
+      </c>
+      <c r="AY84">
+        <v>20</v>
+      </c>
+      <c r="AZ84">
+        <v>5</v>
+      </c>
+      <c r="BA84">
+        <v>9</v>
+      </c>
+      <c r="BB84">
+        <v>1</v>
+      </c>
+      <c r="BC84">
+        <v>10</v>
+      </c>
+      <c r="BD84">
+        <v>0</v>
+      </c>
+      <c r="BE84">
+        <v>0</v>
+      </c>
+      <c r="BF84">
+        <v>0</v>
+      </c>
+      <c r="BG84">
+        <v>0</v>
+      </c>
+      <c r="BH84">
+        <v>0</v>
+      </c>
+      <c r="BI84">
+        <v>0</v>
+      </c>
+      <c r="BJ84">
+        <v>0</v>
+      </c>
+      <c r="BK84">
+        <v>0</v>
+      </c>
+      <c r="BL84">
+        <v>0</v>
+      </c>
+      <c r="BM84">
+        <v>0</v>
+      </c>
+      <c r="BN84">
+        <v>0</v>
+      </c>
+      <c r="BO84">
+        <v>0</v>
+      </c>
+      <c r="BP84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:68">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>7825277</v>
+      </c>
+      <c r="C85" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45782.375</v>
+      </c>
+      <c r="F85">
+        <v>11</v>
+      </c>
+      <c r="G85" t="s">
+        <v>72</v>
+      </c>
+      <c r="H85" t="s">
+        <v>75</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>2</v>
+      </c>
+      <c r="K85">
+        <v>2</v>
+      </c>
+      <c r="L85">
+        <v>3</v>
+      </c>
+      <c r="M85">
+        <v>2</v>
+      </c>
+      <c r="N85">
+        <v>5</v>
+      </c>
+      <c r="O85" t="s">
+        <v>157</v>
+      </c>
+      <c r="P85" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q85">
+        <v>4</v>
+      </c>
+      <c r="R85">
+        <v>2.4</v>
+      </c>
+      <c r="S85">
+        <v>2.38</v>
+      </c>
+      <c r="T85">
+        <v>1.29</v>
+      </c>
+      <c r="U85">
+        <v>3.5</v>
+      </c>
+      <c r="V85">
+        <v>2.25</v>
+      </c>
+      <c r="W85">
+        <v>1.57</v>
+      </c>
+      <c r="X85">
+        <v>5.5</v>
+      </c>
+      <c r="Y85">
+        <v>1.14</v>
+      </c>
+      <c r="Z85">
+        <v>3.45</v>
+      </c>
+      <c r="AA85">
+        <v>3.81</v>
+      </c>
+      <c r="AB85">
+        <v>1.83</v>
+      </c>
+      <c r="AC85">
+        <v>0</v>
+      </c>
+      <c r="AD85">
+        <v>0</v>
+      </c>
+      <c r="AE85">
+        <v>0</v>
+      </c>
+      <c r="AF85">
+        <v>0</v>
+      </c>
+      <c r="AG85">
+        <v>1.57</v>
+      </c>
+      <c r="AH85">
+        <v>2.25</v>
+      </c>
+      <c r="AI85">
+        <v>1.53</v>
+      </c>
+      <c r="AJ85">
+        <v>2.38</v>
+      </c>
+      <c r="AK85">
+        <v>0</v>
+      </c>
+      <c r="AL85">
+        <v>0</v>
+      </c>
+      <c r="AM85">
+        <v>0</v>
+      </c>
+      <c r="AN85">
+        <v>1</v>
+      </c>
+      <c r="AO85">
+        <v>2.25</v>
+      </c>
+      <c r="AP85">
+        <v>1.4</v>
+      </c>
+      <c r="AQ85">
+        <v>1.8</v>
+      </c>
+      <c r="AR85">
+        <v>1.6</v>
+      </c>
+      <c r="AS85">
+        <v>1.9</v>
+      </c>
+      <c r="AT85">
+        <v>3.5</v>
+      </c>
+      <c r="AU85">
+        <v>8</v>
+      </c>
+      <c r="AV85">
+        <v>6</v>
+      </c>
+      <c r="AW85">
+        <v>7</v>
+      </c>
+      <c r="AX85">
+        <v>13</v>
+      </c>
+      <c r="AY85">
+        <v>16</v>
+      </c>
+      <c r="AZ85">
+        <v>20</v>
+      </c>
+      <c r="BA85">
+        <v>4</v>
+      </c>
+      <c r="BB85">
+        <v>5</v>
+      </c>
+      <c r="BC85">
+        <v>9</v>
+      </c>
+      <c r="BD85">
+        <v>0</v>
+      </c>
+      <c r="BE85">
+        <v>0</v>
+      </c>
+      <c r="BF85">
+        <v>0</v>
+      </c>
+      <c r="BG85">
+        <v>0</v>
+      </c>
+      <c r="BH85">
+        <v>0</v>
+      </c>
+      <c r="BI85">
+        <v>0</v>
+      </c>
+      <c r="BJ85">
+        <v>0</v>
+      </c>
+      <c r="BK85">
+        <v>0</v>
+      </c>
+      <c r="BL85">
+        <v>0</v>
+      </c>
+      <c r="BM85">
+        <v>0</v>
+      </c>
+      <c r="BN85">
+        <v>0</v>
+      </c>
+      <c r="BO85">
+        <v>0</v>
+      </c>
+      <c r="BP85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:68">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>7825278</v>
+      </c>
+      <c r="C86" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45783.33333333334</v>
+      </c>
+      <c r="F86">
+        <v>11</v>
+      </c>
+      <c r="G86" t="s">
+        <v>78</v>
+      </c>
+      <c r="H86" t="s">
+        <v>71</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+      <c r="M86">
+        <v>3</v>
+      </c>
+      <c r="N86">
+        <v>4</v>
+      </c>
+      <c r="O86" t="s">
+        <v>114</v>
+      </c>
+      <c r="P86" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q86">
+        <v>5.5</v>
+      </c>
+      <c r="R86">
+        <v>2.63</v>
+      </c>
+      <c r="S86">
+        <v>1.95</v>
+      </c>
+      <c r="T86">
+        <v>1.22</v>
+      </c>
+      <c r="U86">
+        <v>4</v>
+      </c>
+      <c r="V86">
+        <v>2.1</v>
+      </c>
+      <c r="W86">
+        <v>1.67</v>
+      </c>
+      <c r="X86">
+        <v>4.5</v>
+      </c>
+      <c r="Y86">
+        <v>1.18</v>
+      </c>
+      <c r="Z86">
+        <v>5.3</v>
+      </c>
+      <c r="AA86">
+        <v>4.7</v>
+      </c>
+      <c r="AB86">
+        <v>1.44</v>
+      </c>
+      <c r="AC86">
+        <v>0</v>
+      </c>
+      <c r="AD86">
+        <v>0</v>
+      </c>
+      <c r="AE86">
+        <v>0</v>
+      </c>
+      <c r="AF86">
+        <v>0</v>
+      </c>
+      <c r="AG86">
+        <v>1.4</v>
+      </c>
+      <c r="AH86">
+        <v>2.73</v>
+      </c>
+      <c r="AI86">
+        <v>1.57</v>
+      </c>
+      <c r="AJ86">
+        <v>2.25</v>
+      </c>
+      <c r="AK86">
+        <v>0</v>
+      </c>
+      <c r="AL86">
+        <v>0</v>
+      </c>
+      <c r="AM86">
+        <v>0</v>
+      </c>
+      <c r="AN86">
+        <v>1.8</v>
+      </c>
+      <c r="AO86">
+        <v>1.75</v>
+      </c>
+      <c r="AP86">
+        <v>1.5</v>
+      </c>
+      <c r="AQ86">
+        <v>2</v>
+      </c>
+      <c r="AR86">
+        <v>2.02</v>
+      </c>
+      <c r="AS86">
+        <v>1.59</v>
+      </c>
+      <c r="AT86">
+        <v>3.61</v>
+      </c>
+      <c r="AU86">
+        <v>3</v>
+      </c>
+      <c r="AV86">
+        <v>9</v>
+      </c>
+      <c r="AW86">
+        <v>12</v>
+      </c>
+      <c r="AX86">
+        <v>10</v>
+      </c>
+      <c r="AY86">
+        <v>22</v>
+      </c>
+      <c r="AZ86">
+        <v>24</v>
+      </c>
+      <c r="BA86">
+        <v>8</v>
+      </c>
+      <c r="BB86">
+        <v>8</v>
+      </c>
+      <c r="BC86">
+        <v>16</v>
+      </c>
+      <c r="BD86">
+        <v>0</v>
+      </c>
+      <c r="BE86">
+        <v>0</v>
+      </c>
+      <c r="BF86">
+        <v>0</v>
+      </c>
+      <c r="BG86">
+        <v>0</v>
+      </c>
+      <c r="BH86">
+        <v>0</v>
+      </c>
+      <c r="BI86">
+        <v>0</v>
+      </c>
+      <c r="BJ86">
+        <v>0</v>
+      </c>
+      <c r="BK86">
+        <v>0</v>
+      </c>
+      <c r="BL86">
+        <v>0</v>
+      </c>
+      <c r="BM86">
+        <v>0</v>
+      </c>
+      <c r="BN86">
+        <v>0</v>
+      </c>
+      <c r="BO86">
+        <v>0</v>
+      </c>
+      <c r="BP86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:68">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>7825279</v>
+      </c>
+      <c r="C87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45783.35763888889</v>
+      </c>
+      <c r="F87">
+        <v>11</v>
+      </c>
+      <c r="G87" t="s">
+        <v>79</v>
+      </c>
+      <c r="H87" t="s">
+        <v>81</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87" t="s">
+        <v>88</v>
+      </c>
+      <c r="P87" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q87">
+        <v>2.38</v>
+      </c>
+      <c r="R87">
+        <v>2.38</v>
+      </c>
+      <c r="S87">
+        <v>4.33</v>
+      </c>
+      <c r="T87">
+        <v>1.3</v>
+      </c>
+      <c r="U87">
+        <v>3.4</v>
+      </c>
+      <c r="V87">
+        <v>2.38</v>
+      </c>
+      <c r="W87">
+        <v>1.53</v>
+      </c>
+      <c r="X87">
+        <v>6</v>
+      </c>
+      <c r="Y87">
+        <v>1.13</v>
+      </c>
+      <c r="Z87">
+        <v>1.93</v>
+      </c>
+      <c r="AA87">
+        <v>3.7</v>
+      </c>
+      <c r="AB87">
+        <v>3.58</v>
+      </c>
+      <c r="AC87">
+        <v>0</v>
+      </c>
+      <c r="AD87">
+        <v>0</v>
+      </c>
+      <c r="AE87">
+        <v>0</v>
+      </c>
+      <c r="AF87">
+        <v>0</v>
+      </c>
+      <c r="AG87">
+        <v>1.67</v>
+      </c>
+      <c r="AH87">
+        <v>2.15</v>
+      </c>
+      <c r="AI87">
+        <v>1.62</v>
+      </c>
+      <c r="AJ87">
+        <v>2.2</v>
+      </c>
+      <c r="AK87">
+        <v>0</v>
+      </c>
+      <c r="AL87">
+        <v>0</v>
+      </c>
+      <c r="AM87">
+        <v>0</v>
+      </c>
+      <c r="AN87">
+        <v>1.83</v>
+      </c>
+      <c r="AO87">
+        <v>0.6</v>
+      </c>
+      <c r="AP87">
+        <v>1.71</v>
+      </c>
+      <c r="AQ87">
+        <v>0.67</v>
+      </c>
+      <c r="AR87">
+        <v>1.17</v>
+      </c>
+      <c r="AS87">
+        <v>1.07</v>
+      </c>
+      <c r="AT87">
+        <v>2.24</v>
+      </c>
+      <c r="AU87">
+        <v>3</v>
+      </c>
+      <c r="AV87">
+        <v>0</v>
+      </c>
+      <c r="AW87">
+        <v>9</v>
+      </c>
+      <c r="AX87">
+        <v>2</v>
+      </c>
+      <c r="AY87">
+        <v>15</v>
+      </c>
+      <c r="AZ87">
+        <v>2</v>
+      </c>
+      <c r="BA87">
+        <v>12</v>
+      </c>
+      <c r="BB87">
+        <v>3</v>
+      </c>
+      <c r="BC87">
+        <v>15</v>
+      </c>
+      <c r="BD87">
+        <v>0</v>
+      </c>
+      <c r="BE87">
+        <v>0</v>
+      </c>
+      <c r="BF87">
+        <v>0</v>
+      </c>
+      <c r="BG87">
+        <v>0</v>
+      </c>
+      <c r="BH87">
+        <v>0</v>
+      </c>
+      <c r="BI87">
+        <v>0</v>
+      </c>
+      <c r="BJ87">
+        <v>0</v>
+      </c>
+      <c r="BK87">
+        <v>0</v>
+      </c>
+      <c r="BL87">
+        <v>0</v>
+      </c>
+      <c r="BM87">
+        <v>0</v>
+      </c>
+      <c r="BN87">
+        <v>0</v>
+      </c>
+      <c r="BO87">
+        <v>0</v>
+      </c>
+      <c r="BP87">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/China Chinese Super League_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/China Chinese Super League_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="214">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -490,6 +490,9 @@
     <t>['57', '68', '74']</t>
   </si>
   <si>
+    <t>['13', '54', '88']</t>
+  </si>
+  <si>
     <t>['53', '79']</t>
   </si>
   <si>
@@ -650,6 +653,9 @@
   </si>
   <si>
     <t>['60', '65', '90+5']</t>
+  </si>
+  <si>
+    <t>['6']</t>
   </si>
 </sst>
 </file>
@@ -1011,7 +1017,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP87"/>
+  <dimension ref="A1:BP88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1682,7 +1688,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1888,7 +1894,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q5">
         <v>2.85</v>
@@ -2094,7 +2100,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q6">
         <v>2.2</v>
@@ -2506,7 +2512,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q8">
         <v>2.04</v>
@@ -2712,7 +2718,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q9">
         <v>1.5</v>
@@ -2790,7 +2796,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ9">
         <v>0.67</v>
@@ -2918,7 +2924,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q10">
         <v>2.1</v>
@@ -3202,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ11">
         <v>0.43</v>
@@ -3330,7 +3336,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3536,7 +3542,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -3742,7 +3748,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q14">
         <v>2.13</v>
@@ -3948,7 +3954,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q15">
         <v>3.2</v>
@@ -4154,7 +4160,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4566,7 +4572,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4772,7 +4778,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q19">
         <v>3.75</v>
@@ -4978,7 +4984,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q20">
         <v>3.25</v>
@@ -5471,7 +5477,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ22">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR22">
         <v>3.42</v>
@@ -5596,7 +5602,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5802,7 +5808,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -6008,7 +6014,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6214,7 +6220,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6832,7 +6838,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -7244,7 +7250,7 @@
         <v>112</v>
       </c>
       <c r="P31" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q31">
         <v>3.42</v>
@@ -7450,7 +7456,7 @@
         <v>88</v>
       </c>
       <c r="P32" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q32">
         <v>2.9</v>
@@ -7656,7 +7662,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q33">
         <v>1.56</v>
@@ -7734,7 +7740,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ33">
         <v>0.6</v>
@@ -7862,7 +7868,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q34">
         <v>3.25</v>
@@ -8068,7 +8074,7 @@
         <v>115</v>
       </c>
       <c r="P35" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q35">
         <v>4.25</v>
@@ -8274,7 +8280,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q36">
         <v>3.15</v>
@@ -8480,7 +8486,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q37">
         <v>2.75</v>
@@ -8892,7 +8898,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -8970,7 +8976,7 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ39">
         <v>2</v>
@@ -9385,7 +9391,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ41">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR41">
         <v>1.18</v>
@@ -9716,7 +9722,7 @@
         <v>123</v>
       </c>
       <c r="P43" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9922,7 +9928,7 @@
         <v>124</v>
       </c>
       <c r="P44" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q44">
         <v>3.2</v>
@@ -10128,7 +10134,7 @@
         <v>88</v>
       </c>
       <c r="P45" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q45">
         <v>7.5</v>
@@ -10334,7 +10340,7 @@
         <v>125</v>
       </c>
       <c r="P46" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q46">
         <v>3.1</v>
@@ -10540,7 +10546,7 @@
         <v>126</v>
       </c>
       <c r="P47" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q47">
         <v>1.95</v>
@@ -10746,7 +10752,7 @@
         <v>127</v>
       </c>
       <c r="P48" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q48">
         <v>3.7</v>
@@ -10952,7 +10958,7 @@
         <v>128</v>
       </c>
       <c r="P49" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q49">
         <v>4.33</v>
@@ -11158,7 +11164,7 @@
         <v>129</v>
       </c>
       <c r="P50" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q50">
         <v>2.65</v>
@@ -11364,7 +11370,7 @@
         <v>130</v>
       </c>
       <c r="P51" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q51">
         <v>4.15</v>
@@ -11776,7 +11782,7 @@
         <v>132</v>
       </c>
       <c r="P53" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q53">
         <v>1.8</v>
@@ -11982,7 +11988,7 @@
         <v>104</v>
       </c>
       <c r="P54" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q54">
         <v>1.71</v>
@@ -12188,7 +12194,7 @@
         <v>133</v>
       </c>
       <c r="P55" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q55">
         <v>1.45</v>
@@ -12269,7 +12275,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ55">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR55">
         <v>2.44</v>
@@ -12600,7 +12606,7 @@
         <v>135</v>
       </c>
       <c r="P57" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q57">
         <v>2.88</v>
@@ -13299,7 +13305,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ60">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR60">
         <v>1.14</v>
@@ -13836,7 +13842,7 @@
         <v>140</v>
       </c>
       <c r="P63" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q63">
         <v>2.88</v>
@@ -13914,7 +13920,7 @@
         <v>2.33</v>
       </c>
       <c r="AP63">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ63">
         <v>2.6</v>
@@ -14248,7 +14254,7 @@
         <v>142</v>
       </c>
       <c r="P65" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q65">
         <v>4.5</v>
@@ -14454,7 +14460,7 @@
         <v>143</v>
       </c>
       <c r="P66" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q66">
         <v>5.2</v>
@@ -14660,7 +14666,7 @@
         <v>144</v>
       </c>
       <c r="P67" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q67">
         <v>3.22</v>
@@ -14866,7 +14872,7 @@
         <v>88</v>
       </c>
       <c r="P68" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q68">
         <v>3.24</v>
@@ -15072,7 +15078,7 @@
         <v>145</v>
       </c>
       <c r="P69" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q69">
         <v>3.18</v>
@@ -15278,7 +15284,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q70">
         <v>3.22</v>
@@ -15484,7 +15490,7 @@
         <v>146</v>
       </c>
       <c r="P71" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q71">
         <v>2.1</v>
@@ -15690,7 +15696,7 @@
         <v>147</v>
       </c>
       <c r="P72" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q72">
         <v>2.75</v>
@@ -16102,7 +16108,7 @@
         <v>148</v>
       </c>
       <c r="P74" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q74">
         <v>2.5</v>
@@ -16308,7 +16314,7 @@
         <v>149</v>
       </c>
       <c r="P75" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q75">
         <v>2.2</v>
@@ -16514,7 +16520,7 @@
         <v>150</v>
       </c>
       <c r="P76" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q76">
         <v>1.57</v>
@@ -16595,7 +16601,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ76">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR76">
         <v>1.89</v>
@@ -16720,7 +16726,7 @@
         <v>151</v>
       </c>
       <c r="P77" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q77">
         <v>2.63</v>
@@ -16798,7 +16804,7 @@
         <v>1.5</v>
       </c>
       <c r="AP77">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ77">
         <v>2</v>
@@ -17338,7 +17344,7 @@
         <v>88</v>
       </c>
       <c r="P80" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q80">
         <v>3.6</v>
@@ -17544,7 +17550,7 @@
         <v>154</v>
       </c>
       <c r="P81" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q81">
         <v>2.6</v>
@@ -17750,7 +17756,7 @@
         <v>88</v>
       </c>
       <c r="P82" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q82">
         <v>4.5</v>
@@ -18368,7 +18374,7 @@
         <v>157</v>
       </c>
       <c r="P85" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -18574,7 +18580,7 @@
         <v>114</v>
       </c>
       <c r="P86" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q86">
         <v>5.5</v>
@@ -18936,6 +18942,212 @@
         <v>0</v>
       </c>
       <c r="BP87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:68">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>7825280</v>
+      </c>
+      <c r="C88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45786.35763888889</v>
+      </c>
+      <c r="F88">
+        <v>12</v>
+      </c>
+      <c r="G88" t="s">
+        <v>77</v>
+      </c>
+      <c r="H88" t="s">
+        <v>73</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>2</v>
+      </c>
+      <c r="L88">
+        <v>3</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+      <c r="N88">
+        <v>4</v>
+      </c>
+      <c r="O88" t="s">
+        <v>158</v>
+      </c>
+      <c r="P88" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q88">
+        <v>1.53</v>
+      </c>
+      <c r="R88">
+        <v>3.1</v>
+      </c>
+      <c r="S88">
+        <v>9</v>
+      </c>
+      <c r="T88">
+        <v>1.18</v>
+      </c>
+      <c r="U88">
+        <v>4.5</v>
+      </c>
+      <c r="V88">
+        <v>1.83</v>
+      </c>
+      <c r="W88">
+        <v>1.83</v>
+      </c>
+      <c r="X88">
+        <v>3.75</v>
+      </c>
+      <c r="Y88">
+        <v>1.25</v>
+      </c>
+      <c r="Z88">
+        <v>1.2</v>
+      </c>
+      <c r="AA88">
+        <v>6.3</v>
+      </c>
+      <c r="AB88">
+        <v>9.5</v>
+      </c>
+      <c r="AC88">
+        <v>0</v>
+      </c>
+      <c r="AD88">
+        <v>0</v>
+      </c>
+      <c r="AE88">
+        <v>0</v>
+      </c>
+      <c r="AF88">
+        <v>0</v>
+      </c>
+      <c r="AG88">
+        <v>1.32</v>
+      </c>
+      <c r="AH88">
+        <v>3.09</v>
+      </c>
+      <c r="AI88">
+        <v>1.8</v>
+      </c>
+      <c r="AJ88">
+        <v>1.95</v>
+      </c>
+      <c r="AK88">
+        <v>0</v>
+      </c>
+      <c r="AL88">
+        <v>0</v>
+      </c>
+      <c r="AM88">
+        <v>0</v>
+      </c>
+      <c r="AN88">
+        <v>1.67</v>
+      </c>
+      <c r="AO88">
+        <v>0.2</v>
+      </c>
+      <c r="AP88">
+        <v>1.86</v>
+      </c>
+      <c r="AQ88">
+        <v>0.17</v>
+      </c>
+      <c r="AR88">
+        <v>2.08</v>
+      </c>
+      <c r="AS88">
+        <v>1.07</v>
+      </c>
+      <c r="AT88">
+        <v>3.15</v>
+      </c>
+      <c r="AU88">
+        <v>8</v>
+      </c>
+      <c r="AV88">
+        <v>5</v>
+      </c>
+      <c r="AW88">
+        <v>22</v>
+      </c>
+      <c r="AX88">
+        <v>8</v>
+      </c>
+      <c r="AY88">
+        <v>41</v>
+      </c>
+      <c r="AZ88">
+        <v>14</v>
+      </c>
+      <c r="BA88">
+        <v>7</v>
+      </c>
+      <c r="BB88">
+        <v>4</v>
+      </c>
+      <c r="BC88">
+        <v>11</v>
+      </c>
+      <c r="BD88">
+        <v>0</v>
+      </c>
+      <c r="BE88">
+        <v>0</v>
+      </c>
+      <c r="BF88">
+        <v>0</v>
+      </c>
+      <c r="BG88">
+        <v>0</v>
+      </c>
+      <c r="BH88">
+        <v>0</v>
+      </c>
+      <c r="BI88">
+        <v>0</v>
+      </c>
+      <c r="BJ88">
+        <v>0</v>
+      </c>
+      <c r="BK88">
+        <v>0</v>
+      </c>
+      <c r="BL88">
+        <v>0</v>
+      </c>
+      <c r="BM88">
+        <v>0</v>
+      </c>
+      <c r="BN88">
+        <v>0</v>
+      </c>
+      <c r="BO88">
+        <v>0</v>
+      </c>
+      <c r="BP88">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/China Chinese Super League_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/China Chinese Super League_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="220">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -493,6 +493,15 @@
     <t>['13', '54', '88']</t>
   </si>
   <si>
+    <t>['6', '14', '31', '87']</t>
+  </si>
+  <si>
+    <t>['24', '54', '63', '90+8']</t>
+  </si>
+  <si>
+    <t>['28', '44', '71']</t>
+  </si>
+  <si>
     <t>['53', '79']</t>
   </si>
   <si>
@@ -656,6 +665,15 @@
   </si>
   <si>
     <t>['6']</t>
+  </si>
+  <si>
+    <t>['9', '27', '31', '59']</t>
+  </si>
+  <si>
+    <t>['3', '69']</t>
+  </si>
+  <si>
+    <t>['49']</t>
   </si>
 </sst>
 </file>
@@ -1017,7 +1035,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP88"/>
+  <dimension ref="A1:BP92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1560,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ3">
         <v>0.43</v>
@@ -1688,7 +1706,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1894,7 +1912,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q5">
         <v>2.85</v>
@@ -1975,7 +1993,7 @@
         <v>1</v>
       </c>
       <c r="AQ5">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2100,7 +2118,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q6">
         <v>2.2</v>
@@ -2384,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ7">
         <v>0.8</v>
@@ -2512,7 +2530,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q8">
         <v>2.04</v>
@@ -2718,7 +2736,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q9">
         <v>1.5</v>
@@ -2799,7 +2817,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ9">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2924,7 +2942,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q10">
         <v>2.1</v>
@@ -3002,7 +3020,7 @@
         <v>1</v>
       </c>
       <c r="AP10">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ10">
         <v>0.5</v>
@@ -3336,7 +3354,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3417,7 +3435,7 @@
         <v>1</v>
       </c>
       <c r="AQ12">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR12">
         <v>1.44</v>
@@ -3542,7 +3560,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -3620,7 +3638,7 @@
         <v>1</v>
       </c>
       <c r="AP13">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ13">
         <v>0.8</v>
@@ -3748,7 +3766,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q14">
         <v>2.13</v>
@@ -3826,7 +3844,7 @@
         <v>3</v>
       </c>
       <c r="AP14">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ14">
         <v>2</v>
@@ -3954,7 +3972,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q15">
         <v>3.2</v>
@@ -4035,7 +4053,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ15">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR15">
         <v>1.22</v>
@@ -4160,7 +4178,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4572,7 +4590,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4778,7 +4796,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q19">
         <v>3.75</v>
@@ -4859,7 +4877,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ19">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -4984,7 +5002,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q20">
         <v>3.25</v>
@@ -5602,7 +5620,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5808,7 +5826,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -5886,7 +5904,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ24">
         <v>1.8</v>
@@ -6014,7 +6032,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6092,10 +6110,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ25">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR25">
         <v>0</v>
@@ -6220,7 +6238,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6301,7 +6319,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ26">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR26">
         <v>1.09</v>
@@ -6507,7 +6525,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ27">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR27">
         <v>1.37</v>
@@ -6838,7 +6856,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -6916,7 +6934,7 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ29">
         <v>0.83</v>
@@ -7250,7 +7268,7 @@
         <v>112</v>
       </c>
       <c r="P31" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q31">
         <v>3.42</v>
@@ -7456,7 +7474,7 @@
         <v>88</v>
       </c>
       <c r="P32" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q32">
         <v>2.9</v>
@@ -7534,10 +7552,10 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ32">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR32">
         <v>2.46</v>
@@ -7662,7 +7680,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q33">
         <v>1.56</v>
@@ -7868,7 +7886,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q34">
         <v>3.25</v>
@@ -8074,7 +8092,7 @@
         <v>115</v>
       </c>
       <c r="P35" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q35">
         <v>4.25</v>
@@ -8280,7 +8298,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q36">
         <v>3.15</v>
@@ -8486,7 +8504,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q37">
         <v>2.75</v>
@@ -8564,7 +8582,7 @@
         <v>0.33</v>
       </c>
       <c r="AP37">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ37">
         <v>0.67</v>
@@ -8898,7 +8916,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9182,10 +9200,10 @@
         <v>2</v>
       </c>
       <c r="AP40">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ40">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR40">
         <v>0.75</v>
@@ -9594,10 +9612,10 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ42">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR42">
         <v>2.03</v>
@@ -9722,7 +9740,7 @@
         <v>123</v>
       </c>
       <c r="P43" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9800,7 +9818,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ43">
         <v>0.43</v>
@@ -9928,7 +9946,7 @@
         <v>124</v>
       </c>
       <c r="P44" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q44">
         <v>3.2</v>
@@ -10134,7 +10152,7 @@
         <v>88</v>
       </c>
       <c r="P45" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q45">
         <v>7.5</v>
@@ -10215,7 +10233,7 @@
         <v>1</v>
       </c>
       <c r="AQ45">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR45">
         <v>1.43</v>
@@ -10340,7 +10358,7 @@
         <v>125</v>
       </c>
       <c r="P46" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q46">
         <v>3.1</v>
@@ -10546,7 +10564,7 @@
         <v>126</v>
       </c>
       <c r="P47" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q47">
         <v>1.95</v>
@@ -10624,10 +10642,10 @@
         <v>1.33</v>
       </c>
       <c r="AP47">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ47">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR47">
         <v>2.72</v>
@@ -10752,7 +10770,7 @@
         <v>127</v>
       </c>
       <c r="P48" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q48">
         <v>3.7</v>
@@ -10958,7 +10976,7 @@
         <v>128</v>
       </c>
       <c r="P49" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q49">
         <v>4.33</v>
@@ -11164,7 +11182,7 @@
         <v>129</v>
       </c>
       <c r="P50" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q50">
         <v>2.65</v>
@@ -11370,7 +11388,7 @@
         <v>130</v>
       </c>
       <c r="P51" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q51">
         <v>4.15</v>
@@ -11782,7 +11800,7 @@
         <v>132</v>
       </c>
       <c r="P53" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q53">
         <v>1.8</v>
@@ -11988,7 +12006,7 @@
         <v>104</v>
       </c>
       <c r="P54" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q54">
         <v>1.71</v>
@@ -12194,7 +12212,7 @@
         <v>133</v>
       </c>
       <c r="P55" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q55">
         <v>1.45</v>
@@ -12272,7 +12290,7 @@
         <v>0</v>
       </c>
       <c r="AP55">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ55">
         <v>0.17</v>
@@ -12478,7 +12496,7 @@
         <v>0.25</v>
       </c>
       <c r="AP56">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ56">
         <v>0.67</v>
@@ -12606,7 +12624,7 @@
         <v>135</v>
       </c>
       <c r="P57" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q57">
         <v>2.88</v>
@@ -12684,7 +12702,7 @@
         <v>3</v>
       </c>
       <c r="AP57">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ57">
         <v>1.8</v>
@@ -13508,10 +13526,10 @@
         <v>0.75</v>
       </c>
       <c r="AP61">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ61">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR61">
         <v>2.04</v>
@@ -13717,7 +13735,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ62">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR62">
         <v>2.42</v>
@@ -13842,7 +13860,7 @@
         <v>140</v>
       </c>
       <c r="P63" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q63">
         <v>2.88</v>
@@ -13923,7 +13941,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ63">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR63">
         <v>2.06</v>
@@ -14126,7 +14144,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ64">
         <v>0.8</v>
@@ -14254,7 +14272,7 @@
         <v>142</v>
       </c>
       <c r="P65" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q65">
         <v>4.5</v>
@@ -14460,7 +14478,7 @@
         <v>143</v>
       </c>
       <c r="P66" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q66">
         <v>5.2</v>
@@ -14541,7 +14559,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ66">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR66">
         <v>1.35</v>
@@ -14666,7 +14684,7 @@
         <v>144</v>
       </c>
       <c r="P67" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q67">
         <v>3.22</v>
@@ -14872,7 +14890,7 @@
         <v>88</v>
       </c>
       <c r="P68" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q68">
         <v>3.24</v>
@@ -14950,7 +14968,7 @@
         <v>2</v>
       </c>
       <c r="AP68">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ68">
         <v>2</v>
@@ -15078,7 +15096,7 @@
         <v>145</v>
       </c>
       <c r="P69" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q69">
         <v>3.18</v>
@@ -15284,7 +15302,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q70">
         <v>3.22</v>
@@ -15490,7 +15508,7 @@
         <v>146</v>
       </c>
       <c r="P71" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q71">
         <v>2.1</v>
@@ -15571,7 +15589,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ71">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR71">
         <v>1.62</v>
@@ -15696,7 +15714,7 @@
         <v>147</v>
       </c>
       <c r="P72" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q72">
         <v>2.75</v>
@@ -16108,7 +16126,7 @@
         <v>148</v>
       </c>
       <c r="P74" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q74">
         <v>2.5</v>
@@ -16314,7 +16332,7 @@
         <v>149</v>
       </c>
       <c r="P75" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q75">
         <v>2.2</v>
@@ -16520,7 +16538,7 @@
         <v>150</v>
       </c>
       <c r="P76" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q76">
         <v>1.57</v>
@@ -16598,7 +16616,7 @@
         <v>0</v>
       </c>
       <c r="AP76">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ76">
         <v>0.17</v>
@@ -16726,7 +16744,7 @@
         <v>151</v>
       </c>
       <c r="P77" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q77">
         <v>2.63</v>
@@ -17344,7 +17362,7 @@
         <v>88</v>
       </c>
       <c r="P80" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q80">
         <v>3.6</v>
@@ -17550,7 +17568,7 @@
         <v>154</v>
       </c>
       <c r="P81" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q81">
         <v>2.6</v>
@@ -17756,7 +17774,7 @@
         <v>88</v>
       </c>
       <c r="P82" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q82">
         <v>4.5</v>
@@ -18249,7 +18267,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ84">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR84">
         <v>2.13</v>
@@ -18374,7 +18392,7 @@
         <v>157</v>
       </c>
       <c r="P85" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -18580,7 +18598,7 @@
         <v>114</v>
       </c>
       <c r="P86" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q86">
         <v>5.5</v>
@@ -18658,7 +18676,7 @@
         <v>1.75</v>
       </c>
       <c r="AP86">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ86">
         <v>2</v>
@@ -18867,7 +18885,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ87">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR87">
         <v>1.17</v>
@@ -18992,7 +19010,7 @@
         <v>158</v>
       </c>
       <c r="P88" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q88">
         <v>1.53</v>
@@ -19148,6 +19166,830 @@
         <v>0</v>
       </c>
       <c r="BP88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:68">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>7825281</v>
+      </c>
+      <c r="C89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45787.33333333334</v>
+      </c>
+      <c r="F89">
+        <v>12</v>
+      </c>
+      <c r="G89" t="s">
+        <v>71</v>
+      </c>
+      <c r="H89" t="s">
+        <v>79</v>
+      </c>
+      <c r="I89">
+        <v>3</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>3</v>
+      </c>
+      <c r="L89">
+        <v>4</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>4</v>
+      </c>
+      <c r="O89" t="s">
+        <v>159</v>
+      </c>
+      <c r="P89" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q89">
+        <v>1.73</v>
+      </c>
+      <c r="R89">
+        <v>2.75</v>
+      </c>
+      <c r="S89">
+        <v>7</v>
+      </c>
+      <c r="T89">
+        <v>1.22</v>
+      </c>
+      <c r="U89">
+        <v>4</v>
+      </c>
+      <c r="V89">
+        <v>2.1</v>
+      </c>
+      <c r="W89">
+        <v>1.67</v>
+      </c>
+      <c r="X89">
+        <v>4.5</v>
+      </c>
+      <c r="Y89">
+        <v>1.18</v>
+      </c>
+      <c r="Z89">
+        <v>1.32</v>
+      </c>
+      <c r="AA89">
+        <v>5.1</v>
+      </c>
+      <c r="AB89">
+        <v>6.8</v>
+      </c>
+      <c r="AC89">
+        <v>0</v>
+      </c>
+      <c r="AD89">
+        <v>0</v>
+      </c>
+      <c r="AE89">
+        <v>0</v>
+      </c>
+      <c r="AF89">
+        <v>0</v>
+      </c>
+      <c r="AG89">
+        <v>1.4</v>
+      </c>
+      <c r="AH89">
+        <v>2.75</v>
+      </c>
+      <c r="AI89">
+        <v>1.75</v>
+      </c>
+      <c r="AJ89">
+        <v>2</v>
+      </c>
+      <c r="AK89">
+        <v>0</v>
+      </c>
+      <c r="AL89">
+        <v>0</v>
+      </c>
+      <c r="AM89">
+        <v>0</v>
+      </c>
+      <c r="AN89">
+        <v>2.67</v>
+      </c>
+      <c r="AO89">
+        <v>1.33</v>
+      </c>
+      <c r="AP89">
+        <v>2.71</v>
+      </c>
+      <c r="AQ89">
+        <v>1</v>
+      </c>
+      <c r="AR89">
+        <v>2.4</v>
+      </c>
+      <c r="AS89">
+        <v>1.47</v>
+      </c>
+      <c r="AT89">
+        <v>3.87</v>
+      </c>
+      <c r="AU89">
+        <v>10</v>
+      </c>
+      <c r="AV89">
+        <v>3</v>
+      </c>
+      <c r="AW89">
+        <v>7</v>
+      </c>
+      <c r="AX89">
+        <v>4</v>
+      </c>
+      <c r="AY89">
+        <v>20</v>
+      </c>
+      <c r="AZ89">
+        <v>8</v>
+      </c>
+      <c r="BA89">
+        <v>8</v>
+      </c>
+      <c r="BB89">
+        <v>7</v>
+      </c>
+      <c r="BC89">
+        <v>15</v>
+      </c>
+      <c r="BD89">
+        <v>0</v>
+      </c>
+      <c r="BE89">
+        <v>0</v>
+      </c>
+      <c r="BF89">
+        <v>0</v>
+      </c>
+      <c r="BG89">
+        <v>0</v>
+      </c>
+      <c r="BH89">
+        <v>0</v>
+      </c>
+      <c r="BI89">
+        <v>0</v>
+      </c>
+      <c r="BJ89">
+        <v>0</v>
+      </c>
+      <c r="BK89">
+        <v>0</v>
+      </c>
+      <c r="BL89">
+        <v>0</v>
+      </c>
+      <c r="BM89">
+        <v>0</v>
+      </c>
+      <c r="BN89">
+        <v>0</v>
+      </c>
+      <c r="BO89">
+        <v>0</v>
+      </c>
+      <c r="BP89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:68">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>7825282</v>
+      </c>
+      <c r="C90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45787.35763888889</v>
+      </c>
+      <c r="F90">
+        <v>12</v>
+      </c>
+      <c r="G90" t="s">
+        <v>78</v>
+      </c>
+      <c r="H90" t="s">
+        <v>70</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>3</v>
+      </c>
+      <c r="K90">
+        <v>3</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>4</v>
+      </c>
+      <c r="N90">
+        <v>4</v>
+      </c>
+      <c r="O90" t="s">
+        <v>88</v>
+      </c>
+      <c r="P90" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q90">
+        <v>6</v>
+      </c>
+      <c r="R90">
+        <v>2.6</v>
+      </c>
+      <c r="S90">
+        <v>1.91</v>
+      </c>
+      <c r="T90">
+        <v>1.25</v>
+      </c>
+      <c r="U90">
+        <v>3.75</v>
+      </c>
+      <c r="V90">
+        <v>2.2</v>
+      </c>
+      <c r="W90">
+        <v>1.62</v>
+      </c>
+      <c r="X90">
+        <v>5</v>
+      </c>
+      <c r="Y90">
+        <v>1.17</v>
+      </c>
+      <c r="Z90">
+        <v>6.4</v>
+      </c>
+      <c r="AA90">
+        <v>5</v>
+      </c>
+      <c r="AB90">
+        <v>1.34</v>
+      </c>
+      <c r="AC90">
+        <v>0</v>
+      </c>
+      <c r="AD90">
+        <v>0</v>
+      </c>
+      <c r="AE90">
+        <v>0</v>
+      </c>
+      <c r="AF90">
+        <v>0</v>
+      </c>
+      <c r="AG90">
+        <v>1.46</v>
+      </c>
+      <c r="AH90">
+        <v>2.52</v>
+      </c>
+      <c r="AI90">
+        <v>1.67</v>
+      </c>
+      <c r="AJ90">
+        <v>2.1</v>
+      </c>
+      <c r="AK90">
+        <v>0</v>
+      </c>
+      <c r="AL90">
+        <v>0</v>
+      </c>
+      <c r="AM90">
+        <v>0</v>
+      </c>
+      <c r="AN90">
+        <v>1.5</v>
+      </c>
+      <c r="AO90">
+        <v>2.6</v>
+      </c>
+      <c r="AP90">
+        <v>1.29</v>
+      </c>
+      <c r="AQ90">
+        <v>2.67</v>
+      </c>
+      <c r="AR90">
+        <v>1.96</v>
+      </c>
+      <c r="AS90">
+        <v>1.96</v>
+      </c>
+      <c r="AT90">
+        <v>3.92</v>
+      </c>
+      <c r="AU90">
+        <v>0</v>
+      </c>
+      <c r="AV90">
+        <v>9</v>
+      </c>
+      <c r="AW90">
+        <v>10</v>
+      </c>
+      <c r="AX90">
+        <v>14</v>
+      </c>
+      <c r="AY90">
+        <v>13</v>
+      </c>
+      <c r="AZ90">
+        <v>27</v>
+      </c>
+      <c r="BA90">
+        <v>5</v>
+      </c>
+      <c r="BB90">
+        <v>6</v>
+      </c>
+      <c r="BC90">
+        <v>11</v>
+      </c>
+      <c r="BD90">
+        <v>0</v>
+      </c>
+      <c r="BE90">
+        <v>0</v>
+      </c>
+      <c r="BF90">
+        <v>0</v>
+      </c>
+      <c r="BG90">
+        <v>0</v>
+      </c>
+      <c r="BH90">
+        <v>0</v>
+      </c>
+      <c r="BI90">
+        <v>0</v>
+      </c>
+      <c r="BJ90">
+        <v>0</v>
+      </c>
+      <c r="BK90">
+        <v>0</v>
+      </c>
+      <c r="BL90">
+        <v>0</v>
+      </c>
+      <c r="BM90">
+        <v>0</v>
+      </c>
+      <c r="BN90">
+        <v>0</v>
+      </c>
+      <c r="BO90">
+        <v>0</v>
+      </c>
+      <c r="BP90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:68">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>7825283</v>
+      </c>
+      <c r="C91" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" t="s">
+        <v>69</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45787.35763888889</v>
+      </c>
+      <c r="F91">
+        <v>12</v>
+      </c>
+      <c r="G91" t="s">
+        <v>75</v>
+      </c>
+      <c r="H91" t="s">
+        <v>74</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91">
+        <v>2</v>
+      </c>
+      <c r="L91">
+        <v>4</v>
+      </c>
+      <c r="M91">
+        <v>2</v>
+      </c>
+      <c r="N91">
+        <v>6</v>
+      </c>
+      <c r="O91" t="s">
+        <v>160</v>
+      </c>
+      <c r="P91" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q91">
+        <v>2.2</v>
+      </c>
+      <c r="R91">
+        <v>2.6</v>
+      </c>
+      <c r="S91">
+        <v>4</v>
+      </c>
+      <c r="T91">
+        <v>1.22</v>
+      </c>
+      <c r="U91">
+        <v>4</v>
+      </c>
+      <c r="V91">
+        <v>2</v>
+      </c>
+      <c r="W91">
+        <v>1.73</v>
+      </c>
+      <c r="X91">
+        <v>4.33</v>
+      </c>
+      <c r="Y91">
+        <v>1.2</v>
+      </c>
+      <c r="Z91">
+        <v>1.68</v>
+      </c>
+      <c r="AA91">
+        <v>4.1</v>
+      </c>
+      <c r="AB91">
+        <v>3.86</v>
+      </c>
+      <c r="AC91">
+        <v>0</v>
+      </c>
+      <c r="AD91">
+        <v>0</v>
+      </c>
+      <c r="AE91">
+        <v>0</v>
+      </c>
+      <c r="AF91">
+        <v>0</v>
+      </c>
+      <c r="AG91">
+        <v>1.35</v>
+      </c>
+      <c r="AH91">
+        <v>2.94</v>
+      </c>
+      <c r="AI91">
+        <v>1.44</v>
+      </c>
+      <c r="AJ91">
+        <v>2.63</v>
+      </c>
+      <c r="AK91">
+        <v>0</v>
+      </c>
+      <c r="AL91">
+        <v>0</v>
+      </c>
+      <c r="AM91">
+        <v>0</v>
+      </c>
+      <c r="AN91">
+        <v>1.33</v>
+      </c>
+      <c r="AO91">
+        <v>0.67</v>
+      </c>
+      <c r="AP91">
+        <v>1.57</v>
+      </c>
+      <c r="AQ91">
+        <v>0.57</v>
+      </c>
+      <c r="AR91">
+        <v>1.93</v>
+      </c>
+      <c r="AS91">
+        <v>1.2</v>
+      </c>
+      <c r="AT91">
+        <v>3.13</v>
+      </c>
+      <c r="AU91">
+        <v>9</v>
+      </c>
+      <c r="AV91">
+        <v>7</v>
+      </c>
+      <c r="AW91">
+        <v>4</v>
+      </c>
+      <c r="AX91">
+        <v>13</v>
+      </c>
+      <c r="AY91">
+        <v>13</v>
+      </c>
+      <c r="AZ91">
+        <v>23</v>
+      </c>
+      <c r="BA91">
+        <v>5</v>
+      </c>
+      <c r="BB91">
+        <v>1</v>
+      </c>
+      <c r="BC91">
+        <v>6</v>
+      </c>
+      <c r="BD91">
+        <v>0</v>
+      </c>
+      <c r="BE91">
+        <v>0</v>
+      </c>
+      <c r="BF91">
+        <v>0</v>
+      </c>
+      <c r="BG91">
+        <v>0</v>
+      </c>
+      <c r="BH91">
+        <v>0</v>
+      </c>
+      <c r="BI91">
+        <v>0</v>
+      </c>
+      <c r="BJ91">
+        <v>0</v>
+      </c>
+      <c r="BK91">
+        <v>0</v>
+      </c>
+      <c r="BL91">
+        <v>0</v>
+      </c>
+      <c r="BM91">
+        <v>0</v>
+      </c>
+      <c r="BN91">
+        <v>0</v>
+      </c>
+      <c r="BO91">
+        <v>0</v>
+      </c>
+      <c r="BP91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:68">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>7825284</v>
+      </c>
+      <c r="C92" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45787.375</v>
+      </c>
+      <c r="F92">
+        <v>12</v>
+      </c>
+      <c r="G92" t="s">
+        <v>84</v>
+      </c>
+      <c r="H92" t="s">
+        <v>81</v>
+      </c>
+      <c r="I92">
+        <v>2</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>2</v>
+      </c>
+      <c r="L92">
+        <v>3</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+      <c r="N92">
+        <v>4</v>
+      </c>
+      <c r="O92" t="s">
+        <v>161</v>
+      </c>
+      <c r="P92" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q92">
+        <v>1.8</v>
+      </c>
+      <c r="R92">
+        <v>2.63</v>
+      </c>
+      <c r="S92">
+        <v>7</v>
+      </c>
+      <c r="T92">
+        <v>1.25</v>
+      </c>
+      <c r="U92">
+        <v>3.75</v>
+      </c>
+      <c r="V92">
+        <v>2.2</v>
+      </c>
+      <c r="W92">
+        <v>1.62</v>
+      </c>
+      <c r="X92">
+        <v>5</v>
+      </c>
+      <c r="Y92">
+        <v>1.17</v>
+      </c>
+      <c r="Z92">
+        <v>1.32</v>
+      </c>
+      <c r="AA92">
+        <v>5.03</v>
+      </c>
+      <c r="AB92">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC92">
+        <v>0</v>
+      </c>
+      <c r="AD92">
+        <v>0</v>
+      </c>
+      <c r="AE92">
+        <v>0</v>
+      </c>
+      <c r="AF92">
+        <v>0</v>
+      </c>
+      <c r="AG92">
+        <v>1.53</v>
+      </c>
+      <c r="AH92">
+        <v>2.4</v>
+      </c>
+      <c r="AI92">
+        <v>1.8</v>
+      </c>
+      <c r="AJ92">
+        <v>1.95</v>
+      </c>
+      <c r="AK92">
+        <v>0</v>
+      </c>
+      <c r="AL92">
+        <v>0</v>
+      </c>
+      <c r="AM92">
+        <v>0</v>
+      </c>
+      <c r="AN92">
+        <v>2.5</v>
+      </c>
+      <c r="AO92">
+        <v>0.67</v>
+      </c>
+      <c r="AP92">
+        <v>2.6</v>
+      </c>
+      <c r="AQ92">
+        <v>0.57</v>
+      </c>
+      <c r="AR92">
+        <v>1.9</v>
+      </c>
+      <c r="AS92">
+        <v>0.96</v>
+      </c>
+      <c r="AT92">
+        <v>2.86</v>
+      </c>
+      <c r="AU92">
+        <v>7</v>
+      </c>
+      <c r="AV92">
+        <v>3</v>
+      </c>
+      <c r="AW92">
+        <v>15</v>
+      </c>
+      <c r="AX92">
+        <v>3</v>
+      </c>
+      <c r="AY92">
+        <v>28</v>
+      </c>
+      <c r="AZ92">
+        <v>6</v>
+      </c>
+      <c r="BA92">
+        <v>6</v>
+      </c>
+      <c r="BB92">
+        <v>3</v>
+      </c>
+      <c r="BC92">
+        <v>9</v>
+      </c>
+      <c r="BD92">
+        <v>0</v>
+      </c>
+      <c r="BE92">
+        <v>0</v>
+      </c>
+      <c r="BF92">
+        <v>0</v>
+      </c>
+      <c r="BG92">
+        <v>0</v>
+      </c>
+      <c r="BH92">
+        <v>0</v>
+      </c>
+      <c r="BI92">
+        <v>0</v>
+      </c>
+      <c r="BJ92">
+        <v>0</v>
+      </c>
+      <c r="BK92">
+        <v>0</v>
+      </c>
+      <c r="BL92">
+        <v>0</v>
+      </c>
+      <c r="BM92">
+        <v>0</v>
+      </c>
+      <c r="BN92">
+        <v>0</v>
+      </c>
+      <c r="BO92">
+        <v>0</v>
+      </c>
+      <c r="BP92">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/China Chinese Super League_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/China Chinese Super League_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="222">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -502,6 +502,9 @@
     <t>['28', '44', '71']</t>
   </si>
   <si>
+    <t>['89', '90+4']</t>
+  </si>
+  <si>
     <t>['53', '79']</t>
   </si>
   <si>
@@ -674,6 +677,9 @@
   </si>
   <si>
     <t>['49']</t>
+  </si>
+  <si>
+    <t>['14', '34']</t>
   </si>
 </sst>
 </file>
@@ -1035,7 +1041,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP92"/>
+  <dimension ref="A1:BP95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1706,7 +1712,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1912,7 +1918,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q5">
         <v>2.85</v>
@@ -2118,7 +2124,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q6">
         <v>2.2</v>
@@ -2199,7 +2205,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ6">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2405,7 +2411,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ7">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2530,7 +2536,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q8">
         <v>2.04</v>
@@ -2608,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ8">
         <v>0.6</v>
@@ -2736,7 +2742,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q9">
         <v>1.5</v>
@@ -2942,7 +2948,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q10">
         <v>2.1</v>
@@ -3023,7 +3029,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ10">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR10">
         <v>2.21</v>
@@ -3354,7 +3360,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3560,7 +3566,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -3641,7 +3647,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ13">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3766,7 +3772,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q14">
         <v>2.13</v>
@@ -3972,7 +3978,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q15">
         <v>3.2</v>
@@ -4178,7 +4184,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4590,7 +4596,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4796,7 +4802,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q19">
         <v>3.75</v>
@@ -4874,7 +4880,7 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ19">
         <v>0.57</v>
@@ -5002,7 +5008,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q20">
         <v>3.25</v>
@@ -5083,7 +5089,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ20">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5492,7 +5498,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ22">
         <v>0.17</v>
@@ -5620,7 +5626,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5826,7 +5832,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -6032,7 +6038,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6238,7 +6244,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6728,7 +6734,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ28">
         <v>0.67</v>
@@ -6856,7 +6862,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -6937,7 +6943,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ29">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR29">
         <v>1.91</v>
@@ -7143,7 +7149,7 @@
         <v>1</v>
       </c>
       <c r="AQ30">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR30">
         <v>1.32</v>
@@ -7268,7 +7274,7 @@
         <v>112</v>
       </c>
       <c r="P31" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q31">
         <v>3.42</v>
@@ -7346,7 +7352,7 @@
         <v>2</v>
       </c>
       <c r="AP31">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ31">
         <v>2</v>
@@ -7474,7 +7480,7 @@
         <v>88</v>
       </c>
       <c r="P32" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q32">
         <v>2.9</v>
@@ -7680,7 +7686,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q33">
         <v>1.56</v>
@@ -7886,7 +7892,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q34">
         <v>3.25</v>
@@ -7967,7 +7973,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ34">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR34">
         <v>2.26</v>
@@ -8092,7 +8098,7 @@
         <v>115</v>
       </c>
       <c r="P35" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q35">
         <v>4.25</v>
@@ -8170,7 +8176,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ35">
         <v>1.8</v>
@@ -8298,7 +8304,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q36">
         <v>3.15</v>
@@ -8504,7 +8510,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q37">
         <v>2.75</v>
@@ -8791,7 +8797,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ38">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR38">
         <v>2.39</v>
@@ -8916,7 +8922,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9740,7 +9746,7 @@
         <v>123</v>
       </c>
       <c r="P43" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9946,7 +9952,7 @@
         <v>124</v>
       </c>
       <c r="P44" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q44">
         <v>3.2</v>
@@ -10152,7 +10158,7 @@
         <v>88</v>
       </c>
       <c r="P45" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q45">
         <v>7.5</v>
@@ -10358,7 +10364,7 @@
         <v>125</v>
       </c>
       <c r="P46" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q46">
         <v>3.1</v>
@@ -10436,10 +10442,10 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ46">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR46">
         <v>1.82</v>
@@ -10564,7 +10570,7 @@
         <v>126</v>
       </c>
       <c r="P47" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q47">
         <v>1.95</v>
@@ -10770,7 +10776,7 @@
         <v>127</v>
       </c>
       <c r="P48" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q48">
         <v>3.7</v>
@@ -10976,7 +10982,7 @@
         <v>128</v>
       </c>
       <c r="P49" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q49">
         <v>4.33</v>
@@ -11054,7 +11060,7 @@
         <v>1.67</v>
       </c>
       <c r="AP49">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ49">
         <v>2</v>
@@ -11182,7 +11188,7 @@
         <v>129</v>
       </c>
       <c r="P50" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q50">
         <v>2.65</v>
@@ -11388,7 +11394,7 @@
         <v>130</v>
       </c>
       <c r="P51" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q51">
         <v>4.15</v>
@@ -11466,7 +11472,7 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ51">
         <v>2.5</v>
@@ -11675,7 +11681,7 @@
         <v>2</v>
       </c>
       <c r="AQ52">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR52">
         <v>2.18</v>
@@ -11800,7 +11806,7 @@
         <v>132</v>
       </c>
       <c r="P53" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q53">
         <v>1.8</v>
@@ -12006,7 +12012,7 @@
         <v>104</v>
       </c>
       <c r="P54" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q54">
         <v>1.71</v>
@@ -12087,7 +12093,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ54">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR54">
         <v>2.36</v>
@@ -12212,7 +12218,7 @@
         <v>133</v>
       </c>
       <c r="P55" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q55">
         <v>1.45</v>
@@ -12624,7 +12630,7 @@
         <v>135</v>
       </c>
       <c r="P57" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q57">
         <v>2.88</v>
@@ -12908,10 +12914,10 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ58">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR58">
         <v>1.38</v>
@@ -13117,7 +13123,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ59">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR59">
         <v>1.22</v>
@@ -13732,7 +13738,7 @@
         <v>1</v>
       </c>
       <c r="AP62">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ62">
         <v>0.57</v>
@@ -13860,7 +13866,7 @@
         <v>140</v>
       </c>
       <c r="P63" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q63">
         <v>2.88</v>
@@ -14147,7 +14153,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ64">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR64">
         <v>2.07</v>
@@ -14272,7 +14278,7 @@
         <v>142</v>
       </c>
       <c r="P65" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q65">
         <v>4.5</v>
@@ -14478,7 +14484,7 @@
         <v>143</v>
       </c>
       <c r="P66" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q66">
         <v>5.2</v>
@@ -14556,7 +14562,7 @@
         <v>2.5</v>
       </c>
       <c r="AP66">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ66">
         <v>2.67</v>
@@ -14684,7 +14690,7 @@
         <v>144</v>
       </c>
       <c r="P67" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q67">
         <v>3.22</v>
@@ -14765,7 +14771,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ67">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR67">
         <v>1.64</v>
@@ -14890,7 +14896,7 @@
         <v>88</v>
       </c>
       <c r="P68" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q68">
         <v>3.24</v>
@@ -15096,7 +15102,7 @@
         <v>145</v>
       </c>
       <c r="P69" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q69">
         <v>3.18</v>
@@ -15174,7 +15180,7 @@
         <v>1.67</v>
       </c>
       <c r="AP69">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ69">
         <v>1.33</v>
@@ -15302,7 +15308,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q70">
         <v>3.22</v>
@@ -15508,7 +15514,7 @@
         <v>146</v>
       </c>
       <c r="P71" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q71">
         <v>2.1</v>
@@ -15714,7 +15720,7 @@
         <v>147</v>
       </c>
       <c r="P72" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q72">
         <v>2.75</v>
@@ -15795,7 +15801,7 @@
         <v>2</v>
       </c>
       <c r="AQ72">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR72">
         <v>1.95</v>
@@ -16126,7 +16132,7 @@
         <v>148</v>
       </c>
       <c r="P74" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q74">
         <v>2.5</v>
@@ -16332,7 +16338,7 @@
         <v>149</v>
       </c>
       <c r="P75" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q75">
         <v>2.2</v>
@@ -16538,7 +16544,7 @@
         <v>150</v>
       </c>
       <c r="P76" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q76">
         <v>1.57</v>
@@ -16744,7 +16750,7 @@
         <v>151</v>
       </c>
       <c r="P77" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q77">
         <v>2.63</v>
@@ -17362,7 +17368,7 @@
         <v>88</v>
       </c>
       <c r="P80" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q80">
         <v>3.6</v>
@@ -17568,7 +17574,7 @@
         <v>154</v>
       </c>
       <c r="P81" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q81">
         <v>2.6</v>
@@ -17774,7 +17780,7 @@
         <v>88</v>
       </c>
       <c r="P82" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q82">
         <v>4.5</v>
@@ -17852,7 +17858,7 @@
         <v>2.33</v>
       </c>
       <c r="AP82">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ82">
         <v>2.5</v>
@@ -18392,7 +18398,7 @@
         <v>157</v>
       </c>
       <c r="P85" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -18598,7 +18604,7 @@
         <v>114</v>
       </c>
       <c r="P86" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q86">
         <v>5.5</v>
@@ -19010,7 +19016,7 @@
         <v>158</v>
       </c>
       <c r="P88" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q88">
         <v>1.53</v>
@@ -19422,7 +19428,7 @@
         <v>88</v>
       </c>
       <c r="P90" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q90">
         <v>6</v>
@@ -19628,7 +19634,7 @@
         <v>160</v>
       </c>
       <c r="P91" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q91">
         <v>2.2</v>
@@ -19834,7 +19840,7 @@
         <v>161</v>
       </c>
       <c r="P92" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q92">
         <v>1.8</v>
@@ -19991,6 +19997,624 @@
       </c>
       <c r="BP92">
         <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:68">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>7825285</v>
+      </c>
+      <c r="C93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45788.33333333334</v>
+      </c>
+      <c r="F93">
+        <v>12</v>
+      </c>
+      <c r="G93" t="s">
+        <v>85</v>
+      </c>
+      <c r="H93" t="s">
+        <v>83</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+      <c r="N93">
+        <v>1</v>
+      </c>
+      <c r="O93" t="s">
+        <v>88</v>
+      </c>
+      <c r="P93" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q93">
+        <v>3.5</v>
+      </c>
+      <c r="R93">
+        <v>2.25</v>
+      </c>
+      <c r="S93">
+        <v>2.88</v>
+      </c>
+      <c r="T93">
+        <v>1.36</v>
+      </c>
+      <c r="U93">
+        <v>3</v>
+      </c>
+      <c r="V93">
+        <v>2.63</v>
+      </c>
+      <c r="W93">
+        <v>1.44</v>
+      </c>
+      <c r="X93">
+        <v>7</v>
+      </c>
+      <c r="Y93">
+        <v>1.1</v>
+      </c>
+      <c r="Z93">
+        <v>2.85</v>
+      </c>
+      <c r="AA93">
+        <v>3.45</v>
+      </c>
+      <c r="AB93">
+        <v>2.18</v>
+      </c>
+      <c r="AC93">
+        <v>1.05</v>
+      </c>
+      <c r="AD93">
+        <v>8.5</v>
+      </c>
+      <c r="AE93">
+        <v>1.28</v>
+      </c>
+      <c r="AF93">
+        <v>3.45</v>
+      </c>
+      <c r="AG93">
+        <v>1.77</v>
+      </c>
+      <c r="AH93">
+        <v>1.93</v>
+      </c>
+      <c r="AI93">
+        <v>1.67</v>
+      </c>
+      <c r="AJ93">
+        <v>2.1</v>
+      </c>
+      <c r="AK93">
+        <v>1.65</v>
+      </c>
+      <c r="AL93">
+        <v>1.25</v>
+      </c>
+      <c r="AM93">
+        <v>1.35</v>
+      </c>
+      <c r="AN93">
+        <v>0.5</v>
+      </c>
+      <c r="AO93">
+        <v>0.8</v>
+      </c>
+      <c r="AP93">
+        <v>0.4</v>
+      </c>
+      <c r="AQ93">
+        <v>1.17</v>
+      </c>
+      <c r="AR93">
+        <v>1.27</v>
+      </c>
+      <c r="AS93">
+        <v>1.47</v>
+      </c>
+      <c r="AT93">
+        <v>2.74</v>
+      </c>
+      <c r="AU93">
+        <v>3</v>
+      </c>
+      <c r="AV93">
+        <v>5</v>
+      </c>
+      <c r="AW93">
+        <v>4</v>
+      </c>
+      <c r="AX93">
+        <v>13</v>
+      </c>
+      <c r="AY93">
+        <v>8</v>
+      </c>
+      <c r="AZ93">
+        <v>22</v>
+      </c>
+      <c r="BA93">
+        <v>3</v>
+      </c>
+      <c r="BB93">
+        <v>11</v>
+      </c>
+      <c r="BC93">
+        <v>14</v>
+      </c>
+      <c r="BD93">
+        <v>2.2</v>
+      </c>
+      <c r="BE93">
+        <v>8</v>
+      </c>
+      <c r="BF93">
+        <v>1.83</v>
+      </c>
+      <c r="BG93">
+        <v>1.21</v>
+      </c>
+      <c r="BH93">
+        <v>3.58</v>
+      </c>
+      <c r="BI93">
+        <v>1.42</v>
+      </c>
+      <c r="BJ93">
+        <v>2.57</v>
+      </c>
+      <c r="BK93">
+        <v>1.7</v>
+      </c>
+      <c r="BL93">
+        <v>2.05</v>
+      </c>
+      <c r="BM93">
+        <v>2.05</v>
+      </c>
+      <c r="BN93">
+        <v>1.7</v>
+      </c>
+      <c r="BO93">
+        <v>2.92</v>
+      </c>
+      <c r="BP93">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="94" spans="1:68">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>7825286</v>
+      </c>
+      <c r="C94" t="s">
+        <v>68</v>
+      </c>
+      <c r="D94" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45788.33333333334</v>
+      </c>
+      <c r="F94">
+        <v>12</v>
+      </c>
+      <c r="G94" t="s">
+        <v>76</v>
+      </c>
+      <c r="H94" t="s">
+        <v>72</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+      <c r="N94">
+        <v>1</v>
+      </c>
+      <c r="O94" t="s">
+        <v>88</v>
+      </c>
+      <c r="P94" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q94">
+        <v>2.38</v>
+      </c>
+      <c r="R94">
+        <v>2.38</v>
+      </c>
+      <c r="S94">
+        <v>4.33</v>
+      </c>
+      <c r="T94">
+        <v>1.3</v>
+      </c>
+      <c r="U94">
+        <v>3.4</v>
+      </c>
+      <c r="V94">
+        <v>2.38</v>
+      </c>
+      <c r="W94">
+        <v>1.53</v>
+      </c>
+      <c r="X94">
+        <v>6</v>
+      </c>
+      <c r="Y94">
+        <v>1.13</v>
+      </c>
+      <c r="Z94">
+        <v>1.9</v>
+      </c>
+      <c r="AA94">
+        <v>3.55</v>
+      </c>
+      <c r="AB94">
+        <v>3.45</v>
+      </c>
+      <c r="AC94">
+        <v>1.04</v>
+      </c>
+      <c r="AD94">
+        <v>9</v>
+      </c>
+      <c r="AE94">
+        <v>1.2</v>
+      </c>
+      <c r="AF94">
+        <v>4.2</v>
+      </c>
+      <c r="AG94">
+        <v>1.8</v>
+      </c>
+      <c r="AH94">
+        <v>1.9</v>
+      </c>
+      <c r="AI94">
+        <v>1.62</v>
+      </c>
+      <c r="AJ94">
+        <v>2.2</v>
+      </c>
+      <c r="AK94">
+        <v>1.25</v>
+      </c>
+      <c r="AL94">
+        <v>1.22</v>
+      </c>
+      <c r="AM94">
+        <v>1.83</v>
+      </c>
+      <c r="AN94">
+        <v>1.6</v>
+      </c>
+      <c r="AO94">
+        <v>0.83</v>
+      </c>
+      <c r="AP94">
+        <v>1.33</v>
+      </c>
+      <c r="AQ94">
+        <v>1.14</v>
+      </c>
+      <c r="AR94">
+        <v>2.25</v>
+      </c>
+      <c r="AS94">
+        <v>1.33</v>
+      </c>
+      <c r="AT94">
+        <v>3.58</v>
+      </c>
+      <c r="AU94">
+        <v>8</v>
+      </c>
+      <c r="AV94">
+        <v>5</v>
+      </c>
+      <c r="AW94">
+        <v>15</v>
+      </c>
+      <c r="AX94">
+        <v>10</v>
+      </c>
+      <c r="AY94">
+        <v>24</v>
+      </c>
+      <c r="AZ94">
+        <v>17</v>
+      </c>
+      <c r="BA94">
+        <v>10</v>
+      </c>
+      <c r="BB94">
+        <v>4</v>
+      </c>
+      <c r="BC94">
+        <v>14</v>
+      </c>
+      <c r="BD94">
+        <v>1.53</v>
+      </c>
+      <c r="BE94">
+        <v>6.5</v>
+      </c>
+      <c r="BF94">
+        <v>2.8</v>
+      </c>
+      <c r="BG94">
+        <v>1.28</v>
+      </c>
+      <c r="BH94">
+        <v>3.3</v>
+      </c>
+      <c r="BI94">
+        <v>1.48</v>
+      </c>
+      <c r="BJ94">
+        <v>2.43</v>
+      </c>
+      <c r="BK94">
+        <v>1.7</v>
+      </c>
+      <c r="BL94">
+        <v>2.05</v>
+      </c>
+      <c r="BM94">
+        <v>2.23</v>
+      </c>
+      <c r="BN94">
+        <v>1.57</v>
+      </c>
+      <c r="BO94">
+        <v>2.8</v>
+      </c>
+      <c r="BP94">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="95" spans="1:68">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>7825287</v>
+      </c>
+      <c r="C95" t="s">
+        <v>68</v>
+      </c>
+      <c r="D95" t="s">
+        <v>69</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45788.35763888889</v>
+      </c>
+      <c r="F95">
+        <v>12</v>
+      </c>
+      <c r="G95" t="s">
+        <v>80</v>
+      </c>
+      <c r="H95" t="s">
+        <v>82</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>2</v>
+      </c>
+      <c r="K95">
+        <v>2</v>
+      </c>
+      <c r="L95">
+        <v>2</v>
+      </c>
+      <c r="M95">
+        <v>2</v>
+      </c>
+      <c r="N95">
+        <v>4</v>
+      </c>
+      <c r="O95" t="s">
+        <v>162</v>
+      </c>
+      <c r="P95" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q95">
+        <v>2.88</v>
+      </c>
+      <c r="R95">
+        <v>2.25</v>
+      </c>
+      <c r="S95">
+        <v>3.5</v>
+      </c>
+      <c r="T95">
+        <v>1.33</v>
+      </c>
+      <c r="U95">
+        <v>3.25</v>
+      </c>
+      <c r="V95">
+        <v>2.63</v>
+      </c>
+      <c r="W95">
+        <v>1.44</v>
+      </c>
+      <c r="X95">
+        <v>7</v>
+      </c>
+      <c r="Y95">
+        <v>1.1</v>
+      </c>
+      <c r="Z95">
+        <v>2.2</v>
+      </c>
+      <c r="AA95">
+        <v>3.47</v>
+      </c>
+      <c r="AB95">
+        <v>2.79</v>
+      </c>
+      <c r="AC95">
+        <v>1.05</v>
+      </c>
+      <c r="AD95">
+        <v>8.5</v>
+      </c>
+      <c r="AE95">
+        <v>1.25</v>
+      </c>
+      <c r="AF95">
+        <v>3.6</v>
+      </c>
+      <c r="AG95">
+        <v>1.76</v>
+      </c>
+      <c r="AH95">
+        <v>1.94</v>
+      </c>
+      <c r="AI95">
+        <v>1.67</v>
+      </c>
+      <c r="AJ95">
+        <v>2.1</v>
+      </c>
+      <c r="AK95">
+        <v>1.35</v>
+      </c>
+      <c r="AL95">
+        <v>1.25</v>
+      </c>
+      <c r="AM95">
+        <v>1.62</v>
+      </c>
+      <c r="AN95">
+        <v>1.4</v>
+      </c>
+      <c r="AO95">
+        <v>0.5</v>
+      </c>
+      <c r="AP95">
+        <v>1.33</v>
+      </c>
+      <c r="AQ95">
+        <v>0.57</v>
+      </c>
+      <c r="AR95">
+        <v>2.07</v>
+      </c>
+      <c r="AS95">
+        <v>1.32</v>
+      </c>
+      <c r="AT95">
+        <v>3.39</v>
+      </c>
+      <c r="AU95">
+        <v>5</v>
+      </c>
+      <c r="AV95">
+        <v>3</v>
+      </c>
+      <c r="AW95">
+        <v>14</v>
+      </c>
+      <c r="AX95">
+        <v>4</v>
+      </c>
+      <c r="AY95">
+        <v>22</v>
+      </c>
+      <c r="AZ95">
+        <v>8</v>
+      </c>
+      <c r="BA95">
+        <v>6</v>
+      </c>
+      <c r="BB95">
+        <v>4</v>
+      </c>
+      <c r="BC95">
+        <v>10</v>
+      </c>
+      <c r="BD95">
+        <v>1.78</v>
+      </c>
+      <c r="BE95">
+        <v>6.75</v>
+      </c>
+      <c r="BF95">
+        <v>2.23</v>
+      </c>
+      <c r="BG95">
+        <v>1.27</v>
+      </c>
+      <c r="BH95">
+        <v>3.3</v>
+      </c>
+      <c r="BI95">
+        <v>1.48</v>
+      </c>
+      <c r="BJ95">
+        <v>2.45</v>
+      </c>
+      <c r="BK95">
+        <v>1.73</v>
+      </c>
+      <c r="BL95">
+        <v>2</v>
+      </c>
+      <c r="BM95">
+        <v>2.2</v>
+      </c>
+      <c r="BN95">
+        <v>1.58</v>
+      </c>
+      <c r="BO95">
+        <v>2.8</v>
+      </c>
+      <c r="BP95">
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/China Chinese Super League_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/China Chinese Super League_2025.xlsx
@@ -19748,10 +19748,10 @@
         <v>5</v>
       </c>
       <c r="BB91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC91">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD91">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/China Chinese Super League_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/China Chinese Super League_2025.xlsx
@@ -460,12 +460,12 @@
     <t>['5', '23', '48']</t>
   </si>
   <si>
+    <t>['9', '24', '45+2', '64']</t>
+  </si>
+  <si>
     <t>['54']</t>
   </si>
   <si>
-    <t>['9', '24', '45+2', '64']</t>
-  </si>
-  <si>
     <t>['74']</t>
   </si>
   <si>
@@ -559,12 +559,12 @@
     <t>['23']</t>
   </si>
   <si>
+    <t>['5', '45+3', '68']</t>
+  </si>
+  <si>
     <t>['27', '90+1']</t>
   </si>
   <si>
-    <t>['5', '45+3', '68']</t>
-  </si>
-  <si>
     <t>['90+10']</t>
   </si>
   <si>
@@ -640,10 +640,10 @@
     <t>['90', '90+7']</t>
   </si>
   <si>
+    <t>['13', '47']</t>
+  </si>
+  <si>
     <t>['63', '89']</t>
-  </si>
-  <si>
-    <t>['13', '47']</t>
   </si>
   <si>
     <t>['61']</t>
@@ -7232,7 +7232,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>7825222</v>
+        <v>7825221</v>
       </c>
       <c r="C31" t="s">
         <v>68</v>
@@ -7247,190 +7247,190 @@
         <v>4</v>
       </c>
       <c r="G31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H31" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O31" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="P31" t="s">
         <v>181</v>
       </c>
       <c r="Q31">
-        <v>3.42</v>
+        <v>2.9</v>
       </c>
       <c r="R31">
+        <v>2.19</v>
+      </c>
+      <c r="S31">
+        <v>3.3</v>
+      </c>
+      <c r="T31">
+        <v>1.32</v>
+      </c>
+      <c r="U31">
+        <v>3.1</v>
+      </c>
+      <c r="V31">
+        <v>2.57</v>
+      </c>
+      <c r="W31">
+        <v>1.44</v>
+      </c>
+      <c r="X31">
+        <v>6.25</v>
+      </c>
+      <c r="Y31">
+        <v>1.06</v>
+      </c>
+      <c r="Z31">
+        <v>2.41</v>
+      </c>
+      <c r="AA31">
+        <v>3.43</v>
+      </c>
+      <c r="AB31">
+        <v>2.79</v>
+      </c>
+      <c r="AC31">
+        <v>1.02</v>
+      </c>
+      <c r="AD31">
+        <v>12</v>
+      </c>
+      <c r="AE31">
+        <v>1.22</v>
+      </c>
+      <c r="AF31">
+        <v>3.93</v>
+      </c>
+      <c r="AG31">
+        <v>1.74</v>
+      </c>
+      <c r="AH31">
         <v>2.03</v>
       </c>
-      <c r="S31">
-        <v>3.12</v>
-      </c>
-      <c r="T31">
-        <v>1.39</v>
-      </c>
-      <c r="U31">
-        <v>2.77</v>
-      </c>
-      <c r="V31">
-        <v>2.65</v>
-      </c>
-      <c r="W31">
-        <v>1.42</v>
-      </c>
-      <c r="X31">
-        <v>6.4</v>
-      </c>
-      <c r="Y31">
-        <v>1.05</v>
-      </c>
-      <c r="Z31">
-        <v>2.78</v>
-      </c>
-      <c r="AA31">
-        <v>3.47</v>
-      </c>
-      <c r="AB31">
-        <v>2.37</v>
-      </c>
-      <c r="AC31">
-        <v>1</v>
-      </c>
-      <c r="AD31">
+      <c r="AI31">
+        <v>1.6</v>
+      </c>
+      <c r="AJ31">
+        <v>2.19</v>
+      </c>
+      <c r="AK31">
+        <v>1.43</v>
+      </c>
+      <c r="AL31">
+        <v>1.28</v>
+      </c>
+      <c r="AM31">
+        <v>1.56</v>
+      </c>
+      <c r="AN31">
+        <v>2</v>
+      </c>
+      <c r="AO31">
+        <v>1</v>
+      </c>
+      <c r="AP31">
+        <v>1.57</v>
+      </c>
+      <c r="AQ31">
+        <v>2.67</v>
+      </c>
+      <c r="AR31">
+        <v>2.46</v>
+      </c>
+      <c r="AS31">
+        <v>2.14</v>
+      </c>
+      <c r="AT31">
+        <v>4.6</v>
+      </c>
+      <c r="AU31">
+        <v>3</v>
+      </c>
+      <c r="AV31">
         <v>9</v>
       </c>
-      <c r="AE31">
-        <v>1.24</v>
-      </c>
-      <c r="AF31">
-        <v>3.69</v>
-      </c>
-      <c r="AG31">
-        <v>1.87</v>
-      </c>
-      <c r="AH31">
-        <v>1.87</v>
-      </c>
-      <c r="AI31">
-        <v>1.63</v>
-      </c>
-      <c r="AJ31">
-        <v>2.14</v>
-      </c>
-      <c r="AK31">
-        <v>1.5</v>
-      </c>
-      <c r="AL31">
-        <v>1.33</v>
-      </c>
-      <c r="AM31">
-        <v>1.42</v>
-      </c>
-      <c r="AN31">
-        <v>2</v>
-      </c>
-      <c r="AO31">
-        <v>2</v>
-      </c>
-      <c r="AP31">
-        <v>1.33</v>
-      </c>
-      <c r="AQ31">
-        <v>2</v>
-      </c>
-      <c r="AR31">
-        <v>3.11</v>
-      </c>
-      <c r="AS31">
-        <v>1.2</v>
-      </c>
-      <c r="AT31">
-        <v>4.31</v>
-      </c>
-      <c r="AU31">
-        <v>10</v>
-      </c>
-      <c r="AV31">
+      <c r="AW31">
+        <v>8</v>
+      </c>
+      <c r="AX31">
+        <v>8</v>
+      </c>
+      <c r="AY31">
+        <v>14</v>
+      </c>
+      <c r="AZ31">
+        <v>20</v>
+      </c>
+      <c r="BA31">
         <v>6</v>
       </c>
-      <c r="AW31">
+      <c r="BB31">
         <v>11</v>
       </c>
-      <c r="AX31">
-        <v>10</v>
-      </c>
-      <c r="AY31">
-        <v>25</v>
-      </c>
-      <c r="AZ31">
+      <c r="BC31">
         <v>17</v>
       </c>
-      <c r="BA31">
-        <v>8</v>
-      </c>
-      <c r="BB31">
-        <v>4</v>
-      </c>
-      <c r="BC31">
-        <v>12</v>
-      </c>
       <c r="BD31">
-        <v>2.07</v>
+        <v>1.86</v>
       </c>
       <c r="BE31">
         <v>6.4</v>
       </c>
       <c r="BF31">
-        <v>1.94</v>
+        <v>2.15</v>
       </c>
       <c r="BG31">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="BH31">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="BI31">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="BJ31">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="BK31">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="BL31">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="BM31">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="BN31">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="BO31">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="BP31">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="32" spans="1:68">
@@ -7438,7 +7438,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>7825221</v>
+        <v>7825222</v>
       </c>
       <c r="C32" t="s">
         <v>68</v>
@@ -7453,190 +7453,190 @@
         <v>4</v>
       </c>
       <c r="G32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H32" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O32" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="P32" t="s">
         <v>182</v>
       </c>
       <c r="Q32">
-        <v>2.9</v>
+        <v>3.42</v>
       </c>
       <c r="R32">
-        <v>2.19</v>
+        <v>2.03</v>
       </c>
       <c r="S32">
-        <v>3.3</v>
+        <v>3.12</v>
       </c>
       <c r="T32">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="U32">
-        <v>3.1</v>
+        <v>2.77</v>
       </c>
       <c r="V32">
-        <v>2.57</v>
+        <v>2.65</v>
       </c>
       <c r="W32">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="X32">
-        <v>6.25</v>
+        <v>6.4</v>
       </c>
       <c r="Y32">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="Z32">
-        <v>2.41</v>
+        <v>2.78</v>
       </c>
       <c r="AA32">
-        <v>3.43</v>
+        <v>3.47</v>
       </c>
       <c r="AB32">
-        <v>2.79</v>
+        <v>2.37</v>
       </c>
       <c r="AC32">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="AD32">
+        <v>9</v>
+      </c>
+      <c r="AE32">
+        <v>1.24</v>
+      </c>
+      <c r="AF32">
+        <v>3.69</v>
+      </c>
+      <c r="AG32">
+        <v>1.87</v>
+      </c>
+      <c r="AH32">
+        <v>1.87</v>
+      </c>
+      <c r="AI32">
+        <v>1.63</v>
+      </c>
+      <c r="AJ32">
+        <v>2.14</v>
+      </c>
+      <c r="AK32">
+        <v>1.5</v>
+      </c>
+      <c r="AL32">
+        <v>1.33</v>
+      </c>
+      <c r="AM32">
+        <v>1.42</v>
+      </c>
+      <c r="AN32">
+        <v>2</v>
+      </c>
+      <c r="AO32">
+        <v>2</v>
+      </c>
+      <c r="AP32">
+        <v>1.33</v>
+      </c>
+      <c r="AQ32">
+        <v>2</v>
+      </c>
+      <c r="AR32">
+        <v>3.11</v>
+      </c>
+      <c r="AS32">
+        <v>1.2</v>
+      </c>
+      <c r="AT32">
+        <v>4.31</v>
+      </c>
+      <c r="AU32">
+        <v>10</v>
+      </c>
+      <c r="AV32">
+        <v>6</v>
+      </c>
+      <c r="AW32">
+        <v>11</v>
+      </c>
+      <c r="AX32">
+        <v>10</v>
+      </c>
+      <c r="AY32">
+        <v>25</v>
+      </c>
+      <c r="AZ32">
+        <v>17</v>
+      </c>
+      <c r="BA32">
+        <v>8</v>
+      </c>
+      <c r="BB32">
+        <v>4</v>
+      </c>
+      <c r="BC32">
         <v>12</v>
       </c>
-      <c r="AE32">
-        <v>1.22</v>
-      </c>
-      <c r="AF32">
-        <v>3.93</v>
-      </c>
-      <c r="AG32">
-        <v>1.74</v>
-      </c>
-      <c r="AH32">
-        <v>2.03</v>
-      </c>
-      <c r="AI32">
-        <v>1.6</v>
-      </c>
-      <c r="AJ32">
-        <v>2.19</v>
-      </c>
-      <c r="AK32">
-        <v>1.43</v>
-      </c>
-      <c r="AL32">
-        <v>1.28</v>
-      </c>
-      <c r="AM32">
-        <v>1.56</v>
-      </c>
-      <c r="AN32">
-        <v>2</v>
-      </c>
-      <c r="AO32">
-        <v>1</v>
-      </c>
-      <c r="AP32">
-        <v>1.57</v>
-      </c>
-      <c r="AQ32">
-        <v>2.67</v>
-      </c>
-      <c r="AR32">
-        <v>2.46</v>
-      </c>
-      <c r="AS32">
-        <v>2.14</v>
-      </c>
-      <c r="AT32">
-        <v>4.6</v>
-      </c>
-      <c r="AU32">
-        <v>3</v>
-      </c>
-      <c r="AV32">
-        <v>9</v>
-      </c>
-      <c r="AW32">
-        <v>8</v>
-      </c>
-      <c r="AX32">
-        <v>8</v>
-      </c>
-      <c r="AY32">
-        <v>14</v>
-      </c>
-      <c r="AZ32">
-        <v>20</v>
-      </c>
-      <c r="BA32">
-        <v>6</v>
-      </c>
-      <c r="BB32">
-        <v>11</v>
-      </c>
-      <c r="BC32">
-        <v>17</v>
-      </c>
       <c r="BD32">
-        <v>1.86</v>
+        <v>2.07</v>
       </c>
       <c r="BE32">
         <v>6.4</v>
       </c>
       <c r="BF32">
-        <v>2.15</v>
+        <v>1.94</v>
       </c>
       <c r="BG32">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="BH32">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="BI32">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="BJ32">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="BK32">
-        <v>1.98</v>
+        <v>2.07</v>
       </c>
       <c r="BL32">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
       <c r="BM32">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="BN32">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="BO32">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="BP32">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="33" spans="1:68">
@@ -16090,7 +16090,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>7825267</v>
+        <v>7825266</v>
       </c>
       <c r="C74" t="s">
         <v>68</v>
@@ -16105,28 +16105,28 @@
         <v>10</v>
       </c>
       <c r="G74" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H74" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K74">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L74">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M74">
         <v>2</v>
       </c>
       <c r="N74">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O74" t="s">
         <v>148</v>
@@ -16135,142 +16135,142 @@
         <v>208</v>
       </c>
       <c r="Q74">
+        <v>2.2</v>
+      </c>
+      <c r="R74">
         <v>2.5</v>
       </c>
-      <c r="R74">
+      <c r="S74">
+        <v>4.5</v>
+      </c>
+      <c r="T74">
+        <v>1.29</v>
+      </c>
+      <c r="U74">
+        <v>3.5</v>
+      </c>
+      <c r="V74">
         <v>2.25</v>
       </c>
-      <c r="S74">
-        <v>4</v>
-      </c>
-      <c r="T74">
-        <v>1.36</v>
-      </c>
-      <c r="U74">
+      <c r="W74">
+        <v>1.57</v>
+      </c>
+      <c r="X74">
+        <v>5.5</v>
+      </c>
+      <c r="Y74">
+        <v>1.14</v>
+      </c>
+      <c r="Z74">
+        <v>1.65</v>
+      </c>
+      <c r="AA74">
+        <v>3.9</v>
+      </c>
+      <c r="AB74">
+        <v>4.2</v>
+      </c>
+      <c r="AC74">
+        <v>1.03</v>
+      </c>
+      <c r="AD74">
+        <v>10</v>
+      </c>
+      <c r="AE74">
+        <v>1.17</v>
+      </c>
+      <c r="AF74">
+        <v>4.75</v>
+      </c>
+      <c r="AG74">
+        <v>1.53</v>
+      </c>
+      <c r="AH74">
+        <v>2.25</v>
+      </c>
+      <c r="AI74">
+        <v>1.57</v>
+      </c>
+      <c r="AJ74">
+        <v>2.25</v>
+      </c>
+      <c r="AK74">
+        <v>1.15</v>
+      </c>
+      <c r="AL74">
+        <v>1.18</v>
+      </c>
+      <c r="AM74">
+        <v>2.15</v>
+      </c>
+      <c r="AN74">
+        <v>2</v>
+      </c>
+      <c r="AO74">
+        <v>0.6</v>
+      </c>
+      <c r="AP74">
+        <v>2.2</v>
+      </c>
+      <c r="AQ74">
+        <v>0.43</v>
+      </c>
+      <c r="AR74">
+        <v>1.47</v>
+      </c>
+      <c r="AS74">
+        <v>1.2</v>
+      </c>
+      <c r="AT74">
+        <v>2.67</v>
+      </c>
+      <c r="AU74">
+        <v>8</v>
+      </c>
+      <c r="AV74">
+        <v>6</v>
+      </c>
+      <c r="AW74">
+        <v>11</v>
+      </c>
+      <c r="AX74">
+        <v>8</v>
+      </c>
+      <c r="AY74">
+        <v>19</v>
+      </c>
+      <c r="AZ74">
+        <v>16</v>
+      </c>
+      <c r="BA74">
         <v>3</v>
       </c>
-      <c r="V74">
-        <v>2.63</v>
-      </c>
-      <c r="W74">
-        <v>1.44</v>
-      </c>
-      <c r="X74">
+      <c r="BB74">
         <v>7</v>
       </c>
-      <c r="Y74">
-        <v>1.1</v>
-      </c>
-      <c r="Z74">
-        <v>1.96</v>
-      </c>
-      <c r="AA74">
-        <v>3.39</v>
-      </c>
-      <c r="AB74">
-        <v>3.39</v>
-      </c>
-      <c r="AC74">
-        <v>1.05</v>
-      </c>
-      <c r="AD74">
-        <v>8.5</v>
-      </c>
-      <c r="AE74">
-        <v>1.25</v>
-      </c>
-      <c r="AF74">
+      <c r="BC74">
+        <v>10</v>
+      </c>
+      <c r="BD74">
+        <v>1.41</v>
+      </c>
+      <c r="BE74">
+        <v>9</v>
+      </c>
+      <c r="BF74">
+        <v>3.45</v>
+      </c>
+      <c r="BG74">
+        <v>1.22</v>
+      </c>
+      <c r="BH74">
         <v>3.65</v>
       </c>
-      <c r="AG74">
-        <v>1.75</v>
-      </c>
-      <c r="AH74">
-        <v>1.91</v>
-      </c>
-      <c r="AI74">
-        <v>1.7</v>
-      </c>
-      <c r="AJ74">
-        <v>2.05</v>
-      </c>
-      <c r="AK74">
-        <v>1.28</v>
-      </c>
-      <c r="AL74">
-        <v>1.25</v>
-      </c>
-      <c r="AM74">
-        <v>1.77</v>
-      </c>
-      <c r="AN74">
-        <v>1</v>
-      </c>
-      <c r="AO74">
-        <v>0.2</v>
-      </c>
-      <c r="AP74">
-        <v>0.6</v>
-      </c>
-      <c r="AQ74">
-        <v>0.67</v>
-      </c>
-      <c r="AR74">
-        <v>1.26</v>
-      </c>
-      <c r="AS74">
-        <v>0.99</v>
-      </c>
-      <c r="AT74">
-        <v>2.25</v>
-      </c>
-      <c r="AU74">
-        <v>6</v>
-      </c>
-      <c r="AV74">
-        <v>5</v>
-      </c>
-      <c r="AW74">
-        <v>9</v>
-      </c>
-      <c r="AX74">
-        <v>3</v>
-      </c>
-      <c r="AY74">
-        <v>16</v>
-      </c>
-      <c r="AZ74">
-        <v>8</v>
-      </c>
-      <c r="BA74">
-        <v>9</v>
-      </c>
-      <c r="BB74">
-        <v>2</v>
-      </c>
-      <c r="BC74">
-        <v>11</v>
-      </c>
-      <c r="BD74">
-        <v>1.53</v>
-      </c>
-      <c r="BE74">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="BF74">
-        <v>2.93</v>
-      </c>
-      <c r="BG74">
-        <v>1.21</v>
-      </c>
-      <c r="BH74">
-        <v>3.75</v>
-      </c>
       <c r="BI74">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="BJ74">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="BK74">
         <v>1.7</v>
@@ -16285,10 +16285,10 @@
         <v>1.7</v>
       </c>
       <c r="BO74">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="BP74">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="75" spans="1:68">
@@ -16296,7 +16296,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>7825266</v>
+        <v>7825267</v>
       </c>
       <c r="C75" t="s">
         <v>68</v>
@@ -16311,28 +16311,28 @@
         <v>10</v>
       </c>
       <c r="G75" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H75" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>2</v>
+      </c>
+      <c r="N75">
         <v>3</v>
-      </c>
-      <c r="J75">
-        <v>1</v>
-      </c>
-      <c r="K75">
-        <v>4</v>
-      </c>
-      <c r="L75">
-        <v>4</v>
-      </c>
-      <c r="M75">
-        <v>2</v>
-      </c>
-      <c r="N75">
-        <v>6</v>
       </c>
       <c r="O75" t="s">
         <v>149</v>
@@ -16341,142 +16341,142 @@
         <v>209</v>
       </c>
       <c r="Q75">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="R75">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="S75">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="T75">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="U75">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="V75">
+        <v>2.63</v>
+      </c>
+      <c r="W75">
+        <v>1.44</v>
+      </c>
+      <c r="X75">
+        <v>7</v>
+      </c>
+      <c r="Y75">
+        <v>1.1</v>
+      </c>
+      <c r="Z75">
+        <v>1.96</v>
+      </c>
+      <c r="AA75">
+        <v>3.39</v>
+      </c>
+      <c r="AB75">
+        <v>3.39</v>
+      </c>
+      <c r="AC75">
+        <v>1.05</v>
+      </c>
+      <c r="AD75">
+        <v>8.5</v>
+      </c>
+      <c r="AE75">
+        <v>1.25</v>
+      </c>
+      <c r="AF75">
+        <v>3.65</v>
+      </c>
+      <c r="AG75">
+        <v>1.75</v>
+      </c>
+      <c r="AH75">
+        <v>1.91</v>
+      </c>
+      <c r="AI75">
+        <v>1.7</v>
+      </c>
+      <c r="AJ75">
+        <v>2.05</v>
+      </c>
+      <c r="AK75">
+        <v>1.28</v>
+      </c>
+      <c r="AL75">
+        <v>1.25</v>
+      </c>
+      <c r="AM75">
+        <v>1.77</v>
+      </c>
+      <c r="AN75">
+        <v>1</v>
+      </c>
+      <c r="AO75">
+        <v>0.2</v>
+      </c>
+      <c r="AP75">
+        <v>0.6</v>
+      </c>
+      <c r="AQ75">
+        <v>0.67</v>
+      </c>
+      <c r="AR75">
+        <v>1.26</v>
+      </c>
+      <c r="AS75">
+        <v>0.99</v>
+      </c>
+      <c r="AT75">
         <v>2.25</v>
       </c>
-      <c r="W75">
-        <v>1.57</v>
-      </c>
-      <c r="X75">
-        <v>5.5</v>
-      </c>
-      <c r="Y75">
-        <v>1.14</v>
-      </c>
-      <c r="Z75">
-        <v>1.65</v>
-      </c>
-      <c r="AA75">
-        <v>3.9</v>
-      </c>
-      <c r="AB75">
-        <v>4.2</v>
-      </c>
-      <c r="AC75">
-        <v>1.03</v>
-      </c>
-      <c r="AD75">
-        <v>10</v>
-      </c>
-      <c r="AE75">
-        <v>1.17</v>
-      </c>
-      <c r="AF75">
-        <v>4.75</v>
-      </c>
-      <c r="AG75">
+      <c r="AU75">
+        <v>6</v>
+      </c>
+      <c r="AV75">
+        <v>5</v>
+      </c>
+      <c r="AW75">
+        <v>9</v>
+      </c>
+      <c r="AX75">
+        <v>3</v>
+      </c>
+      <c r="AY75">
+        <v>16</v>
+      </c>
+      <c r="AZ75">
+        <v>8</v>
+      </c>
+      <c r="BA75">
+        <v>9</v>
+      </c>
+      <c r="BB75">
+        <v>2</v>
+      </c>
+      <c r="BC75">
+        <v>11</v>
+      </c>
+      <c r="BD75">
         <v>1.53</v>
       </c>
-      <c r="AH75">
-        <v>2.25</v>
-      </c>
-      <c r="AI75">
-        <v>1.57</v>
-      </c>
-      <c r="AJ75">
-        <v>2.25</v>
-      </c>
-      <c r="AK75">
-        <v>1.15</v>
-      </c>
-      <c r="AL75">
-        <v>1.18</v>
-      </c>
-      <c r="AM75">
-        <v>2.15</v>
-      </c>
-      <c r="AN75">
-        <v>2</v>
-      </c>
-      <c r="AO75">
-        <v>0.6</v>
-      </c>
-      <c r="AP75">
-        <v>2.2</v>
-      </c>
-      <c r="AQ75">
-        <v>0.43</v>
-      </c>
-      <c r="AR75">
-        <v>1.47</v>
-      </c>
-      <c r="AS75">
-        <v>1.2</v>
-      </c>
-      <c r="AT75">
-        <v>2.67</v>
-      </c>
-      <c r="AU75">
-        <v>8</v>
-      </c>
-      <c r="AV75">
-        <v>6</v>
-      </c>
-      <c r="AW75">
-        <v>11</v>
-      </c>
-      <c r="AX75">
-        <v>8</v>
-      </c>
-      <c r="AY75">
-        <v>19</v>
-      </c>
-      <c r="AZ75">
-        <v>16</v>
-      </c>
-      <c r="BA75">
-        <v>3</v>
-      </c>
-      <c r="BB75">
-        <v>7</v>
-      </c>
-      <c r="BC75">
-        <v>10</v>
-      </c>
-      <c r="BD75">
+      <c r="BE75">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="BF75">
+        <v>2.93</v>
+      </c>
+      <c r="BG75">
+        <v>1.21</v>
+      </c>
+      <c r="BH75">
+        <v>3.75</v>
+      </c>
+      <c r="BI75">
         <v>1.41</v>
       </c>
-      <c r="BE75">
-        <v>9</v>
-      </c>
-      <c r="BF75">
-        <v>3.45</v>
-      </c>
-      <c r="BG75">
-        <v>1.22</v>
-      </c>
-      <c r="BH75">
-        <v>3.65</v>
-      </c>
-      <c r="BI75">
-        <v>1.42</v>
-      </c>
       <c r="BJ75">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="BK75">
         <v>1.7</v>
@@ -16491,10 +16491,10 @@
         <v>1.7</v>
       </c>
       <c r="BO75">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="BP75">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="76" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/China Chinese Super League_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/China Chinese Super League_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="225">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -505,6 +505,12 @@
     <t>['89', '90+4']</t>
   </si>
   <si>
+    <t>['38', '44']</t>
+  </si>
+  <si>
+    <t>['19', '48']</t>
+  </si>
+  <si>
     <t>['53', '79']</t>
   </si>
   <si>
@@ -680,6 +686,9 @@
   </si>
   <si>
     <t>['14', '34']</t>
+  </si>
+  <si>
+    <t>['7', '87']</t>
   </si>
 </sst>
 </file>
@@ -1041,7 +1050,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP95"/>
+  <dimension ref="A1:BP97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1712,7 +1721,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1790,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ4">
         <v>2</v>
@@ -1918,7 +1927,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q5">
         <v>2.85</v>
@@ -2124,7 +2133,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q6">
         <v>2.2</v>
@@ -2202,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ6">
         <v>0.57</v>
@@ -2411,7 +2420,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ7">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2536,7 +2545,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q8">
         <v>2.04</v>
@@ -2617,7 +2626,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ8">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2742,7 +2751,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q9">
         <v>1.5</v>
@@ -2948,7 +2957,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q10">
         <v>2.1</v>
@@ -3360,7 +3369,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3566,7 +3575,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -3647,7 +3656,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ13">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3772,7 +3781,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q14">
         <v>2.13</v>
@@ -3978,7 +3987,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q15">
         <v>3.2</v>
@@ -4056,7 +4065,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ15">
         <v>0.57</v>
@@ -4184,7 +4193,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4596,7 +4605,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4802,7 +4811,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q19">
         <v>3.75</v>
@@ -5008,7 +5017,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q20">
         <v>3.25</v>
@@ -5626,7 +5635,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5832,7 +5841,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -6038,7 +6047,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6244,7 +6253,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6528,7 +6537,7 @@
         <v>1.5</v>
       </c>
       <c r="AP27">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ27">
         <v>0.57</v>
@@ -6862,7 +6871,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -7274,7 +7283,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q31">
         <v>2.9</v>
@@ -7480,7 +7489,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q32">
         <v>3.42</v>
@@ -7686,7 +7695,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q33">
         <v>1.56</v>
@@ -7767,7 +7776,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ33">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR33">
         <v>2.3</v>
@@ -7892,7 +7901,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q34">
         <v>3.25</v>
@@ -7973,7 +7982,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ34">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR34">
         <v>2.26</v>
@@ -8098,7 +8107,7 @@
         <v>115</v>
       </c>
       <c r="P35" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q35">
         <v>4.25</v>
@@ -8304,7 +8313,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q36">
         <v>3.15</v>
@@ -8510,7 +8519,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q37">
         <v>2.75</v>
@@ -8922,7 +8931,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9412,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ41">
         <v>0.17</v>
@@ -9746,7 +9755,7 @@
         <v>123</v>
       </c>
       <c r="P43" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9952,7 +9961,7 @@
         <v>124</v>
       </c>
       <c r="P44" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q44">
         <v>3.2</v>
@@ -10158,7 +10167,7 @@
         <v>88</v>
       </c>
       <c r="P45" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q45">
         <v>7.5</v>
@@ -10364,7 +10373,7 @@
         <v>125</v>
       </c>
       <c r="P46" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q46">
         <v>3.1</v>
@@ -10570,7 +10579,7 @@
         <v>126</v>
       </c>
       <c r="P47" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q47">
         <v>1.95</v>
@@ -10776,7 +10785,7 @@
         <v>127</v>
       </c>
       <c r="P48" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q48">
         <v>3.7</v>
@@ -10982,7 +10991,7 @@
         <v>128</v>
       </c>
       <c r="P49" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q49">
         <v>4.33</v>
@@ -11188,7 +11197,7 @@
         <v>129</v>
       </c>
       <c r="P50" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q50">
         <v>2.65</v>
@@ -11394,7 +11403,7 @@
         <v>130</v>
       </c>
       <c r="P51" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q51">
         <v>4.15</v>
@@ -11681,7 +11690,7 @@
         <v>2</v>
       </c>
       <c r="AQ52">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR52">
         <v>2.18</v>
@@ -11806,7 +11815,7 @@
         <v>132</v>
       </c>
       <c r="P53" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q53">
         <v>1.8</v>
@@ -11884,10 +11893,10 @@
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ53">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR53">
         <v>1.5</v>
@@ -12012,7 +12021,7 @@
         <v>104</v>
       </c>
       <c r="P54" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q54">
         <v>1.71</v>
@@ -12218,7 +12227,7 @@
         <v>133</v>
       </c>
       <c r="P55" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q55">
         <v>1.45</v>
@@ -12630,7 +12639,7 @@
         <v>135</v>
       </c>
       <c r="P57" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q57">
         <v>2.88</v>
@@ -13866,7 +13875,7 @@
         <v>140</v>
       </c>
       <c r="P63" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q63">
         <v>2.88</v>
@@ -14153,7 +14162,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ64">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR64">
         <v>2.07</v>
@@ -14278,7 +14287,7 @@
         <v>142</v>
       </c>
       <c r="P65" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q65">
         <v>4.5</v>
@@ -14356,7 +14365,7 @@
         <v>2</v>
       </c>
       <c r="AP65">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ65">
         <v>2.5</v>
@@ -14484,7 +14493,7 @@
         <v>143</v>
       </c>
       <c r="P66" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q66">
         <v>5.2</v>
@@ -14690,7 +14699,7 @@
         <v>144</v>
       </c>
       <c r="P67" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q67">
         <v>3.22</v>
@@ -14896,7 +14905,7 @@
         <v>88</v>
       </c>
       <c r="P68" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q68">
         <v>3.24</v>
@@ -15102,7 +15111,7 @@
         <v>145</v>
       </c>
       <c r="P69" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q69">
         <v>3.18</v>
@@ -15308,7 +15317,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q70">
         <v>3.22</v>
@@ -15389,7 +15398,7 @@
         <v>1</v>
       </c>
       <c r="AQ70">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR70">
         <v>1.3</v>
@@ -15514,7 +15523,7 @@
         <v>146</v>
       </c>
       <c r="P71" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q71">
         <v>2.1</v>
@@ -15592,7 +15601,7 @@
         <v>2</v>
       </c>
       <c r="AP71">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ71">
         <v>1</v>
@@ -15720,7 +15729,7 @@
         <v>147</v>
       </c>
       <c r="P72" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q72">
         <v>2.75</v>
@@ -16132,7 +16141,7 @@
         <v>148</v>
       </c>
       <c r="P74" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q74">
         <v>2.2</v>
@@ -16210,7 +16219,7 @@
         <v>0.6</v>
       </c>
       <c r="AP74">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ74">
         <v>0.43</v>
@@ -16338,7 +16347,7 @@
         <v>149</v>
       </c>
       <c r="P75" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q75">
         <v>2.5</v>
@@ -16544,7 +16553,7 @@
         <v>150</v>
       </c>
       <c r="P76" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q76">
         <v>1.57</v>
@@ -16750,7 +16759,7 @@
         <v>151</v>
       </c>
       <c r="P77" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q77">
         <v>2.63</v>
@@ -17037,7 +17046,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ78">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR78">
         <v>1.12</v>
@@ -17368,7 +17377,7 @@
         <v>88</v>
       </c>
       <c r="P80" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q80">
         <v>3.6</v>
@@ -17574,7 +17583,7 @@
         <v>154</v>
       </c>
       <c r="P81" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q81">
         <v>2.6</v>
@@ -17780,7 +17789,7 @@
         <v>88</v>
       </c>
       <c r="P82" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q82">
         <v>4.5</v>
@@ -18398,7 +18407,7 @@
         <v>157</v>
       </c>
       <c r="P85" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -18476,7 +18485,7 @@
         <v>2.25</v>
       </c>
       <c r="AP85">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ85">
         <v>1.8</v>
@@ -18604,7 +18613,7 @@
         <v>114</v>
       </c>
       <c r="P86" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q86">
         <v>5.5</v>
@@ -19016,7 +19025,7 @@
         <v>158</v>
       </c>
       <c r="P88" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q88">
         <v>1.53</v>
@@ -19428,7 +19437,7 @@
         <v>88</v>
       </c>
       <c r="P90" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q90">
         <v>6</v>
@@ -19634,7 +19643,7 @@
         <v>160</v>
       </c>
       <c r="P91" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q91">
         <v>2.2</v>
@@ -19840,7 +19849,7 @@
         <v>161</v>
       </c>
       <c r="P92" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q92">
         <v>1.8</v>
@@ -20046,7 +20055,7 @@
         <v>88</v>
       </c>
       <c r="P93" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q93">
         <v>3.5</v>
@@ -20127,7 +20136,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ93">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR93">
         <v>1.27</v>
@@ -20458,7 +20467,7 @@
         <v>162</v>
       </c>
       <c r="P95" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q95">
         <v>2.88</v>
@@ -20615,6 +20624,418 @@
       </c>
       <c r="BP95">
         <v>1.37</v>
+      </c>
+    </row>
+    <row r="96" spans="1:68">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>7825288</v>
+      </c>
+      <c r="C96" t="s">
+        <v>68</v>
+      </c>
+      <c r="D96" t="s">
+        <v>69</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45793.35763888889</v>
+      </c>
+      <c r="F96">
+        <v>13</v>
+      </c>
+      <c r="G96" t="s">
+        <v>74</v>
+      </c>
+      <c r="H96" t="s">
+        <v>83</v>
+      </c>
+      <c r="I96">
+        <v>2</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="K96">
+        <v>3</v>
+      </c>
+      <c r="L96">
+        <v>2</v>
+      </c>
+      <c r="M96">
+        <v>2</v>
+      </c>
+      <c r="N96">
+        <v>4</v>
+      </c>
+      <c r="O96" t="s">
+        <v>163</v>
+      </c>
+      <c r="P96" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q96">
+        <v>2.38</v>
+      </c>
+      <c r="R96">
+        <v>2.3</v>
+      </c>
+      <c r="S96">
+        <v>3.8</v>
+      </c>
+      <c r="T96">
+        <v>1.28</v>
+      </c>
+      <c r="U96">
+        <v>3.35</v>
+      </c>
+      <c r="V96">
+        <v>2.25</v>
+      </c>
+      <c r="W96">
+        <v>1.57</v>
+      </c>
+      <c r="X96">
+        <v>5.25</v>
+      </c>
+      <c r="Y96">
+        <v>1.11</v>
+      </c>
+      <c r="Z96">
+        <v>1.86</v>
+      </c>
+      <c r="AA96">
+        <v>3.73</v>
+      </c>
+      <c r="AB96">
+        <v>3.41</v>
+      </c>
+      <c r="AC96">
+        <v>1.03</v>
+      </c>
+      <c r="AD96">
+        <v>10</v>
+      </c>
+      <c r="AE96">
+        <v>1.18</v>
+      </c>
+      <c r="AF96">
+        <v>4.5</v>
+      </c>
+      <c r="AG96">
+        <v>1.55</v>
+      </c>
+      <c r="AH96">
+        <v>2.2</v>
+      </c>
+      <c r="AI96">
+        <v>1.48</v>
+      </c>
+      <c r="AJ96">
+        <v>2.35</v>
+      </c>
+      <c r="AK96">
+        <v>1.28</v>
+      </c>
+      <c r="AL96">
+        <v>1.2</v>
+      </c>
+      <c r="AM96">
+        <v>1.83</v>
+      </c>
+      <c r="AN96">
+        <v>2.2</v>
+      </c>
+      <c r="AO96">
+        <v>1.17</v>
+      </c>
+      <c r="AP96">
+        <v>2</v>
+      </c>
+      <c r="AQ96">
+        <v>1.14</v>
+      </c>
+      <c r="AR96">
+        <v>1.59</v>
+      </c>
+      <c r="AS96">
+        <v>1.56</v>
+      </c>
+      <c r="AT96">
+        <v>3.15</v>
+      </c>
+      <c r="AU96">
+        <v>5</v>
+      </c>
+      <c r="AV96">
+        <v>6</v>
+      </c>
+      <c r="AW96">
+        <v>7</v>
+      </c>
+      <c r="AX96">
+        <v>8</v>
+      </c>
+      <c r="AY96">
+        <v>12</v>
+      </c>
+      <c r="AZ96">
+        <v>14</v>
+      </c>
+      <c r="BA96">
+        <v>3</v>
+      </c>
+      <c r="BB96">
+        <v>6</v>
+      </c>
+      <c r="BC96">
+        <v>9</v>
+      </c>
+      <c r="BD96">
+        <v>1.75</v>
+      </c>
+      <c r="BE96">
+        <v>6.75</v>
+      </c>
+      <c r="BF96">
+        <v>2.28</v>
+      </c>
+      <c r="BG96">
+        <v>1.2</v>
+      </c>
+      <c r="BH96">
+        <v>3.8</v>
+      </c>
+      <c r="BI96">
+        <v>1.37</v>
+      </c>
+      <c r="BJ96">
+        <v>2.8</v>
+      </c>
+      <c r="BK96">
+        <v>1.61</v>
+      </c>
+      <c r="BL96">
+        <v>2.15</v>
+      </c>
+      <c r="BM96">
+        <v>1.95</v>
+      </c>
+      <c r="BN96">
+        <v>1.74</v>
+      </c>
+      <c r="BO96">
+        <v>2.43</v>
+      </c>
+      <c r="BP96">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="97" spans="1:68">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>7825289</v>
+      </c>
+      <c r="C97" t="s">
+        <v>68</v>
+      </c>
+      <c r="D97" t="s">
+        <v>69</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45793.375</v>
+      </c>
+      <c r="F97">
+        <v>13</v>
+      </c>
+      <c r="G97" t="s">
+        <v>72</v>
+      </c>
+      <c r="H97" t="s">
+        <v>78</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97">
+        <v>2</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>2</v>
+      </c>
+      <c r="O97" t="s">
+        <v>164</v>
+      </c>
+      <c r="P97" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q97">
+        <v>2.4</v>
+      </c>
+      <c r="R97">
+        <v>2.25</v>
+      </c>
+      <c r="S97">
+        <v>3.85</v>
+      </c>
+      <c r="T97">
+        <v>1.3</v>
+      </c>
+      <c r="U97">
+        <v>3.2</v>
+      </c>
+      <c r="V97">
+        <v>2.4</v>
+      </c>
+      <c r="W97">
+        <v>1.5</v>
+      </c>
+      <c r="X97">
+        <v>6.2</v>
+      </c>
+      <c r="Y97">
+        <v>1.06</v>
+      </c>
+      <c r="Z97">
+        <v>1.63</v>
+      </c>
+      <c r="AA97">
+        <v>3.9</v>
+      </c>
+      <c r="AB97">
+        <v>4.33</v>
+      </c>
+      <c r="AC97">
+        <v>1.04</v>
+      </c>
+      <c r="AD97">
+        <v>9.5</v>
+      </c>
+      <c r="AE97">
+        <v>1.2</v>
+      </c>
+      <c r="AF97">
+        <v>4.2</v>
+      </c>
+      <c r="AG97">
+        <v>1.61</v>
+      </c>
+      <c r="AH97">
+        <v>2.05</v>
+      </c>
+      <c r="AI97">
+        <v>1.55</v>
+      </c>
+      <c r="AJ97">
+        <v>2.2</v>
+      </c>
+      <c r="AK97">
+        <v>1.28</v>
+      </c>
+      <c r="AL97">
+        <v>1.22</v>
+      </c>
+      <c r="AM97">
+        <v>1.83</v>
+      </c>
+      <c r="AN97">
+        <v>1.4</v>
+      </c>
+      <c r="AO97">
+        <v>0.6</v>
+      </c>
+      <c r="AP97">
+        <v>1.67</v>
+      </c>
+      <c r="AQ97">
+        <v>0.5</v>
+      </c>
+      <c r="AR97">
+        <v>1.63</v>
+      </c>
+      <c r="AS97">
+        <v>1.32</v>
+      </c>
+      <c r="AT97">
+        <v>2.95</v>
+      </c>
+      <c r="AU97">
+        <v>5</v>
+      </c>
+      <c r="AV97">
+        <v>4</v>
+      </c>
+      <c r="AW97">
+        <v>6</v>
+      </c>
+      <c r="AX97">
+        <v>6</v>
+      </c>
+      <c r="AY97">
+        <v>11</v>
+      </c>
+      <c r="AZ97">
+        <v>11</v>
+      </c>
+      <c r="BA97">
+        <v>3</v>
+      </c>
+      <c r="BB97">
+        <v>11</v>
+      </c>
+      <c r="BC97">
+        <v>14</v>
+      </c>
+      <c r="BD97">
+        <v>1.68</v>
+      </c>
+      <c r="BE97">
+        <v>6.75</v>
+      </c>
+      <c r="BF97">
+        <v>2.43</v>
+      </c>
+      <c r="BG97">
+        <v>1.25</v>
+      </c>
+      <c r="BH97">
+        <v>3.45</v>
+      </c>
+      <c r="BI97">
+        <v>1.44</v>
+      </c>
+      <c r="BJ97">
+        <v>2.55</v>
+      </c>
+      <c r="BK97">
+        <v>1.71</v>
+      </c>
+      <c r="BL97">
+        <v>2</v>
+      </c>
+      <c r="BM97">
+        <v>2.1</v>
+      </c>
+      <c r="BN97">
+        <v>1.63</v>
+      </c>
+      <c r="BO97">
+        <v>2.65</v>
+      </c>
+      <c r="BP97">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/China Chinese Super League_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/China Chinese Super League_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="227">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -511,6 +511,9 @@
     <t>['19', '48']</t>
   </si>
   <si>
+    <t>['89']</t>
+  </si>
+  <si>
     <t>['53', '79']</t>
   </si>
   <si>
@@ -595,9 +598,6 @@
     <t>['30']</t>
   </si>
   <si>
-    <t>['89']</t>
-  </si>
-  <si>
     <t>['69', '71']</t>
   </si>
   <si>
@@ -689,6 +689,12 @@
   </si>
   <si>
     <t>['7', '87']</t>
+  </si>
+  <si>
+    <t>['34', '38', '52']</t>
+  </si>
+  <si>
+    <t>['8', '67']</t>
   </si>
 </sst>
 </file>
@@ -1050,7 +1056,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP97"/>
+  <dimension ref="A1:BP99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1721,7 +1727,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1927,7 +1933,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q5">
         <v>2.85</v>
@@ -2133,7 +2139,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q6">
         <v>2.2</v>
@@ -2545,7 +2551,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q8">
         <v>2.04</v>
@@ -2751,7 +2757,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q9">
         <v>1.5</v>
@@ -2957,7 +2963,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q10">
         <v>2.1</v>
@@ -3369,7 +3375,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3575,7 +3581,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -3781,7 +3787,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q14">
         <v>2.13</v>
@@ -3987,7 +3993,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q15">
         <v>3.2</v>
@@ -4193,7 +4199,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4274,7 +4280,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ16">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR16">
         <v>2.91</v>
@@ -4605,7 +4611,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4811,7 +4817,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q19">
         <v>3.75</v>
@@ -5017,7 +5023,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q20">
         <v>3.25</v>
@@ -5301,7 +5307,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ21">
         <v>0.43</v>
@@ -5635,7 +5641,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5716,7 +5722,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ23">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -5841,7 +5847,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -6047,7 +6053,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6253,7 +6259,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6743,7 +6749,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AQ28">
         <v>0.67</v>
@@ -6871,7 +6877,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -7283,7 +7289,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q31">
         <v>2.9</v>
@@ -7489,7 +7495,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q32">
         <v>3.42</v>
@@ -7695,7 +7701,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q33">
         <v>1.56</v>
@@ -7901,7 +7907,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q34">
         <v>3.25</v>
@@ -8107,7 +8113,7 @@
         <v>115</v>
       </c>
       <c r="P35" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q35">
         <v>4.25</v>
@@ -8185,7 +8191,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AQ35">
         <v>1.8</v>
@@ -8313,7 +8319,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q36">
         <v>3.15</v>
@@ -8394,7 +8400,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ36">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR36">
         <v>1.07</v>
@@ -8519,7 +8525,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q37">
         <v>2.75</v>
@@ -8931,7 +8937,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9012,7 +9018,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ39">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR39">
         <v>2.38</v>
@@ -9755,7 +9761,7 @@
         <v>123</v>
       </c>
       <c r="P43" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9961,7 +9967,7 @@
         <v>124</v>
       </c>
       <c r="P44" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q44">
         <v>3.2</v>
@@ -10039,10 +10045,10 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ44">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR44">
         <v>2.26</v>
@@ -10167,7 +10173,7 @@
         <v>88</v>
       </c>
       <c r="P45" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q45">
         <v>7.5</v>
@@ -10373,7 +10379,7 @@
         <v>125</v>
       </c>
       <c r="P46" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="Q46">
         <v>3.1</v>
@@ -11197,7 +11203,7 @@
         <v>129</v>
       </c>
       <c r="P50" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q50">
         <v>2.65</v>
@@ -11687,7 +11693,7 @@
         <v>1.33</v>
       </c>
       <c r="AP52">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ52">
         <v>1.14</v>
@@ -12923,7 +12929,7 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AQ58">
         <v>1.14</v>
@@ -14571,7 +14577,7 @@
         <v>2.5</v>
       </c>
       <c r="AP66">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AQ66">
         <v>2.67</v>
@@ -14905,7 +14911,7 @@
         <v>88</v>
       </c>
       <c r="P68" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q68">
         <v>3.24</v>
@@ -14986,7 +14992,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ68">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR68">
         <v>2.12</v>
@@ -15192,7 +15198,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ69">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR69">
         <v>2.08</v>
@@ -15807,7 +15813,7 @@
         <v>1</v>
       </c>
       <c r="AP72">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ72">
         <v>1.14</v>
@@ -16016,7 +16022,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ73">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR73">
         <v>1.59</v>
@@ -17252,7 +17258,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ79">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR79">
         <v>2.28</v>
@@ -17455,7 +17461,7 @@
         <v>1.8</v>
       </c>
       <c r="AP80">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ80">
         <v>2</v>
@@ -17664,7 +17670,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ81">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR81">
         <v>1.41</v>
@@ -18694,7 +18700,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ86">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR86">
         <v>2.02</v>
@@ -20055,7 +20061,7 @@
         <v>88</v>
       </c>
       <c r="P93" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q93">
         <v>3.5</v>
@@ -20133,7 +20139,7 @@
         <v>0.8</v>
       </c>
       <c r="AP93">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AQ93">
         <v>1.14</v>
@@ -21036,6 +21042,418 @@
       </c>
       <c r="BP97">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="98" spans="1:68">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>7825290</v>
+      </c>
+      <c r="C98" t="s">
+        <v>68</v>
+      </c>
+      <c r="D98" t="s">
+        <v>69</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45794.29166666666</v>
+      </c>
+      <c r="F98">
+        <v>13</v>
+      </c>
+      <c r="G98" t="s">
+        <v>82</v>
+      </c>
+      <c r="H98" t="s">
+        <v>71</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>2</v>
+      </c>
+      <c r="K98">
+        <v>2</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>3</v>
+      </c>
+      <c r="N98">
+        <v>3</v>
+      </c>
+      <c r="O98" t="s">
+        <v>88</v>
+      </c>
+      <c r="P98" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q98">
+        <v>5.25</v>
+      </c>
+      <c r="R98">
+        <v>2.33</v>
+      </c>
+      <c r="S98">
+        <v>2.06</v>
+      </c>
+      <c r="T98">
+        <v>1.31</v>
+      </c>
+      <c r="U98">
+        <v>3.15</v>
+      </c>
+      <c r="V98">
+        <v>2.47</v>
+      </c>
+      <c r="W98">
+        <v>1.48</v>
+      </c>
+      <c r="X98">
+        <v>5.55</v>
+      </c>
+      <c r="Y98">
+        <v>1.08</v>
+      </c>
+      <c r="Z98">
+        <v>5.5</v>
+      </c>
+      <c r="AA98">
+        <v>4.3</v>
+      </c>
+      <c r="AB98">
+        <v>1.46</v>
+      </c>
+      <c r="AC98">
+        <v>1.01</v>
+      </c>
+      <c r="AD98">
+        <v>11</v>
+      </c>
+      <c r="AE98">
+        <v>1.19</v>
+      </c>
+      <c r="AF98">
+        <v>3.8</v>
+      </c>
+      <c r="AG98">
+        <v>1.67</v>
+      </c>
+      <c r="AH98">
+        <v>2.1</v>
+      </c>
+      <c r="AI98">
+        <v>1.76</v>
+      </c>
+      <c r="AJ98">
+        <v>1.95</v>
+      </c>
+      <c r="AK98">
+        <v>2.38</v>
+      </c>
+      <c r="AL98">
+        <v>1.22</v>
+      </c>
+      <c r="AM98">
+        <v>1.14</v>
+      </c>
+      <c r="AN98">
+        <v>2</v>
+      </c>
+      <c r="AO98">
+        <v>2</v>
+      </c>
+      <c r="AP98">
+        <v>1.67</v>
+      </c>
+      <c r="AQ98">
+        <v>2.17</v>
+      </c>
+      <c r="AR98">
+        <v>1.87</v>
+      </c>
+      <c r="AS98">
+        <v>1.74</v>
+      </c>
+      <c r="AT98">
+        <v>3.61</v>
+      </c>
+      <c r="AU98">
+        <v>6</v>
+      </c>
+      <c r="AV98">
+        <v>10</v>
+      </c>
+      <c r="AW98">
+        <v>9</v>
+      </c>
+      <c r="AX98">
+        <v>9</v>
+      </c>
+      <c r="AY98">
+        <v>16</v>
+      </c>
+      <c r="AZ98">
+        <v>21</v>
+      </c>
+      <c r="BA98">
+        <v>5</v>
+      </c>
+      <c r="BB98">
+        <v>7</v>
+      </c>
+      <c r="BC98">
+        <v>12</v>
+      </c>
+      <c r="BD98">
+        <v>2.8</v>
+      </c>
+      <c r="BE98">
+        <v>6.75</v>
+      </c>
+      <c r="BF98">
+        <v>1.5</v>
+      </c>
+      <c r="BG98">
+        <v>1.26</v>
+      </c>
+      <c r="BH98">
+        <v>3.4</v>
+      </c>
+      <c r="BI98">
+        <v>1.46</v>
+      </c>
+      <c r="BJ98">
+        <v>2.5</v>
+      </c>
+      <c r="BK98">
+        <v>1.72</v>
+      </c>
+      <c r="BL98">
+        <v>1.98</v>
+      </c>
+      <c r="BM98">
+        <v>2.14</v>
+      </c>
+      <c r="BN98">
+        <v>1.61</v>
+      </c>
+      <c r="BO98">
+        <v>2.7</v>
+      </c>
+      <c r="BP98">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:68">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>7825292</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" t="s">
+        <v>69</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45794.33333333334</v>
+      </c>
+      <c r="F99">
+        <v>13</v>
+      </c>
+      <c r="G99" t="s">
+        <v>85</v>
+      </c>
+      <c r="H99" t="s">
+        <v>76</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
+      </c>
+      <c r="M99">
+        <v>2</v>
+      </c>
+      <c r="N99">
+        <v>3</v>
+      </c>
+      <c r="O99" t="s">
+        <v>165</v>
+      </c>
+      <c r="P99" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q99">
+        <v>3.52</v>
+      </c>
+      <c r="R99">
+        <v>2.25</v>
+      </c>
+      <c r="S99">
+        <v>2.66</v>
+      </c>
+      <c r="T99">
+        <v>1.3</v>
+      </c>
+      <c r="U99">
+        <v>3.22</v>
+      </c>
+      <c r="V99">
+        <v>2.44</v>
+      </c>
+      <c r="W99">
+        <v>1.49</v>
+      </c>
+      <c r="X99">
+        <v>5.55</v>
+      </c>
+      <c r="Y99">
+        <v>1.08</v>
+      </c>
+      <c r="Z99">
+        <v>3</v>
+      </c>
+      <c r="AA99">
+        <v>3.62</v>
+      </c>
+      <c r="AB99">
+        <v>2.04</v>
+      </c>
+      <c r="AC99">
+        <v>1.01</v>
+      </c>
+      <c r="AD99">
+        <v>11</v>
+      </c>
+      <c r="AE99">
+        <v>1.16</v>
+      </c>
+      <c r="AF99">
+        <v>4.1</v>
+      </c>
+      <c r="AG99">
+        <v>1.65</v>
+      </c>
+      <c r="AH99">
+        <v>2.05</v>
+      </c>
+      <c r="AI99">
+        <v>1.56</v>
+      </c>
+      <c r="AJ99">
+        <v>2.27</v>
+      </c>
+      <c r="AK99">
+        <v>1.66</v>
+      </c>
+      <c r="AL99">
+        <v>1.27</v>
+      </c>
+      <c r="AM99">
+        <v>1.36</v>
+      </c>
+      <c r="AN99">
+        <v>0.4</v>
+      </c>
+      <c r="AO99">
+        <v>1.33</v>
+      </c>
+      <c r="AP99">
+        <v>0.33</v>
+      </c>
+      <c r="AQ99">
+        <v>1.57</v>
+      </c>
+      <c r="AR99">
+        <v>1.19</v>
+      </c>
+      <c r="AS99">
+        <v>1.19</v>
+      </c>
+      <c r="AT99">
+        <v>2.38</v>
+      </c>
+      <c r="AU99">
+        <v>6</v>
+      </c>
+      <c r="AV99">
+        <v>5</v>
+      </c>
+      <c r="AW99">
+        <v>7</v>
+      </c>
+      <c r="AX99">
+        <v>4</v>
+      </c>
+      <c r="AY99">
+        <v>15</v>
+      </c>
+      <c r="AZ99">
+        <v>10</v>
+      </c>
+      <c r="BA99">
+        <v>7</v>
+      </c>
+      <c r="BB99">
+        <v>0</v>
+      </c>
+      <c r="BC99">
+        <v>7</v>
+      </c>
+      <c r="BD99">
+        <v>2.1</v>
+      </c>
+      <c r="BE99">
+        <v>6.75</v>
+      </c>
+      <c r="BF99">
+        <v>1.88</v>
+      </c>
+      <c r="BG99">
+        <v>1.26</v>
+      </c>
+      <c r="BH99">
+        <v>3.4</v>
+      </c>
+      <c r="BI99">
+        <v>1.46</v>
+      </c>
+      <c r="BJ99">
+        <v>2.5</v>
+      </c>
+      <c r="BK99">
+        <v>1.73</v>
+      </c>
+      <c r="BL99">
+        <v>1.96</v>
+      </c>
+      <c r="BM99">
+        <v>2.14</v>
+      </c>
+      <c r="BN99">
+        <v>1.61</v>
+      </c>
+      <c r="BO99">
+        <v>2.7</v>
+      </c>
+      <c r="BP99">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/China Chinese Super League_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/China Chinese Super League_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="230">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -514,6 +514,9 @@
     <t>['89']</t>
   </si>
   <si>
+    <t>['15']</t>
+  </si>
+  <si>
     <t>['53', '79']</t>
   </si>
   <si>
@@ -695,6 +698,12 @@
   </si>
   <si>
     <t>['8', '67']</t>
+  </si>
+  <si>
+    <t>['53']</t>
+  </si>
+  <si>
+    <t>['57']</t>
   </si>
 </sst>
 </file>
@@ -1056,7 +1065,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP99"/>
+  <dimension ref="A1:BP102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1393,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ2">
         <v>0.67</v>
@@ -1727,7 +1736,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1808,7 +1817,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ4">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1933,7 +1942,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q5">
         <v>2.85</v>
@@ -2139,7 +2148,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q6">
         <v>2.2</v>
@@ -2551,7 +2560,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q8">
         <v>2.04</v>
@@ -2757,7 +2766,7 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q9">
         <v>1.5</v>
@@ -2835,7 +2844,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ9">
         <v>0.57</v>
@@ -2963,7 +2972,7 @@
         <v>93</v>
       </c>
       <c r="P10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q10">
         <v>2.1</v>
@@ -3247,7 +3256,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ11">
         <v>0.43</v>
@@ -3375,7 +3384,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q12">
         <v>3.1</v>
@@ -3581,7 +3590,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q13">
         <v>3.6</v>
@@ -3787,7 +3796,7 @@
         <v>96</v>
       </c>
       <c r="P14" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q14">
         <v>2.13</v>
@@ -3868,7 +3877,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ14">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR14">
         <v>2.29</v>
@@ -3993,7 +4002,7 @@
         <v>97</v>
       </c>
       <c r="P15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q15">
         <v>3.2</v>
@@ -4199,7 +4208,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4277,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ16">
         <v>1.57</v>
@@ -4611,7 +4620,7 @@
         <v>100</v>
       </c>
       <c r="P18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q18">
         <v>5.5</v>
@@ -4817,7 +4826,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q19">
         <v>3.75</v>
@@ -5023,7 +5032,7 @@
         <v>101</v>
       </c>
       <c r="P20" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q20">
         <v>3.25</v>
@@ -5641,7 +5650,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5847,7 +5856,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q24">
         <v>4.75</v>
@@ -5928,7 +5937,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ24">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR24">
         <v>1.93</v>
@@ -6053,7 +6062,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q25">
         <v>2.88</v>
@@ -6259,7 +6268,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q26">
         <v>2.88</v>
@@ -6877,7 +6886,7 @@
         <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q29">
         <v>1.83</v>
@@ -7289,7 +7298,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q31">
         <v>2.9</v>
@@ -7495,7 +7504,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q32">
         <v>3.42</v>
@@ -7576,7 +7585,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ32">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR32">
         <v>3.11</v>
@@ -7701,7 +7710,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q33">
         <v>1.56</v>
@@ -7779,7 +7788,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ33">
         <v>0.5</v>
@@ -7907,7 +7916,7 @@
         <v>114</v>
       </c>
       <c r="P34" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q34">
         <v>3.25</v>
@@ -8113,7 +8122,7 @@
         <v>115</v>
       </c>
       <c r="P35" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q35">
         <v>4.25</v>
@@ -8194,7 +8203,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ35">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR35">
         <v>1.08</v>
@@ -8319,7 +8328,7 @@
         <v>116</v>
       </c>
       <c r="P36" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q36">
         <v>3.15</v>
@@ -8525,7 +8534,7 @@
         <v>117</v>
       </c>
       <c r="P37" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q37">
         <v>2.75</v>
@@ -8809,7 +8818,7 @@
         <v>0.67</v>
       </c>
       <c r="AP38">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ38">
         <v>0.57</v>
@@ -8937,7 +8946,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q39">
         <v>2.88</v>
@@ -9015,7 +9024,7 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ39">
         <v>2.17</v>
@@ -9761,7 +9770,7 @@
         <v>123</v>
       </c>
       <c r="P43" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9967,7 +9976,7 @@
         <v>124</v>
       </c>
       <c r="P44" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q44">
         <v>3.2</v>
@@ -10173,7 +10182,7 @@
         <v>88</v>
       </c>
       <c r="P45" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q45">
         <v>7.5</v>
@@ -10585,7 +10594,7 @@
         <v>126</v>
       </c>
       <c r="P47" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q47">
         <v>1.95</v>
@@ -10791,7 +10800,7 @@
         <v>127</v>
       </c>
       <c r="P48" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q48">
         <v>3.7</v>
@@ -10872,7 +10881,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ48">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR48">
         <v>1.15</v>
@@ -10997,7 +11006,7 @@
         <v>128</v>
       </c>
       <c r="P49" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q49">
         <v>4.33</v>
@@ -11078,7 +11087,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ49">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR49">
         <v>1.83</v>
@@ -11203,7 +11212,7 @@
         <v>129</v>
       </c>
       <c r="P50" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q50">
         <v>2.65</v>
@@ -11409,7 +11418,7 @@
         <v>130</v>
       </c>
       <c r="P51" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q51">
         <v>4.15</v>
@@ -11821,7 +11830,7 @@
         <v>132</v>
       </c>
       <c r="P53" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q53">
         <v>1.8</v>
@@ -12027,7 +12036,7 @@
         <v>104</v>
       </c>
       <c r="P54" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q54">
         <v>1.71</v>
@@ -12105,7 +12114,7 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ54">
         <v>1.14</v>
@@ -12233,7 +12242,7 @@
         <v>133</v>
       </c>
       <c r="P55" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q55">
         <v>1.45</v>
@@ -12645,7 +12654,7 @@
         <v>135</v>
       </c>
       <c r="P57" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q57">
         <v>2.88</v>
@@ -12726,7 +12735,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ57">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR57">
         <v>1.81</v>
@@ -13881,7 +13890,7 @@
         <v>140</v>
       </c>
       <c r="P63" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q63">
         <v>2.88</v>
@@ -13959,7 +13968,7 @@
         <v>2.33</v>
       </c>
       <c r="AP63">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ63">
         <v>2.67</v>
@@ -14293,7 +14302,7 @@
         <v>142</v>
       </c>
       <c r="P65" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q65">
         <v>4.5</v>
@@ -14499,7 +14508,7 @@
         <v>143</v>
       </c>
       <c r="P66" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q66">
         <v>5.2</v>
@@ -14705,7 +14714,7 @@
         <v>144</v>
       </c>
       <c r="P67" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q67">
         <v>3.22</v>
@@ -14911,7 +14920,7 @@
         <v>88</v>
       </c>
       <c r="P68" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q68">
         <v>3.24</v>
@@ -15117,7 +15126,7 @@
         <v>145</v>
       </c>
       <c r="P69" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q69">
         <v>3.18</v>
@@ -15323,7 +15332,7 @@
         <v>124</v>
       </c>
       <c r="P70" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q70">
         <v>3.22</v>
@@ -15529,7 +15538,7 @@
         <v>146</v>
       </c>
       <c r="P71" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q71">
         <v>2.1</v>
@@ -15735,7 +15744,7 @@
         <v>147</v>
       </c>
       <c r="P72" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q72">
         <v>2.75</v>
@@ -16147,7 +16156,7 @@
         <v>148</v>
       </c>
       <c r="P74" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q74">
         <v>2.2</v>
@@ -16353,7 +16362,7 @@
         <v>149</v>
       </c>
       <c r="P75" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q75">
         <v>2.5</v>
@@ -16559,7 +16568,7 @@
         <v>150</v>
       </c>
       <c r="P76" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q76">
         <v>1.57</v>
@@ -16765,7 +16774,7 @@
         <v>151</v>
       </c>
       <c r="P77" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q77">
         <v>2.63</v>
@@ -16843,10 +16852,10 @@
         <v>1.5</v>
       </c>
       <c r="AP77">
+        <v>1.75</v>
+      </c>
+      <c r="AQ77">
         <v>1.86</v>
-      </c>
-      <c r="AQ77">
-        <v>2</v>
       </c>
       <c r="AR77">
         <v>2</v>
@@ -17255,7 +17264,7 @@
         <v>2.33</v>
       </c>
       <c r="AP79">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ79">
         <v>2.17</v>
@@ -17383,7 +17392,7 @@
         <v>88</v>
       </c>
       <c r="P80" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q80">
         <v>3.6</v>
@@ -17464,7 +17473,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ80">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR80">
         <v>2.04</v>
@@ -17589,7 +17598,7 @@
         <v>154</v>
       </c>
       <c r="P81" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q81">
         <v>2.6</v>
@@ -17795,7 +17804,7 @@
         <v>88</v>
       </c>
       <c r="P82" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q82">
         <v>4.5</v>
@@ -18285,7 +18294,7 @@
         <v>0.8</v>
       </c>
       <c r="AP84">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ84">
         <v>0.57</v>
@@ -18413,7 +18422,7 @@
         <v>157</v>
       </c>
       <c r="P85" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -18494,7 +18503,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ85">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR85">
         <v>1.6</v>
@@ -18619,7 +18628,7 @@
         <v>114</v>
       </c>
       <c r="P86" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q86">
         <v>5.5</v>
@@ -19031,7 +19040,7 @@
         <v>158</v>
       </c>
       <c r="P88" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q88">
         <v>1.53</v>
@@ -19109,7 +19118,7 @@
         <v>0.2</v>
       </c>
       <c r="AP88">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ88">
         <v>0.17</v>
@@ -19443,7 +19452,7 @@
         <v>88</v>
       </c>
       <c r="P90" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q90">
         <v>6</v>
@@ -19649,7 +19658,7 @@
         <v>160</v>
       </c>
       <c r="P91" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q91">
         <v>2.2</v>
@@ -19855,7 +19864,7 @@
         <v>161</v>
       </c>
       <c r="P92" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q92">
         <v>1.8</v>
@@ -20061,7 +20070,7 @@
         <v>88</v>
       </c>
       <c r="P93" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q93">
         <v>3.5</v>
@@ -20473,7 +20482,7 @@
         <v>162</v>
       </c>
       <c r="P95" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q95">
         <v>2.88</v>
@@ -20679,7 +20688,7 @@
         <v>163</v>
       </c>
       <c r="P96" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q96">
         <v>2.38</v>
@@ -21091,7 +21100,7 @@
         <v>88</v>
       </c>
       <c r="P98" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q98">
         <v>5.25</v>
@@ -21297,7 +21306,7 @@
         <v>165</v>
       </c>
       <c r="P99" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q99">
         <v>3.52</v>
@@ -21454,6 +21463,624 @@
       </c>
       <c r="BP99">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="100" spans="1:68">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>7825294</v>
+      </c>
+      <c r="C100" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" t="s">
+        <v>69</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45794.35763888889</v>
+      </c>
+      <c r="F100">
+        <v>13</v>
+      </c>
+      <c r="G100" t="s">
+        <v>70</v>
+      </c>
+      <c r="H100" t="s">
+        <v>79</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100">
+        <v>2</v>
+      </c>
+      <c r="L100">
+        <v>1</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+      <c r="N100">
+        <v>2</v>
+      </c>
+      <c r="O100" t="s">
+        <v>166</v>
+      </c>
+      <c r="P100" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q100">
+        <v>1.79</v>
+      </c>
+      <c r="R100">
+        <v>2.52</v>
+      </c>
+      <c r="S100">
+        <v>6.65</v>
+      </c>
+      <c r="T100">
+        <v>1.25</v>
+      </c>
+      <c r="U100">
+        <v>3.42</v>
+      </c>
+      <c r="V100">
+        <v>2.34</v>
+      </c>
+      <c r="W100">
+        <v>1.56</v>
+      </c>
+      <c r="X100">
+        <v>5.2</v>
+      </c>
+      <c r="Y100">
+        <v>1.11</v>
+      </c>
+      <c r="Z100">
+        <v>1.36</v>
+      </c>
+      <c r="AA100">
+        <v>5</v>
+      </c>
+      <c r="AB100">
+        <v>7.7</v>
+      </c>
+      <c r="AC100">
+        <v>1.01</v>
+      </c>
+      <c r="AD100">
+        <v>13</v>
+      </c>
+      <c r="AE100">
+        <v>1.14</v>
+      </c>
+      <c r="AF100">
+        <v>4.45</v>
+      </c>
+      <c r="AG100">
+        <v>1.59</v>
+      </c>
+      <c r="AH100">
+        <v>2.3</v>
+      </c>
+      <c r="AI100">
+        <v>1.83</v>
+      </c>
+      <c r="AJ100">
+        <v>1.87</v>
+      </c>
+      <c r="AK100">
+        <v>1.07</v>
+      </c>
+      <c r="AL100">
+        <v>1.16</v>
+      </c>
+      <c r="AM100">
+        <v>3.05</v>
+      </c>
+      <c r="AN100">
+        <v>2.17</v>
+      </c>
+      <c r="AO100">
+        <v>1</v>
+      </c>
+      <c r="AP100">
+        <v>2</v>
+      </c>
+      <c r="AQ100">
+        <v>1</v>
+      </c>
+      <c r="AR100">
+        <v>2.09</v>
+      </c>
+      <c r="AS100">
+        <v>1.34</v>
+      </c>
+      <c r="AT100">
+        <v>3.43</v>
+      </c>
+      <c r="AU100">
+        <v>-1</v>
+      </c>
+      <c r="AV100">
+        <v>-1</v>
+      </c>
+      <c r="AW100">
+        <v>-1</v>
+      </c>
+      <c r="AX100">
+        <v>-1</v>
+      </c>
+      <c r="AY100">
+        <v>-1</v>
+      </c>
+      <c r="AZ100">
+        <v>-1</v>
+      </c>
+      <c r="BA100">
+        <v>-1</v>
+      </c>
+      <c r="BB100">
+        <v>-1</v>
+      </c>
+      <c r="BC100">
+        <v>-1</v>
+      </c>
+      <c r="BD100">
+        <v>1.3</v>
+      </c>
+      <c r="BE100">
+        <v>7.5</v>
+      </c>
+      <c r="BF100">
+        <v>3.7</v>
+      </c>
+      <c r="BG100">
+        <v>1.27</v>
+      </c>
+      <c r="BH100">
+        <v>3.3</v>
+      </c>
+      <c r="BI100">
+        <v>1.48</v>
+      </c>
+      <c r="BJ100">
+        <v>2.45</v>
+      </c>
+      <c r="BK100">
+        <v>1.77</v>
+      </c>
+      <c r="BL100">
+        <v>1.92</v>
+      </c>
+      <c r="BM100">
+        <v>2.18</v>
+      </c>
+      <c r="BN100">
+        <v>1.58</v>
+      </c>
+      <c r="BO100">
+        <v>2.8</v>
+      </c>
+      <c r="BP100">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="101" spans="1:68">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>7825293</v>
+      </c>
+      <c r="C101" t="s">
+        <v>68</v>
+      </c>
+      <c r="D101" t="s">
+        <v>69</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45794.35763888889</v>
+      </c>
+      <c r="F101">
+        <v>13</v>
+      </c>
+      <c r="G101" t="s">
+        <v>73</v>
+      </c>
+      <c r="H101" t="s">
+        <v>84</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>1</v>
+      </c>
+      <c r="M101">
+        <v>1</v>
+      </c>
+      <c r="N101">
+        <v>2</v>
+      </c>
+      <c r="O101" t="s">
+        <v>127</v>
+      </c>
+      <c r="P101" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q101">
+        <v>5.55</v>
+      </c>
+      <c r="R101">
+        <v>2.51</v>
+      </c>
+      <c r="S101">
+        <v>1.9</v>
+      </c>
+      <c r="T101">
+        <v>1.24</v>
+      </c>
+      <c r="U101">
+        <v>3.5</v>
+      </c>
+      <c r="V101">
+        <v>2.23</v>
+      </c>
+      <c r="W101">
+        <v>1.61</v>
+      </c>
+      <c r="X101">
+        <v>4.75</v>
+      </c>
+      <c r="Y101">
+        <v>1.13</v>
+      </c>
+      <c r="Z101">
+        <v>7.9</v>
+      </c>
+      <c r="AA101">
+        <v>5.3</v>
+      </c>
+      <c r="AB101">
+        <v>1.27</v>
+      </c>
+      <c r="AC101">
+        <v>1.01</v>
+      </c>
+      <c r="AD101">
+        <v>13</v>
+      </c>
+      <c r="AE101">
+        <v>1.12</v>
+      </c>
+      <c r="AF101">
+        <v>4.65</v>
+      </c>
+      <c r="AG101">
+        <v>1.47</v>
+      </c>
+      <c r="AH101">
+        <v>2.5</v>
+      </c>
+      <c r="AI101">
+        <v>1.66</v>
+      </c>
+      <c r="AJ101">
+        <v>2.09</v>
+      </c>
+      <c r="AK101">
+        <v>2.64</v>
+      </c>
+      <c r="AL101">
+        <v>1.18</v>
+      </c>
+      <c r="AM101">
+        <v>1.11</v>
+      </c>
+      <c r="AN101">
+        <v>1</v>
+      </c>
+      <c r="AO101">
+        <v>2</v>
+      </c>
+      <c r="AP101">
+        <v>1</v>
+      </c>
+      <c r="AQ101">
+        <v>1.86</v>
+      </c>
+      <c r="AR101">
+        <v>1.51</v>
+      </c>
+      <c r="AS101">
+        <v>1.5</v>
+      </c>
+      <c r="AT101">
+        <v>3.01</v>
+      </c>
+      <c r="AU101">
+        <v>-1</v>
+      </c>
+      <c r="AV101">
+        <v>-1</v>
+      </c>
+      <c r="AW101">
+        <v>-1</v>
+      </c>
+      <c r="AX101">
+        <v>-1</v>
+      </c>
+      <c r="AY101">
+        <v>-1</v>
+      </c>
+      <c r="AZ101">
+        <v>-1</v>
+      </c>
+      <c r="BA101">
+        <v>-1</v>
+      </c>
+      <c r="BB101">
+        <v>-1</v>
+      </c>
+      <c r="BC101">
+        <v>-1</v>
+      </c>
+      <c r="BD101">
+        <v>3.15</v>
+      </c>
+      <c r="BE101">
+        <v>7</v>
+      </c>
+      <c r="BF101">
+        <v>1.43</v>
+      </c>
+      <c r="BG101">
+        <v>1.24</v>
+      </c>
+      <c r="BH101">
+        <v>3.55</v>
+      </c>
+      <c r="BI101">
+        <v>1.43</v>
+      </c>
+      <c r="BJ101">
+        <v>2.6</v>
+      </c>
+      <c r="BK101">
+        <v>1.68</v>
+      </c>
+      <c r="BL101">
+        <v>2.02</v>
+      </c>
+      <c r="BM101">
+        <v>2.08</v>
+      </c>
+      <c r="BN101">
+        <v>1.65</v>
+      </c>
+      <c r="BO101">
+        <v>2.65</v>
+      </c>
+      <c r="BP101">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="102" spans="1:68">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>7825295</v>
+      </c>
+      <c r="C102" t="s">
+        <v>68</v>
+      </c>
+      <c r="D102" t="s">
+        <v>69</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45794.375</v>
+      </c>
+      <c r="F102">
+        <v>13</v>
+      </c>
+      <c r="G102" t="s">
+        <v>77</v>
+      </c>
+      <c r="H102" t="s">
+        <v>75</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+      <c r="N102">
+        <v>2</v>
+      </c>
+      <c r="O102" t="s">
+        <v>114</v>
+      </c>
+      <c r="P102" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q102">
+        <v>2.3</v>
+      </c>
+      <c r="R102">
+        <v>2.54</v>
+      </c>
+      <c r="S102">
+        <v>3.62</v>
+      </c>
+      <c r="T102">
+        <v>1.16</v>
+      </c>
+      <c r="U102">
+        <v>4.3</v>
+      </c>
+      <c r="V102">
+        <v>1.96</v>
+      </c>
+      <c r="W102">
+        <v>1.79</v>
+      </c>
+      <c r="X102">
+        <v>4.05</v>
+      </c>
+      <c r="Y102">
+        <v>1.18</v>
+      </c>
+      <c r="Z102">
+        <v>1.92</v>
+      </c>
+      <c r="AA102">
+        <v>4</v>
+      </c>
+      <c r="AB102">
+        <v>3.03</v>
+      </c>
+      <c r="AC102">
+        <v>1.01</v>
+      </c>
+      <c r="AD102">
+        <v>17</v>
+      </c>
+      <c r="AE102">
+        <v>1.05</v>
+      </c>
+      <c r="AF102">
+        <v>6.55</v>
+      </c>
+      <c r="AG102">
+        <v>1.36</v>
+      </c>
+      <c r="AH102">
+        <v>2.89</v>
+      </c>
+      <c r="AI102">
+        <v>1.35</v>
+      </c>
+      <c r="AJ102">
+        <v>2.93</v>
+      </c>
+      <c r="AK102">
+        <v>1.3</v>
+      </c>
+      <c r="AL102">
+        <v>1.22</v>
+      </c>
+      <c r="AM102">
+        <v>1.89</v>
+      </c>
+      <c r="AN102">
+        <v>1.86</v>
+      </c>
+      <c r="AO102">
+        <v>1.8</v>
+      </c>
+      <c r="AP102">
+        <v>1.75</v>
+      </c>
+      <c r="AQ102">
+        <v>1.67</v>
+      </c>
+      <c r="AR102">
+        <v>2.21</v>
+      </c>
+      <c r="AS102">
+        <v>1.94</v>
+      </c>
+      <c r="AT102">
+        <v>4.15</v>
+      </c>
+      <c r="AU102">
+        <v>-1</v>
+      </c>
+      <c r="AV102">
+        <v>-1</v>
+      </c>
+      <c r="AW102">
+        <v>-1</v>
+      </c>
+      <c r="AX102">
+        <v>-1</v>
+      </c>
+      <c r="AY102">
+        <v>-1</v>
+      </c>
+      <c r="AZ102">
+        <v>-1</v>
+      </c>
+      <c r="BA102">
+        <v>-1</v>
+      </c>
+      <c r="BB102">
+        <v>-1</v>
+      </c>
+      <c r="BC102">
+        <v>-1</v>
+      </c>
+      <c r="BD102">
+        <v>1.7</v>
+      </c>
+      <c r="BE102">
+        <v>6.75</v>
+      </c>
+      <c r="BF102">
+        <v>2.38</v>
+      </c>
+      <c r="BG102">
+        <v>1.19</v>
+      </c>
+      <c r="BH102">
+        <v>4.1</v>
+      </c>
+      <c r="BI102">
+        <v>1.33</v>
+      </c>
+      <c r="BJ102">
+        <v>2.95</v>
+      </c>
+      <c r="BK102">
+        <v>1.55</v>
+      </c>
+      <c r="BL102">
+        <v>2.28</v>
+      </c>
+      <c r="BM102">
+        <v>1.88</v>
+      </c>
+      <c r="BN102">
+        <v>1.81</v>
+      </c>
+      <c r="BO102">
+        <v>2.3</v>
+      </c>
+      <c r="BP102">
+        <v>1.53</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/China Chinese Super League_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/China Chinese Super League_2025.xlsx
@@ -21605,31 +21605,31 @@
         <v>3.43</v>
       </c>
       <c r="AU100">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AV100">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW100">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AX100">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AY100">
-        <v>-1</v>
+        <v>26</v>
       </c>
       <c r="AZ100">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BA100">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BB100">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BC100">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BD100">
         <v>1.3</v>
@@ -21811,31 +21811,31 @@
         <v>3.01</v>
       </c>
       <c r="AU101">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AV101">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AW101">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AX101">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AY101">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="AZ101">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BA101">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BB101">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC101">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BD101">
         <v>3.15</v>
@@ -22017,31 +22017,31 @@
         <v>4.15</v>
       </c>
       <c r="AU102">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AV102">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AW102">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AX102">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AY102">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AZ102">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="BA102">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB102">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC102">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BD102">
         <v>1.7</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/China Chinese Super League_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/China Chinese Super League_2025.xlsx
@@ -22038,10 +22038,10 @@
         <v>4</v>
       </c>
       <c r="BB102">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC102">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD102">
         <v>1.7</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/China Chinese Super League_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/China Chinese Super League_2025.xlsx
@@ -1429,10 +1429,10 @@
         <v>6</v>
       </c>
       <c r="AY2">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="AZ2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA2">
         <v>8</v>
@@ -1635,7 +1635,7 @@
         <v>2</v>
       </c>
       <c r="AY3">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ3">
         <v>6</v>
@@ -2047,10 +2047,10 @@
         <v>8</v>
       </c>
       <c r="AY5">
+        <v>13</v>
+      </c>
+      <c r="AZ5">
         <v>14</v>
-      </c>
-      <c r="AZ5">
-        <v>17</v>
       </c>
       <c r="BA5">
         <v>3</v>
@@ -2253,10 +2253,10 @@
         <v>9</v>
       </c>
       <c r="AY6">
+        <v>11</v>
+      </c>
+      <c r="AZ6">
         <v>13</v>
-      </c>
-      <c r="AZ6">
-        <v>17</v>
       </c>
       <c r="BA6">
         <v>5</v>
@@ -2459,10 +2459,10 @@
         <v>10</v>
       </c>
       <c r="AY7">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AZ7">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="BA7">
         <v>9</v>
@@ -2665,10 +2665,10 @@
         <v>11</v>
       </c>
       <c r="AY8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AZ8">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BA8">
         <v>14</v>
@@ -2871,10 +2871,10 @@
         <v>8</v>
       </c>
       <c r="AY9">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ9">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA9">
         <v>5</v>
@@ -3077,10 +3077,10 @@
         <v>5</v>
       </c>
       <c r="AY10">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AZ10">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BA10">
         <v>5</v>
@@ -3283,10 +3283,10 @@
         <v>10</v>
       </c>
       <c r="AY11">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AZ11">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BA11">
         <v>5</v>
@@ -3489,10 +3489,10 @@
         <v>7</v>
       </c>
       <c r="AY12">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ12">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BA12">
         <v>5</v>
@@ -3695,10 +3695,10 @@
         <v>10</v>
       </c>
       <c r="AY13">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AZ13">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BA13">
         <v>4</v>
@@ -4313,10 +4313,10 @@
         <v>5</v>
       </c>
       <c r="AY16">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AZ16">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA16">
         <v>4</v>
@@ -4725,10 +4725,10 @@
         <v>14</v>
       </c>
       <c r="AY18">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AZ18">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="BA18">
         <v>1</v>
@@ -4931,10 +4931,10 @@
         <v>10</v>
       </c>
       <c r="AY19">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AZ19">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="BA19">
         <v>5</v>
@@ -5343,10 +5343,10 @@
         <v>4</v>
       </c>
       <c r="AY21">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AZ21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA21">
         <v>9</v>
@@ -5549,7 +5549,7 @@
         <v>6</v>
       </c>
       <c r="AY22">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="AZ22">
         <v>8</v>
@@ -5758,7 +5758,7 @@
         <v>8</v>
       </c>
       <c r="AZ23">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA23">
         <v>2</v>
@@ -5961,10 +5961,10 @@
         <v>13</v>
       </c>
       <c r="AY24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ24">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="BA24">
         <v>2</v>
@@ -6167,10 +6167,10 @@
         <v>6</v>
       </c>
       <c r="AY25">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AZ25">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA25">
         <v>3</v>
@@ -6376,7 +6376,7 @@
         <v>8</v>
       </c>
       <c r="AZ26">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA26">
         <v>2</v>
@@ -6785,10 +6785,10 @@
         <v>13</v>
       </c>
       <c r="AY28">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ28">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="BA28">
         <v>3</v>
@@ -6991,10 +6991,10 @@
         <v>5</v>
       </c>
       <c r="AY29">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="AZ29">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA29">
         <v>16</v>
@@ -7197,10 +7197,10 @@
         <v>11</v>
       </c>
       <c r="AY30">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ30">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA30">
         <v>3</v>
@@ -7403,10 +7403,10 @@
         <v>8</v>
       </c>
       <c r="AY31">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AZ31">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="BA31">
         <v>6</v>
@@ -7609,10 +7609,10 @@
         <v>10</v>
       </c>
       <c r="AY32">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AZ32">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA32">
         <v>8</v>
@@ -7815,10 +7815,10 @@
         <v>7</v>
       </c>
       <c r="AY33">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AZ33">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA33">
         <v>2</v>
@@ -8021,10 +8021,10 @@
         <v>9</v>
       </c>
       <c r="AY34">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ34">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA34">
         <v>6</v>
@@ -8227,10 +8227,10 @@
         <v>17</v>
       </c>
       <c r="AY35">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AZ35">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="BA35">
         <v>5</v>
@@ -8433,10 +8433,10 @@
         <v>3</v>
       </c>
       <c r="AY36">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AZ36">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA36">
         <v>4</v>
@@ -8639,10 +8639,10 @@
         <v>4</v>
       </c>
       <c r="AY37">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AZ37">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA37">
         <v>6</v>
@@ -8845,10 +8845,10 @@
         <v>5</v>
       </c>
       <c r="AY38">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ38">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA38">
         <v>7</v>
@@ -9054,7 +9054,7 @@
         <v>11</v>
       </c>
       <c r="AZ39">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="BA39">
         <v>8</v>
@@ -9257,10 +9257,10 @@
         <v>6</v>
       </c>
       <c r="AY40">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AZ40">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA40">
         <v>10</v>
@@ -9463,10 +9463,10 @@
         <v>6</v>
       </c>
       <c r="AY41">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AZ41">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BA41">
         <v>8</v>
@@ -9669,10 +9669,10 @@
         <v>8</v>
       </c>
       <c r="AY42">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ42">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA42">
         <v>7</v>
@@ -9875,7 +9875,7 @@
         <v>5</v>
       </c>
       <c r="AY43">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AZ43">
         <v>13</v>
@@ -10081,10 +10081,10 @@
         <v>1</v>
       </c>
       <c r="AY44">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AZ44">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA44">
         <v>9</v>
@@ -10290,7 +10290,7 @@
         <v>7</v>
       </c>
       <c r="AZ45">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA45">
         <v>1</v>
@@ -10493,10 +10493,10 @@
         <v>5</v>
       </c>
       <c r="AY46">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AZ46">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BA46">
         <v>3</v>
@@ -10699,7 +10699,7 @@
         <v>2</v>
       </c>
       <c r="AY47">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AZ47">
         <v>5</v>
@@ -10905,10 +10905,10 @@
         <v>12</v>
       </c>
       <c r="AY48">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ48">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="BA48">
         <v>4</v>
@@ -11111,10 +11111,10 @@
         <v>7</v>
       </c>
       <c r="AY49">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ49">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BA49">
         <v>8</v>
@@ -11317,10 +11317,10 @@
         <v>7</v>
       </c>
       <c r="AY50">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ50">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA50">
         <v>4</v>
@@ -11523,10 +11523,10 @@
         <v>9</v>
       </c>
       <c r="AY51">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ51">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA51">
         <v>4</v>
@@ -11732,7 +11732,7 @@
         <v>13</v>
       </c>
       <c r="AZ52">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA52">
         <v>4</v>
@@ -12141,10 +12141,10 @@
         <v>5</v>
       </c>
       <c r="AY54">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AZ54">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA54">
         <v>6</v>
@@ -12347,7 +12347,7 @@
         <v>6</v>
       </c>
       <c r="AY55">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AZ55">
         <v>10</v>
@@ -12553,10 +12553,10 @@
         <v>3</v>
       </c>
       <c r="AY56">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AZ56">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BA56">
         <v>8</v>
@@ -12965,10 +12965,10 @@
         <v>6</v>
       </c>
       <c r="AY58">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ58">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA58">
         <v>2</v>
@@ -13171,10 +13171,10 @@
         <v>6</v>
       </c>
       <c r="AY59">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ59">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BA59">
         <v>1</v>
@@ -13377,10 +13377,10 @@
         <v>2</v>
       </c>
       <c r="AY60">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ60">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA60">
         <v>5</v>
@@ -13583,7 +13583,7 @@
         <v>4</v>
       </c>
       <c r="AY61">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ61">
         <v>4</v>
@@ -13792,7 +13792,7 @@
         <v>12</v>
       </c>
       <c r="AZ62">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA62">
         <v>3</v>
@@ -13995,10 +13995,10 @@
         <v>8</v>
       </c>
       <c r="AY63">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ63">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA63">
         <v>4</v>
@@ -14201,10 +14201,10 @@
         <v>6</v>
       </c>
       <c r="AY64">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AZ64">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BA64">
         <v>3</v>
@@ -14407,7 +14407,7 @@
         <v>2</v>
       </c>
       <c r="AY65">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AZ65">
         <v>6</v>
@@ -14616,7 +14616,7 @@
         <v>7</v>
       </c>
       <c r="AZ66">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BA66">
         <v>2</v>
@@ -14819,10 +14819,10 @@
         <v>8</v>
       </c>
       <c r="AY67">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ67">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BA67">
         <v>7</v>
@@ -15028,7 +15028,7 @@
         <v>5</v>
       </c>
       <c r="AZ68">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA68">
         <v>8</v>
@@ -15237,13 +15237,13 @@
         <v>11</v>
       </c>
       <c r="BA69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB69">
         <v>3</v>
       </c>
       <c r="BC69">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD69">
         <v>1.88</v>
@@ -15437,10 +15437,10 @@
         <v>8</v>
       </c>
       <c r="AY70">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AZ70">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA70">
         <v>5</v>
@@ -15849,10 +15849,10 @@
         <v>8</v>
       </c>
       <c r="AY72">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AZ72">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="BA72">
         <v>4</v>
@@ -16055,10 +16055,10 @@
         <v>11</v>
       </c>
       <c r="AY73">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AZ73">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="BA73">
         <v>4</v>
@@ -16264,7 +16264,7 @@
         <v>19</v>
       </c>
       <c r="AZ74">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BA74">
         <v>3</v>
@@ -16467,7 +16467,7 @@
         <v>3</v>
       </c>
       <c r="AY75">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ75">
         <v>8</v>
@@ -16673,10 +16673,10 @@
         <v>7</v>
       </c>
       <c r="AY76">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AZ76">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA76">
         <v>7</v>
@@ -16879,10 +16879,10 @@
         <v>8</v>
       </c>
       <c r="AY77">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AZ77">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BA77">
         <v>5</v>
@@ -17291,7 +17291,7 @@
         <v>6</v>
       </c>
       <c r="AY79">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AZ79">
         <v>10</v>
@@ -17497,10 +17497,10 @@
         <v>6</v>
       </c>
       <c r="AY80">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ80">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA80">
         <v>7</v>
@@ -17703,7 +17703,7 @@
         <v>5</v>
       </c>
       <c r="AY81">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AZ81">
         <v>12</v>
@@ -17909,10 +17909,10 @@
         <v>9</v>
       </c>
       <c r="AY82">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AZ82">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="BA82">
         <v>7</v>
@@ -18115,10 +18115,10 @@
         <v>10</v>
       </c>
       <c r="AY83">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AZ83">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BA83">
         <v>6</v>
@@ -18321,10 +18321,10 @@
         <v>2</v>
       </c>
       <c r="AY84">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AZ84">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA84">
         <v>9</v>
@@ -18527,10 +18527,10 @@
         <v>13</v>
       </c>
       <c r="AY85">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ85">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA85">
         <v>4</v>
@@ -18733,10 +18733,10 @@
         <v>10</v>
       </c>
       <c r="AY86">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AZ86">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="BA86">
         <v>8</v>
@@ -18939,7 +18939,7 @@
         <v>2</v>
       </c>
       <c r="AY87">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AZ87">
         <v>2</v>
@@ -19145,10 +19145,10 @@
         <v>8</v>
       </c>
       <c r="AY88">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="AZ88">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA88">
         <v>7</v>
@@ -19351,10 +19351,10 @@
         <v>4</v>
       </c>
       <c r="AY89">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AZ89">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA89">
         <v>8</v>
@@ -19557,10 +19557,10 @@
         <v>14</v>
       </c>
       <c r="AY90">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AZ90">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="BA90">
         <v>5</v>
@@ -19766,7 +19766,7 @@
         <v>13</v>
       </c>
       <c r="AZ91">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="BA91">
         <v>5</v>
@@ -19969,7 +19969,7 @@
         <v>3</v>
       </c>
       <c r="AY92">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AZ92">
         <v>6</v>
@@ -20175,10 +20175,10 @@
         <v>13</v>
       </c>
       <c r="AY93">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ93">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="BA93">
         <v>3</v>
@@ -20381,10 +20381,10 @@
         <v>10</v>
       </c>
       <c r="AY94">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ94">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BA94">
         <v>10</v>
@@ -20587,10 +20587,10 @@
         <v>4</v>
       </c>
       <c r="AY95">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AZ95">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA95">
         <v>6</v>
@@ -21002,7 +21002,7 @@
         <v>11</v>
       </c>
       <c r="AZ97">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA97">
         <v>3</v>
@@ -21205,10 +21205,10 @@
         <v>9</v>
       </c>
       <c r="AY98">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ98">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BA98">
         <v>5</v>
@@ -21411,10 +21411,10 @@
         <v>4</v>
       </c>
       <c r="AY99">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ99">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA99">
         <v>7</v>
@@ -21617,7 +21617,7 @@
         <v>1</v>
       </c>
       <c r="AY100">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AZ100">
         <v>5</v>
@@ -21823,10 +21823,10 @@
         <v>8</v>
       </c>
       <c r="AY101">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AZ101">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA101">
         <v>1</v>
@@ -22032,7 +22032,7 @@
         <v>11</v>
       </c>
       <c r="AZ102">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA102">
         <v>4</v>
